--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Convertisseur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDDD223-6F25-49F0-9EB4-A0431D44F8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0BD948-A739-4467-A64A-A0B64ADB45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB65F6B7-6B5B-4AD1-B2B4-57BEF641AB97}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="829">
   <si>
     <t>id</t>
   </si>
@@ -1796,13 +1796,724 @@
   </si>
   <si>
     <t>Reinette grise du Canada</t>
+  </si>
+  <si>
+    <t>fromage</t>
+  </si>
+  <si>
+    <t>Fromage</t>
+  </si>
+  <si>
+    <t>Abondance</t>
+  </si>
+  <si>
+    <t>Banon</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Bleu de Gex Haut-Jura</t>
+  </si>
+  <si>
+    <t>Bleu des Causses</t>
+  </si>
+  <si>
+    <t>Bleu du Vercors-Sassenage</t>
+  </si>
+  <si>
+    <t>Bleu d’Auvergne</t>
+  </si>
+  <si>
+    <t>Brie de Meaux</t>
+  </si>
+  <si>
+    <t>Brie de Melun</t>
+  </si>
+  <si>
+    <t>Brocciu</t>
+  </si>
+  <si>
+    <t>Camembert de Normandie</t>
+  </si>
+  <si>
+    <t>Cantal</t>
+  </si>
+  <si>
+    <t>Chabichou du Poitou</t>
+  </si>
+  <si>
+    <t>Chaource</t>
+  </si>
+  <si>
+    <t>Charolais</t>
+  </si>
+  <si>
+    <t>Chevrotin</t>
+  </si>
+  <si>
+    <t>Comté</t>
+  </si>
+  <si>
+    <t>Crottin de Chavignol</t>
+  </si>
+  <si>
+    <t>Fourme de Montbrison</t>
+  </si>
+  <si>
+    <t>Fourme d’Ambert</t>
+  </si>
+  <si>
+    <t>Grana Padano</t>
+  </si>
+  <si>
+    <t>Laguiole</t>
+  </si>
+  <si>
+    <t>Langres</t>
+  </si>
+  <si>
+    <t>Livarot</t>
+  </si>
+  <si>
+    <t>Maroilles</t>
+  </si>
+  <si>
+    <t>Mont d’Or</t>
+  </si>
+  <si>
+    <t>Mont d’Or (Vacherin du Haut-Doubs)</t>
+  </si>
+  <si>
+    <t>Morbier</t>
+  </si>
+  <si>
+    <t>Munster</t>
+  </si>
+  <si>
+    <t>Mâconnais</t>
+  </si>
+  <si>
+    <t>Neufchâtel</t>
+  </si>
+  <si>
+    <t>Ossau-Iraty</t>
+  </si>
+  <si>
+    <t>Parmigiano Reggiano</t>
+  </si>
+  <si>
+    <t>Picodon</t>
+  </si>
+  <si>
+    <t>Pont-l’Évêque</t>
+  </si>
+  <si>
+    <t>Pouligny-Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Pélardon</t>
+  </si>
+  <si>
+    <t>Reblochon</t>
+  </si>
+  <si>
+    <t>Rocamadour</t>
+  </si>
+  <si>
+    <t>Roquefort</t>
+  </si>
+  <si>
+    <t>Saint-Nectaire</t>
+  </si>
+  <si>
+    <t>Sainte-Maure de Touraine</t>
+  </si>
+  <si>
+    <t>Salers</t>
+  </si>
+  <si>
+    <t>Selles-sur-Cher</t>
+  </si>
+  <si>
+    <t>Tome des Bauges</t>
+  </si>
+  <si>
+    <t>Valençay</t>
+  </si>
+  <si>
+    <t>Époisses</t>
+  </si>
+  <si>
+    <t>Bleu du Queyras (non AOP)</t>
+  </si>
+  <si>
+    <t>Brillat-Savarin</t>
+  </si>
+  <si>
+    <t>Burrata</t>
+  </si>
+  <si>
+    <t>Carré de l’Est</t>
+  </si>
+  <si>
+    <t>Cheddar</t>
+  </si>
+  <si>
+    <t>Coulommiers</t>
+  </si>
+  <si>
+    <t>Emmental</t>
+  </si>
+  <si>
+    <t>Emmental Grand Cru (CH)</t>
+  </si>
+  <si>
+    <t>Explorateur</t>
+  </si>
+  <si>
+    <t>Feta</t>
+  </si>
+  <si>
+    <t>Fromage blanc</t>
+  </si>
+  <si>
+    <t>Gorgonzola</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>Gruyère</t>
+  </si>
+  <si>
+    <t>Gruyère (CH)</t>
+  </si>
+  <si>
+    <t>Manchego</t>
+  </si>
+  <si>
+    <t>Mascarpone</t>
+  </si>
+  <si>
+    <t>Mozzarella di Bufala Campana</t>
+  </si>
+  <si>
+    <t>Petit-Suisse</t>
+  </si>
+  <si>
+    <t>Port-Salut</t>
+  </si>
+  <si>
+    <t>Provolone</t>
+  </si>
+  <si>
+    <t>Raclette de Savoie</t>
+  </si>
+  <si>
+    <t>Ricotta</t>
+  </si>
+  <si>
+    <t>Saint-Félicien</t>
+  </si>
+  <si>
+    <t>Saint-Marcellin</t>
+  </si>
+  <si>
+    <t>Saint-Paulin</t>
+  </si>
+  <si>
+    <t>Stilton</t>
+  </si>
+  <si>
+    <t>Taleggio</t>
+  </si>
+  <si>
+    <t>Tomme de Brousse (brousse)</t>
+  </si>
+  <si>
+    <t>Tomme de Savoie</t>
+  </si>
+  <si>
+    <t>abondance</t>
+  </si>
+  <si>
+    <t>banon</t>
+  </si>
+  <si>
+    <t>beaufort</t>
+  </si>
+  <si>
+    <t>bleu_de_gex</t>
+  </si>
+  <si>
+    <t>brocciu</t>
+  </si>
+  <si>
+    <t>cantal</t>
+  </si>
+  <si>
+    <t>chaource</t>
+  </si>
+  <si>
+    <t>charolais</t>
+  </si>
+  <si>
+    <t>chevrotin</t>
+  </si>
+  <si>
+    <t>laguiole</t>
+  </si>
+  <si>
+    <t>langres</t>
+  </si>
+  <si>
+    <t>livarot</t>
+  </si>
+  <si>
+    <t>maroilles</t>
+  </si>
+  <si>
+    <t>morbier</t>
+  </si>
+  <si>
+    <t>munster</t>
+  </si>
+  <si>
+    <t>picodon</t>
+  </si>
+  <si>
+    <t>reblochon</t>
+  </si>
+  <si>
+    <t>rocamadour</t>
+  </si>
+  <si>
+    <t>roquefort</t>
+  </si>
+  <si>
+    <t>salers</t>
+  </si>
+  <si>
+    <t>epoisses</t>
+  </si>
+  <si>
+    <t>burrata</t>
+  </si>
+  <si>
+    <t>cheddar</t>
+  </si>
+  <si>
+    <t>coulommiers</t>
+  </si>
+  <si>
+    <t>emmental</t>
+  </si>
+  <si>
+    <t>explorateur</t>
+  </si>
+  <si>
+    <t>feta</t>
+  </si>
+  <si>
+    <t>gorgonzola</t>
+  </si>
+  <si>
+    <t>gouda</t>
+  </si>
+  <si>
+    <t>manchego</t>
+  </si>
+  <si>
+    <t>mascarpone</t>
+  </si>
+  <si>
+    <t>provolone</t>
+  </si>
+  <si>
+    <t>ricotta</t>
+  </si>
+  <si>
+    <t>stilton</t>
+  </si>
+  <si>
+    <t>taleggio</t>
+  </si>
+  <si>
+    <t>tomme_de_savoie</t>
+  </si>
+  <si>
+    <t>bleu_des_causses</t>
+  </si>
+  <si>
+    <t>bleu_du_vercors_sassenage</t>
+  </si>
+  <si>
+    <t>bleu_d_auvergne</t>
+  </si>
+  <si>
+    <t>brie_de_meaux</t>
+  </si>
+  <si>
+    <t>brie_de_melun</t>
+  </si>
+  <si>
+    <t>camembert_de_normandie</t>
+  </si>
+  <si>
+    <t>chabichou_du_poitou</t>
+  </si>
+  <si>
+    <t>comte</t>
+  </si>
+  <si>
+    <t>crottin_de_chavignol</t>
+  </si>
+  <si>
+    <t>fourme_de_montbrison</t>
+  </si>
+  <si>
+    <t>fourme_d_ambert</t>
+  </si>
+  <si>
+    <t>grana_padano</t>
+  </si>
+  <si>
+    <t>mont_d_or</t>
+  </si>
+  <si>
+    <t>mont_d_or_vacherin_du_haut_doubs</t>
+  </si>
+  <si>
+    <t>maconnais</t>
+  </si>
+  <si>
+    <t>neufchatel</t>
+  </si>
+  <si>
+    <t>ossau_iraty</t>
+  </si>
+  <si>
+    <t>parmigiano_reggiano</t>
+  </si>
+  <si>
+    <t>pont_l_eveque</t>
+  </si>
+  <si>
+    <t>pouligny_saint_pierre</t>
+  </si>
+  <si>
+    <t>pelardon</t>
+  </si>
+  <si>
+    <t>saint_nectaire</t>
+  </si>
+  <si>
+    <t>sainte_maure_de_touraine</t>
+  </si>
+  <si>
+    <t>selles_sur_cher</t>
+  </si>
+  <si>
+    <t>tome_des_bauges</t>
+  </si>
+  <si>
+    <t>valencay</t>
+  </si>
+  <si>
+    <t>bleu_du_queyras_non_AOP</t>
+  </si>
+  <si>
+    <t>brillat_savarin</t>
+  </si>
+  <si>
+    <t>carre_de_l_est</t>
+  </si>
+  <si>
+    <t>emmental_grand_cru_CH</t>
+  </si>
+  <si>
+    <t>fromage_blanc</t>
+  </si>
+  <si>
+    <t>gruyere</t>
+  </si>
+  <si>
+    <t>gruyere_CH</t>
+  </si>
+  <si>
+    <t>mozzarella_di_bufala_campana</t>
+  </si>
+  <si>
+    <t>petit_suisse</t>
+  </si>
+  <si>
+    <t>port_salut</t>
+  </si>
+  <si>
+    <t>raclette_de_savoie</t>
+  </si>
+  <si>
+    <t>saint_felicien</t>
+  </si>
+  <si>
+    <t>saint_marcellin</t>
+  </si>
+  <si>
+    <t>saint_paulin</t>
+  </si>
+  <si>
+    <t>tomme_de_brousse_brousse</t>
+  </si>
+  <si>
+    <t>is_cheese</t>
+  </si>
+  <si>
+    <t>aop_cheese</t>
+  </si>
+  <si>
+    <t>fmly_cheese</t>
+  </si>
+  <si>
+    <t>croute_cheese</t>
+  </si>
+  <si>
+    <t>origin_cheese</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>milk_cheese</t>
+  </si>
+  <si>
+    <t>Vache</t>
+  </si>
+  <si>
+    <t>Chèvre</t>
+  </si>
+  <si>
+    <t>Brebis/Chèvre</t>
+  </si>
+  <si>
+    <t>Vache cru</t>
+  </si>
+  <si>
+    <t>Brebis</t>
+  </si>
+  <si>
+    <t>Bufflonne</t>
+  </si>
+  <si>
+    <t>Vache/Brebis</t>
+  </si>
+  <si>
+    <t>Vache/Chèvre</t>
+  </si>
+  <si>
+    <t>Pâte pressée mi-cuite</t>
+  </si>
+  <si>
+    <t>Pâte molle</t>
+  </si>
+  <si>
+    <t>Pâte pressée cuite</t>
+  </si>
+  <si>
+    <t>Pâte persillée</t>
+  </si>
+  <si>
+    <t>Frais</t>
+  </si>
+  <si>
+    <t>Pâte pressée non cuite</t>
+  </si>
+  <si>
+    <t>Pâte molle (évolutive)</t>
+  </si>
+  <si>
+    <t>Pâte molle (ou plus sec)</t>
+  </si>
+  <si>
+    <t>Pâte filée</t>
+  </si>
+  <si>
+    <t>Lavée</t>
+  </si>
+  <si>
+    <t>Naturelle</t>
+  </si>
+  <si>
+    <t>Fleurie</t>
+  </si>
+  <si>
+    <t>Sans croûte</t>
+  </si>
+  <si>
+    <t>Naturelle/fleurie fine</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cendrée</t>
+  </si>
+  <si>
+    <t>Sans croûte / saumure</t>
+  </si>
+  <si>
+    <t>Haute-Savoie</t>
+  </si>
+  <si>
+    <t>Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>Savoie</t>
+  </si>
+  <si>
+    <t>Jura (FR)</t>
+  </si>
+  <si>
+    <t>Haut-Jura</t>
+  </si>
+  <si>
+    <t>Causses (Occitanie)</t>
+  </si>
+  <si>
+    <t>Isère/Drôme</t>
+  </si>
+  <si>
+    <t>Auvergne</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>Cantal/haute Auvergne</t>
+  </si>
+  <si>
+    <t>Poitou</t>
+  </si>
+  <si>
+    <t>Champagne/Bourgogne</t>
+  </si>
+  <si>
+    <t>Bourgogne</t>
+  </si>
+  <si>
+    <t>Savoie/Haute-Savoie</t>
+  </si>
+  <si>
+    <t>Jura</t>
+  </si>
+  <si>
+    <t>Berry (Sancerre)</t>
+  </si>
+  <si>
+    <t>Loire/Forez</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Aubrac</t>
+  </si>
+  <si>
+    <t>Champagne</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>Franche-Comté (FR)</t>
+  </si>
+  <si>
+    <t>Alsace/Vosges</t>
+  </si>
+  <si>
+    <t>Pays basque/Béarn</t>
+  </si>
+  <si>
+    <t>Drôme/Ardèche</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Cévennes/Languedoc</t>
+  </si>
+  <si>
+    <t>Quercy</t>
+  </si>
+  <si>
+    <t>Aveyron + caves de Roquefort</t>
+  </si>
+  <si>
+    <t>Puy-de-Dôme/Cantal</t>
+  </si>
+  <si>
+    <t>Touraine</t>
+  </si>
+  <si>
+    <t>Cantal (salers)</t>
+  </si>
+  <si>
+    <t>Berry/Sologne</t>
+  </si>
+  <si>
+    <t>Hautes-Alpes</t>
+  </si>
+  <si>
+    <t>Bourgogne (FR)</t>
+  </si>
+  <si>
+    <t>Lorraine</t>
+  </si>
+  <si>
+    <t>Royaume-Uni</t>
+  </si>
+  <si>
+    <t>Île-de-France (FR)</t>
+  </si>
+  <si>
+    <t>FR/CH</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Pays-Bas</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Sud-Est</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1937,8 +2648,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2118,8 +2837,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2234,6 +2959,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2279,8 +3028,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2636,18 +3391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C99BCBC-C19B-4075-AB48-0622208F227E}">
-  <dimension ref="A1:GL209"/>
+  <dimension ref="A1:GX288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="12" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="12" topLeftCell="GR245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="GX250" sqref="GX250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2954,8 +3709,26 @@
       <c r="GL1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="GN1" t="s">
+        <v>748</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>749</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>755</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>750</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>751</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2981,7 +3754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -2995,7 +3768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3012,7 +3785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3029,7 +3802,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -3055,7 +3828,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -3066,7 +3839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3086,7 +3859,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3103,7 +3876,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -3117,7 +3890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -3137,7 +3910,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3157,7 +3930,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3171,7 +3944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -3185,7 +3958,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -3226,7 +3999,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -3234,11 +4007,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:194" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G17">
@@ -3456,6 +4229,9 @@
       <c r="B25" t="s">
         <v>591</v>
       </c>
+      <c r="FX25" t="s">
+        <v>110</v>
+      </c>
       <c r="GD25">
         <v>4</v>
       </c>
@@ -3702,11 +4478,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:93" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>181</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D39" t="s">
@@ -3733,7 +4509,7 @@
       <c r="A40" t="s">
         <v>183</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>184</v>
       </c>
       <c r="BO40">
@@ -4888,11 +5664,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>253</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>254</v>
       </c>
       <c r="W72">
@@ -6179,11 +6955,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:146" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>454</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>455</v>
       </c>
       <c r="D152" t="s">
@@ -6553,11 +7329,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:162" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:162" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>493</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6818,11 +7594,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:162" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:162" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>516</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6962,11 +7738,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:173" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>534</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7148,11 +7924,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="197" spans="1:174" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:174" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>559</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7310,12 +8086,2048 @@
         <v>110</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>583</v>
       </c>
       <c r="B209" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="210" spans="1:206" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>592</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="211" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="GN211" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP211" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR211" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT211" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="GV211" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX211" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="212" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="GN212" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP212" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR212" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT212" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV212" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX212" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="213" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="GN213" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP213" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR213" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT213" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV213" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX213" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="214" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="GN214" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP214" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR214" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT214" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV214" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX214" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="215" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="GN215" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP215" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR215" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT215" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV215" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX215" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="216" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="GN216" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP216" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR216" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT216" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV216" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX216" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="217" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="GN217" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP217" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR217" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT217" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV217" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX217" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="218" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="GN218" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP218" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR218" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT218" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV218" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX218" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="219" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="GN219" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP219" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR219" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT219" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV219" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX219" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="220" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="GN220" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP220" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR220" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="GT220" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV220" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="GX220" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="221" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="GN221" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP221" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR221" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="GT221" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV221" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX221" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="222" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="GN222" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP222" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR222" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT222" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV222" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX222" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="223" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="GN223" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP223" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR223" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT223" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV223" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="GX223" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="224" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="GN224" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP224" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR224" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT224" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV224" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX224" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="225" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="GN225" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP225" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR225" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT225" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV225" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX225" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="226" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="GN226" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP226" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR226" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT226" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV226" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX226" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="227" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="GN227" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP227" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR227" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT227" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV227" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX227" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="228" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="GN228" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP228" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR228" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT228" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="GV228" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX228" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="229" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="GN229" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP229" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR229" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT229" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV229" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX229" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="230" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="GN230" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP230" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR230" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT230" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV230" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX230" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="231" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="GN231" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP231" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR231" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT231" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV231" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX231" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="GN232" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP232" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR232" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT232" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV232" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX232" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="233" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="GN233" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP233" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR233" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT233" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV233" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX233" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="234" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="GN234" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP234" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR234" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT234" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV234" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX234" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="235" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="GN235" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP235" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR235" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT235" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV235" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX235" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="236" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="GN236" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP236" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR236" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT236" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV236" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX236" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="237" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="GN237" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP237" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR237" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT237" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV237" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX237" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="238" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="GN238" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP238" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR238" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT238" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV238" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX238" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="239" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="GN239" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP239" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR239" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT239" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV239" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX239" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="240" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="GN240" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP240" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR240" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT240" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV240" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX240" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="241" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="GN241" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP241" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR241" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT241" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV241" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX241" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="242" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="GN242" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP242" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR242" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="GT242" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV242" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX242" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="243" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="GN243" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP243" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR243" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT243" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV243" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX243" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="244" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="GN244" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP244" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR244" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT244" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="GV244" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX244" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="245" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="GN245" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP245" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR245" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT245" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV245" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX245" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="246" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="GN246" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP246" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR246" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT246" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV246" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="GX246" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="247" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="GN247" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP247" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR247" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT247" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV247" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX247" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="248" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="GN248" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP248" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR248" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT248" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV248" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX248" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="249" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="GN249" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP249" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR249" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT249" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV249" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX249" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="250" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="GN250" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP250" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR250" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="GT250" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV250" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX250" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="251" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="GN251" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP251" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR251" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT251" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV251" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX251" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="252" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="GN252" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP252" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR252" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT252" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV252" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="GX252" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="253" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="GN253" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP253" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR253" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="GT253" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV253" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX253" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="254" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="GN254" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP254" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR254" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT254" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV254" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="GX254" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="255" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="GN255" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP255" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR255" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT255" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV255" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX255" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="256" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="GN256" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP256" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR256" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT256" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV256" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX256" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="257" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="GN257" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP257" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR257" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="GT257" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV257" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="GX257" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="258" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="GN258" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP258" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="GR258" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT258" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV258" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX258" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="259" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="GN259" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP259" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR259" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT259" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV259" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX259" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="260" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="GN260" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP260" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR260" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT260" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV260" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX260" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="261" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="GN261" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP261" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR261" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT261" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="GV261" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX261" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="262" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="GN262" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP262" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR262" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT262" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV262" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX262" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="263" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="GN263" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP263" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR263" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT263" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV263" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX263" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="264" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="GN264" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP264" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR264" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT264" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV264" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX264" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="265" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="GN265" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP265" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR265" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT265" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV265" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX265" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="266" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="GN266" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP266" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR266" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT266" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV266" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX266" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="267" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="GN267" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP267" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR267" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT267" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV267" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX267" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="268" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="GN268" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP268" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR268" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="GT268" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV268" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="GX268" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="269" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="GN269" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP269" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR269" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT269" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV269" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="GX269" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="270" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="GN270" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP270" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR270" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT270" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV270" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX270" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="271" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="GN271" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP271" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR271" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT271" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV271" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX271" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="272" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="GN272" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP272" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR272" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT272" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV272" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX272" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="273" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="GN273" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP273" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR273" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT273" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV273" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX273" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="274" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="GN274" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP274" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR274" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="GT274" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="GV274" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX274" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="275" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="GN275" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP275" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR275" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT275" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV275" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="GX275" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="276" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="GN276" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP276" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR276" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="GT276" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="GV276" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX276" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="277" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="GN277" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP277" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR277" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT277" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV277" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="GX277" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="278" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="GN278" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP278" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT278" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV278" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX278" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="279" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="GN279" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP279" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR279" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT279" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="GV279" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX279" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="280" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="GN280" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP280" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR280" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT280" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV280" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX280" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="281" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="GN281" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP281" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR281" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="GT281" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV281" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="GX281" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="282" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="GN282" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP282" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR282" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT282" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV282" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX282" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="283" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="GN283" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP283" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR283" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT283" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV283" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX283" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="284" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="GN284" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP284" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR284" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT284" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV284" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX284" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="285" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="GN285" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP285" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR285" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT285" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV285" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX285" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="286" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="GN286" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP286" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR286" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT286" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV286" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX286" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="287" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="GN287" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP287" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR287" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="GT287" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV287" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="GX287" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="288" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="GN288" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP288" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR288" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT288" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV288" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX288" s="4" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Convertisseur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0BD948-A739-4467-A64A-A0B64ADB45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2004E7-ED61-4A9F-A681-FBAED6410E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB65F6B7-6B5B-4AD1-B2B4-57BEF641AB97}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="845">
   <si>
     <t>id</t>
   </si>
@@ -2507,6 +2507,54 @@
   </si>
   <si>
     <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>paprika_fume</t>
+  </si>
+  <si>
+    <t>Paprika fumé</t>
+  </si>
+  <si>
+    <t>V280925</t>
+  </si>
+  <si>
+    <t>curcuma</t>
+  </si>
+  <si>
+    <t>Curcuma</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>Sel</t>
+  </si>
+  <si>
+    <t>navet</t>
+  </si>
+  <si>
+    <t>Navet</t>
+  </si>
+  <si>
+    <t>V270925</t>
+  </si>
+  <si>
+    <t>ras_el_hanout</t>
+  </si>
+  <si>
+    <t>Ras El Hanout</t>
+  </si>
+  <si>
+    <t>V250925</t>
+  </si>
+  <si>
+    <t>gousse_d_ail</t>
+  </si>
+  <si>
+    <t>Gousse d'ail</t>
+  </si>
+  <si>
+    <t>ail_nmbr</t>
   </si>
 </sst>
 </file>
@@ -3028,14 +3076,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3391,18 +3438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C99BCBC-C19B-4075-AB48-0622208F227E}">
-  <dimension ref="A1:GX288"/>
+  <dimension ref="A1:GZ294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="12" topLeftCell="GR245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="14" topLeftCell="GU15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="GX250" sqref="GX250"/>
+      <selection pane="bottomRight" activeCell="GZ5" sqref="GZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:208" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3727,8 +3774,11 @@
       <c r="GX1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="GZ1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:208" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3754,7 +3804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:208" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -3768,7 +3818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:208" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3785,339 +3835,305 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:208" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5" t="s">
+        <v>843</v>
+      </c>
+      <c r="GZ5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>13.5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>109</v>
       </c>
-      <c r="AC6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE6">
+      <c r="AC7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE7">
         <v>45</v>
       </c>
-      <c r="AG6">
+      <c r="AG7">
         <v>55</v>
       </c>
-      <c r="AI6">
+      <c r="AI7">
         <v>65</v>
       </c>
-      <c r="AK6">
+      <c r="AK7">
         <v>0.6</v>
       </c>
-      <c r="AM6">
+      <c r="AM7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" t="s">
+        <v>835</v>
+      </c>
+      <c r="I8">
+        <f>(11.4+14.4)/2</f>
+        <v>12.9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>112</v>
       </c>
-      <c r="AU7">
+      <c r="AU9">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>114</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>242</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>115</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>0.65</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>116</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>117</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>104</v>
       </c>
-      <c r="E9">
-        <v>85</v>
-      </c>
-      <c r="G9">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E11">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>831</v>
+      </c>
+      <c r="G11">
+        <v>0.82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>118</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>119</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>0.85</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="E11">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E13">
+        <f>(190+238)/2</f>
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
         <v>123</v>
       </c>
-      <c r="G11">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12">
-        <v>201</v>
-      </c>
-      <c r="F12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12">
-        <v>0.88333333300000005</v>
-      </c>
-      <c r="H12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
       <c r="G13">
-        <v>0.82</v>
+        <f>(0.9+0.93)/2</f>
+        <v>0.91500000000000004</v>
       </c>
       <c r="H13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:208" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14">
+        <f>(201+214)/2</f>
+        <v>207.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <f>(0.88+0.91)/2</f>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>836</v>
+      </c>
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="E15">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>831</v>
+      </c>
+      <c r="G15">
+        <v>0.83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16">
+        <v>0.82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>128</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>129</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>70</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15">
-        <v>4.2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY15">
-        <v>75</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC15">
-        <v>85</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG15">
-        <v>90</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK15">
-        <v>95</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:194" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17">
-        <f>AVERAGE(GB18:GB30)</f>
-        <v>0.81500000000000017</v>
-      </c>
-      <c r="H17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="FX18" t="s">
-        <v>110</v>
-      </c>
-      <c r="FZ18">
-        <v>198</v>
-      </c>
-      <c r="GB18">
-        <v>0.78</v>
-      </c>
-      <c r="GD18">
-        <v>4</v>
-      </c>
-      <c r="GF18">
-        <v>1</v>
-      </c>
-      <c r="GH18">
-        <v>3</v>
-      </c>
-      <c r="GJ18">
-        <v>2</v>
-      </c>
-      <c r="GL18">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="I18">
+        <v>4.2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY18">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC18">
+        <v>85</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG18">
+        <v>90</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK18">
+        <v>95</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="FX19" t="s">
-        <v>110</v>
-      </c>
-      <c r="GB19">
-        <v>0.9</v>
-      </c>
-      <c r="GD19">
-        <v>5</v>
-      </c>
-      <c r="GF19">
-        <v>1</v>
-      </c>
-      <c r="GH19">
-        <v>3</v>
-      </c>
-      <c r="GJ19">
-        <v>2</v>
-      </c>
-      <c r="GL19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:194" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:194" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="FX20" t="s">
-        <v>110</v>
-      </c>
-      <c r="GB20">
-        <v>0.8</v>
-      </c>
-      <c r="GD20">
-        <v>4</v>
-      </c>
-      <c r="GF20">
-        <v>2</v>
-      </c>
-      <c r="GH20">
-        <v>3</v>
-      </c>
-      <c r="GJ20">
-        <v>2</v>
-      </c>
-      <c r="GL20">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(GB21:GB33)</f>
+        <v>0.81500000000000017</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="FX21" t="s">
         <v>110</v>
@@ -4125,17 +4141,23 @@
       <c r="FZ21">
         <v>198</v>
       </c>
+      <c r="GA21" t="s">
+        <v>841</v>
+      </c>
       <c r="GB21">
         <v>0.78</v>
       </c>
+      <c r="GC21" t="s">
+        <v>841</v>
+      </c>
       <c r="GD21">
+        <v>4</v>
+      </c>
+      <c r="GF21">
+        <v>1</v>
+      </c>
+      <c r="GH21">
         <v>3</v>
-      </c>
-      <c r="GF21">
-        <v>2</v>
-      </c>
-      <c r="GH21">
-        <v>2</v>
       </c>
       <c r="GJ21">
         <v>2</v>
@@ -4146,25 +4168,28 @@
     </row>
     <row r="22" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="FX22" t="s">
         <v>110</v>
       </c>
+      <c r="GB22">
+        <v>0.9</v>
+      </c>
       <c r="GD22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="GF22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="GH22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GJ22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GL22">
         <v>1</v>
@@ -4172,51 +4197,57 @@
     </row>
     <row r="23" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="FX23" t="s">
         <v>110</v>
       </c>
+      <c r="GB23">
+        <v>0.8</v>
+      </c>
       <c r="GD23">
+        <v>4</v>
+      </c>
+      <c r="GF23">
+        <v>2</v>
+      </c>
+      <c r="GH23">
         <v>3</v>
       </c>
-      <c r="GF23">
-        <v>4</v>
-      </c>
-      <c r="GH23">
-        <v>2</v>
-      </c>
       <c r="GJ23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GL23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="FX24" t="s">
         <v>110</v>
+      </c>
+      <c r="GB24">
+        <v>0.78</v>
       </c>
       <c r="GD24">
         <v>3</v>
       </c>
       <c r="GF24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GH24">
         <v>2</v>
       </c>
       <c r="GJ24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GL24">
         <v>2</v>
@@ -4224,114 +4255,114 @@
     </row>
     <row r="25" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>590</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>591</v>
+        <v>150</v>
       </c>
       <c r="FX25" t="s">
         <v>110</v>
       </c>
       <c r="GD25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="GF25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="GH25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GJ25">
         <v>3</v>
       </c>
       <c r="GL25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="FX26" t="s">
         <v>110</v>
       </c>
       <c r="GD26">
+        <v>3</v>
+      </c>
+      <c r="GF26">
         <v>4</v>
       </c>
-      <c r="GF26">
-        <v>2</v>
-      </c>
       <c r="GH26">
         <v>2</v>
       </c>
       <c r="GJ26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GL26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="FX27" t="s">
         <v>110</v>
       </c>
       <c r="GD27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="GF27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GH27">
         <v>2</v>
       </c>
       <c r="GJ27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GL27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>590</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>591</v>
       </c>
       <c r="FX28" t="s">
         <v>110</v>
       </c>
       <c r="GD28">
+        <v>4</v>
+      </c>
+      <c r="GF28">
+        <v>2</v>
+      </c>
+      <c r="GH28">
+        <v>1</v>
+      </c>
+      <c r="GJ28">
         <v>3</v>
       </c>
-      <c r="GF28">
-        <v>2</v>
-      </c>
-      <c r="GH28">
-        <v>2</v>
-      </c>
-      <c r="GJ28">
-        <v>2</v>
-      </c>
       <c r="GL28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="FX29" t="s">
         <v>110</v>
@@ -4340,309 +4371,270 @@
         <v>4</v>
       </c>
       <c r="GF29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH29">
+        <v>2</v>
+      </c>
+      <c r="GJ29">
+        <v>2</v>
+      </c>
+      <c r="GL29">
         <v>3</v>
-      </c>
-      <c r="GJ29">
-        <v>1</v>
-      </c>
-      <c r="GL29">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="FX30" t="s">
         <v>110</v>
       </c>
       <c r="GD30">
+        <v>4</v>
+      </c>
+      <c r="GF30">
+        <v>2</v>
+      </c>
+      <c r="GH30">
+        <v>2</v>
+      </c>
+      <c r="GJ30">
+        <v>2</v>
+      </c>
+      <c r="GL30">
         <v>3</v>
-      </c>
-      <c r="GF30">
-        <v>2</v>
-      </c>
-      <c r="GH30">
-        <v>2</v>
-      </c>
-      <c r="GJ30">
-        <v>2</v>
-      </c>
-      <c r="GL30">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="FX31" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD31">
+        <v>3</v>
+      </c>
+      <c r="GF31">
+        <v>2</v>
+      </c>
+      <c r="GH31">
+        <v>2</v>
+      </c>
+      <c r="GJ31">
+        <v>2</v>
+      </c>
+      <c r="GL31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD32">
+        <v>4</v>
+      </c>
+      <c r="GF32">
+        <v>1</v>
+      </c>
+      <c r="GH32">
+        <v>3</v>
+      </c>
+      <c r="GJ32">
+        <v>1</v>
+      </c>
+      <c r="GL32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="FX33" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD33">
+        <v>3</v>
+      </c>
+      <c r="GF33">
+        <v>2</v>
+      </c>
+      <c r="GH33">
+        <v>2</v>
+      </c>
+      <c r="GJ33">
+        <v>2</v>
+      </c>
+      <c r="GL33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>167</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="36" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>169</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>170</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>97</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F36" t="s">
         <v>99</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>0.8</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="37" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>171</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="38" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>173</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="39" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>175</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="40" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>177</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>178</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>158</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F40" t="s">
         <v>99</v>
       </c>
-      <c r="G37">
+      <c r="G40">
         <v>0.7</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>179</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>180</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>555</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F41" t="s">
         <v>99</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <v>0.88</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:93" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="42" spans="1:194" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>104</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>180</v>
       </c>
-      <c r="G39">
-        <f>AVERAGE(BU40:BU71)</f>
-        <v>0.84</v>
-      </c>
-      <c r="AO39">
+      <c r="G42">
+        <f>AVERAGE(BU43:BU74)</f>
+        <v>0.83666666666666656</v>
+      </c>
+      <c r="AO42">
         <v>60</v>
       </c>
-      <c r="AQ39">
+      <c r="AQ42">
         <v>100</v>
       </c>
-      <c r="AS39">
+      <c r="AS42">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="43" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" t="s">
         <v>184</v>
-      </c>
-      <c r="BO40">
-        <v>1</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW40" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY40">
-        <v>2</v>
-      </c>
-      <c r="CC40">
-        <v>3</v>
-      </c>
-      <c r="CE40">
-        <v>3</v>
-      </c>
-      <c r="CI40">
-        <v>3</v>
-      </c>
-      <c r="CK40">
-        <v>3</v>
-      </c>
-      <c r="CO40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO41">
-        <v>1</v>
-      </c>
-      <c r="BQ41" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW41" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY41">
-        <v>2</v>
-      </c>
-      <c r="CC41">
-        <v>3</v>
-      </c>
-      <c r="CE41">
-        <v>3</v>
-      </c>
-      <c r="CG41">
-        <v>1</v>
-      </c>
-      <c r="CI41">
-        <v>3</v>
-      </c>
-      <c r="CK41">
-        <v>3</v>
-      </c>
-      <c r="CM41">
-        <v>1</v>
-      </c>
-      <c r="CO41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" t="s">
-        <v>189</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BQ42" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW42" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY42">
-        <v>1</v>
-      </c>
-      <c r="CC42">
-        <v>3</v>
-      </c>
-      <c r="CE42">
-        <v>2</v>
-      </c>
-      <c r="CG42">
-        <v>1</v>
-      </c>
-      <c r="CI42">
-        <v>3</v>
-      </c>
-      <c r="CK42">
-        <v>2</v>
-      </c>
-      <c r="CM42">
-        <v>1</v>
-      </c>
-      <c r="CO42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" t="s">
-        <v>191</v>
       </c>
       <c r="BO43">
         <v>1</v>
       </c>
       <c r="BQ43" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="BW43" t="s">
         <v>185</v>
       </c>
       <c r="BY43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE43">
         <v>3</v>
@@ -4657,53 +4649,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BO44">
         <v>1</v>
       </c>
       <c r="BQ44" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BW44" t="s">
         <v>185</v>
       </c>
       <c r="BY44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE44">
         <v>3</v>
       </c>
+      <c r="CG44">
+        <v>1</v>
+      </c>
       <c r="CI44">
         <v>3</v>
       </c>
       <c r="CK44">
         <v>3</v>
       </c>
+      <c r="CM44">
+        <v>1</v>
+      </c>
       <c r="CO44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="BO45">
         <v>1</v>
       </c>
       <c r="BQ45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="BW45" t="s">
         <v>185</v>
@@ -4712,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="CC45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG45">
         <v>1</v>
@@ -4724,27 +4722,27 @@
         <v>3</v>
       </c>
       <c r="CK45">
+        <v>2</v>
+      </c>
+      <c r="CM45">
+        <v>1</v>
+      </c>
+      <c r="CO45">
         <v>3</v>
       </c>
-      <c r="CM45">
-        <v>2</v>
-      </c>
-      <c r="CO45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="BO46">
         <v>1</v>
       </c>
       <c r="BQ46" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="BW46" t="s">
         <v>185</v>
@@ -4756,30 +4754,30 @@
         <v>2</v>
       </c>
       <c r="CE46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CI46">
         <v>3</v>
       </c>
       <c r="CK46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="BO47">
         <v>1</v>
       </c>
       <c r="BQ47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="BW47" t="s">
         <v>185</v>
@@ -4791,10 +4789,7 @@
         <v>2</v>
       </c>
       <c r="CE47">
-        <v>2</v>
-      </c>
-      <c r="CG47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI47">
         <v>3</v>
@@ -4802,25 +4797,22 @@
       <c r="CK47">
         <v>3</v>
       </c>
-      <c r="CM47">
-        <v>2</v>
-      </c>
       <c r="CO47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="BO48">
         <v>1</v>
       </c>
       <c r="BQ48" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="BW48" t="s">
         <v>185</v>
@@ -4828,13 +4820,22 @@
       <c r="BY48">
         <v>1</v>
       </c>
+      <c r="CC48">
+        <v>2</v>
+      </c>
       <c r="CE48">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="CG48">
+        <v>1</v>
       </c>
       <c r="CI48">
         <v>3</v>
       </c>
       <c r="CK48">
+        <v>3</v>
+      </c>
+      <c r="CM48">
         <v>2</v>
       </c>
       <c r="CO48">
@@ -4843,54 +4844,33 @@
     </row>
     <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="BO49">
         <v>1</v>
       </c>
       <c r="BQ49" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS49">
-        <v>178</v>
-      </c>
-      <c r="BT49" t="s">
-        <v>204</v>
-      </c>
-      <c r="BU49">
-        <v>0.84</v>
-      </c>
-      <c r="BV49" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="BW49" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC49">
         <v>2</v>
       </c>
-      <c r="CD49" t="s">
-        <v>204</v>
-      </c>
       <c r="CE49">
         <v>2</v>
       </c>
-      <c r="CG49">
+      <c r="CI49">
         <v>3</v>
       </c>
-      <c r="CI49">
-        <v>2</v>
-      </c>
       <c r="CK49">
-        <v>2</v>
-      </c>
-      <c r="CM49">
         <v>2</v>
       </c>
       <c r="CO49">
@@ -4899,27 +4879,36 @@
     </row>
     <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="BO50">
         <v>1</v>
       </c>
       <c r="BQ50" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="BW50" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY50">
-        <v>2</v>
-      </c>
-      <c r="CA50">
+        <v>1</v>
+      </c>
+      <c r="CC50">
+        <v>2</v>
+      </c>
+      <c r="CE50">
         <v>2</v>
       </c>
       <c r="CG50">
+        <v>1</v>
+      </c>
+      <c r="CI50">
+        <v>3</v>
+      </c>
+      <c r="CK50">
         <v>3</v>
       </c>
       <c r="CM50">
@@ -4931,51 +4920,60 @@
     </row>
     <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="BO51">
         <v>1</v>
       </c>
       <c r="BQ51" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="BW51" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY51">
-        <v>2</v>
-      </c>
-      <c r="CA51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE51">
-        <v>1</v>
-      </c>
-      <c r="CG51">
+        <v>2</v>
+      </c>
+      <c r="CI51">
         <v>3</v>
       </c>
-      <c r="CM51">
+      <c r="CK51">
         <v>2</v>
       </c>
       <c r="CO51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="BO52">
         <v>1</v>
       </c>
       <c r="BQ52" t="s">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="BS52">
+        <v>178</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU52">
+        <v>0.84</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>205</v>
       </c>
       <c r="BW52" t="s">
         <v>206</v>
@@ -4983,12 +4981,24 @@
       <c r="BY52">
         <v>2</v>
       </c>
-      <c r="CA52">
+      <c r="CC52">
+        <v>2</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE52">
         <v>2</v>
       </c>
       <c r="CG52">
         <v>3</v>
       </c>
+      <c r="CI52">
+        <v>2</v>
+      </c>
+      <c r="CK52">
+        <v>2</v>
+      </c>
       <c r="CM52">
         <v>2</v>
       </c>
@@ -4998,16 +5008,16 @@
     </row>
     <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BO53">
         <v>1</v>
       </c>
       <c r="BQ53" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="BW53" t="s">
         <v>206</v>
@@ -5018,14 +5028,8 @@
       <c r="CA53">
         <v>2</v>
       </c>
-      <c r="CC53">
-        <v>2</v>
-      </c>
-      <c r="CE53">
-        <v>1</v>
-      </c>
       <c r="CG53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM53">
         <v>2</v>
@@ -5036,28 +5040,25 @@
     </row>
     <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="BO54">
         <v>1</v>
       </c>
       <c r="BQ54" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BW54" t="s">
         <v>206</v>
       </c>
       <c r="BY54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA54">
-        <v>3</v>
-      </c>
-      <c r="CC54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE54">
         <v>1</v>
@@ -5069,21 +5070,21 @@
         <v>2</v>
       </c>
       <c r="CO54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="BO55">
         <v>1</v>
       </c>
       <c r="BQ55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BW55" t="s">
         <v>206</v>
@@ -5092,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="CA55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG55">
         <v>3</v>
@@ -5106,16 +5107,16 @@
     </row>
     <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="BO56">
         <v>1</v>
       </c>
       <c r="BQ56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="BW56" t="s">
         <v>206</v>
@@ -5124,13 +5125,19 @@
         <v>2</v>
       </c>
       <c r="CA56">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="CC56">
+        <v>2</v>
+      </c>
+      <c r="CE56">
+        <v>1</v>
       </c>
       <c r="CG56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO56">
         <v>2</v>
@@ -5138,28 +5145,34 @@
     </row>
     <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="BO57">
         <v>1</v>
       </c>
       <c r="BQ57" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="BW57" t="s">
         <v>206</v>
       </c>
       <c r="BY57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA57">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="CC57">
+        <v>1</v>
+      </c>
+      <c r="CE57">
+        <v>1</v>
       </c>
       <c r="CG57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM57">
         <v>2</v>
@@ -5170,16 +5183,16 @@
     </row>
     <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BO58">
         <v>1</v>
       </c>
       <c r="BQ58" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="BW58" t="s">
         <v>206</v>
@@ -5188,10 +5201,10 @@
         <v>2</v>
       </c>
       <c r="CA58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM58">
         <v>2</v>
@@ -5202,16 +5215,28 @@
     </row>
     <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="BO59">
         <v>1</v>
       </c>
       <c r="BQ59" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="BS59">
+        <v>91</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>831</v>
+      </c>
+      <c r="BU59">
+        <v>0.83</v>
+      </c>
+      <c r="BV59" t="s">
+        <v>831</v>
       </c>
       <c r="BW59" t="s">
         <v>206</v>
@@ -5226,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="CM59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO59">
         <v>2</v>
@@ -5234,16 +5259,16 @@
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="BO60">
         <v>1</v>
       </c>
       <c r="BQ60" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="BW60" t="s">
         <v>206</v>
@@ -5255,7 +5280,7 @@
         <v>2</v>
       </c>
       <c r="CG60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM60">
         <v>2</v>
@@ -5266,95 +5291,92 @@
     </row>
     <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="BO61">
         <v>1</v>
       </c>
       <c r="BQ61" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="BW61" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY61">
         <v>2</v>
       </c>
-      <c r="CE61">
-        <v>2</v>
-      </c>
-      <c r="CI61">
-        <v>1</v>
-      </c>
-      <c r="CK61">
+      <c r="CA61">
+        <v>2</v>
+      </c>
+      <c r="CG61">
+        <v>2</v>
+      </c>
+      <c r="CM61">
         <v>2</v>
       </c>
       <c r="CO61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BO62">
         <v>1</v>
       </c>
       <c r="BQ62" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BW62" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY62">
         <v>2</v>
       </c>
-      <c r="CC62">
-        <v>2</v>
-      </c>
-      <c r="CE62">
-        <v>2</v>
-      </c>
-      <c r="CI62">
-        <v>1</v>
+      <c r="CA62">
+        <v>3</v>
+      </c>
+      <c r="CG62">
+        <v>3</v>
+      </c>
+      <c r="CM62">
+        <v>2</v>
       </c>
       <c r="CO62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BO63">
         <v>1</v>
       </c>
       <c r="BQ63" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BW63" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY63">
         <v>2</v>
       </c>
-      <c r="CE63">
+      <c r="CA63">
         <v>2</v>
       </c>
       <c r="CG63">
-        <v>2</v>
-      </c>
-      <c r="CI63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM63">
         <v>2</v>
@@ -5365,57 +5387,48 @@
     </row>
     <row r="64" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BO64">
         <v>1</v>
       </c>
       <c r="BQ64" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BW64" t="s">
         <v>231</v>
       </c>
       <c r="BY64">
-        <v>3</v>
-      </c>
-      <c r="CC64">
         <v>2</v>
       </c>
       <c r="CE64">
-        <v>3</v>
-      </c>
-      <c r="CG64">
         <v>2</v>
       </c>
       <c r="CI64">
         <v>1</v>
       </c>
       <c r="CK64">
-        <v>3</v>
-      </c>
-      <c r="CM64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="BO65">
         <v>1</v>
       </c>
       <c r="BQ65" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="BW65" t="s">
         <v>231</v>
@@ -5423,34 +5436,31 @@
       <c r="BY65">
         <v>2</v>
       </c>
+      <c r="CC65">
+        <v>2</v>
+      </c>
       <c r="CE65">
-        <v>3</v>
-      </c>
-      <c r="CG65">
         <v>2</v>
       </c>
       <c r="CI65">
         <v>1</v>
       </c>
-      <c r="CK65">
-        <v>3</v>
-      </c>
       <c r="CO65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="BO66">
         <v>1</v>
       </c>
       <c r="BQ66" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="BW66" t="s">
         <v>231</v>
@@ -5459,7 +5469,7 @@
         <v>2</v>
       </c>
       <c r="CE66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG66">
         <v>2</v>
@@ -5467,33 +5477,33 @@
       <c r="CI66">
         <v>1</v>
       </c>
-      <c r="CK66">
-        <v>3</v>
-      </c>
       <c r="CM66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:101" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="BO67">
         <v>1</v>
       </c>
       <c r="BQ67" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="BW67" t="s">
         <v>231</v>
       </c>
       <c r="BY67">
+        <v>3</v>
+      </c>
+      <c r="CC67">
         <v>2</v>
       </c>
       <c r="CE67">
@@ -5515,18 +5525,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="BO68">
         <v>1</v>
       </c>
       <c r="BQ68" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="BW68" t="s">
         <v>231</v>
@@ -5534,37 +5544,34 @@
       <c r="BY68">
         <v>2</v>
       </c>
-      <c r="CC68">
-        <v>2</v>
-      </c>
       <c r="CE68">
         <v>3</v>
       </c>
+      <c r="CG68">
+        <v>2</v>
+      </c>
       <c r="CI68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK68">
         <v>3</v>
       </c>
-      <c r="CM68">
-        <v>1</v>
-      </c>
       <c r="CO68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="BO69">
         <v>1</v>
       </c>
       <c r="BQ69" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="BW69" t="s">
         <v>231</v>
@@ -5591,53 +5598,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BO70">
         <v>1</v>
       </c>
       <c r="BQ70" t="s">
-        <v>248</v>
-      </c>
-      <c r="CC70">
+        <v>242</v>
+      </c>
+      <c r="BW70" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY70">
         <v>2</v>
       </c>
       <c r="CE70">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="CG70">
+        <v>2</v>
+      </c>
+      <c r="CI70">
+        <v>1</v>
       </c>
       <c r="CK70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:101" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="CM70">
+        <v>1</v>
+      </c>
+      <c r="CO70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="BO71">
         <v>1</v>
       </c>
       <c r="BQ71" t="s">
-        <v>250</v>
-      </c>
-      <c r="BS71">
-        <v>182</v>
-      </c>
-      <c r="BT71" t="s">
-        <v>252</v>
-      </c>
-      <c r="BU71">
-        <v>0.84</v>
-      </c>
-      <c r="BV71" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BW71" t="s">
         <v>231</v>
@@ -5648,399 +5658,459 @@
       <c r="CC71">
         <v>2</v>
       </c>
-      <c r="CD71" t="s">
-        <v>252</v>
-      </c>
       <c r="CE71">
         <v>3</v>
       </c>
-      <c r="CG71">
+      <c r="CI71">
         <v>2</v>
       </c>
       <c r="CK71">
         <v>3</v>
       </c>
+      <c r="CM71">
+        <v>1</v>
+      </c>
       <c r="CO71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO72">
+        <v>1</v>
+      </c>
+      <c r="BQ72" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW72" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY72">
+        <v>2</v>
+      </c>
+      <c r="CE72">
+        <v>3</v>
+      </c>
+      <c r="CG72">
+        <v>2</v>
+      </c>
+      <c r="CI72">
+        <v>1</v>
+      </c>
+      <c r="CK72">
+        <v>3</v>
+      </c>
+      <c r="CM72">
+        <v>1</v>
+      </c>
+      <c r="CO72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" t="s">
+        <v>249</v>
+      </c>
+      <c r="BO73">
+        <v>1</v>
+      </c>
+      <c r="BQ73" t="s">
+        <v>248</v>
+      </c>
+      <c r="CC73">
+        <v>2</v>
+      </c>
+      <c r="CE73">
+        <v>2</v>
+      </c>
+      <c r="CK73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO74">
+        <v>1</v>
+      </c>
+      <c r="BQ74" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS74">
+        <v>182</v>
+      </c>
+      <c r="BT74" t="s">
+        <v>252</v>
+      </c>
+      <c r="BU74">
+        <v>0.84</v>
+      </c>
+      <c r="BV74" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW74" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY74">
+        <v>2</v>
+      </c>
+      <c r="CC74">
+        <v>2</v>
+      </c>
+      <c r="CD74" t="s">
+        <v>252</v>
+      </c>
+      <c r="CE74">
+        <v>3</v>
+      </c>
+      <c r="CG74">
+        <v>2</v>
+      </c>
+      <c r="CK74">
+        <v>3</v>
+      </c>
+      <c r="CO74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="W72">
+      <c r="W75">
         <v>0.01</v>
       </c>
-      <c r="X72" t="s">
+      <c r="X75" t="s">
         <v>255</v>
       </c>
-      <c r="Y72">
+      <c r="Y75">
         <v>0.1</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Z75" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="76" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>256</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>257</v>
       </c>
-      <c r="CQ73" t="s">
+      <c r="CQ76" t="s">
         <v>256</v>
       </c>
-      <c r="CU73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="CU76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>258</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>259</v>
       </c>
-      <c r="CQ74" t="s">
+      <c r="CQ77" t="s">
         <v>258</v>
       </c>
-      <c r="CU74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="CU77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>260</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>261</v>
       </c>
-      <c r="CQ75" t="s">
+      <c r="CQ78" t="s">
         <v>260</v>
       </c>
-      <c r="CU75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="CU78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>262</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>263</v>
       </c>
-      <c r="CQ76" t="s">
+      <c r="CQ79" t="s">
         <v>262</v>
       </c>
-      <c r="CU76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="CU79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>264</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>265</v>
       </c>
-      <c r="CQ77" t="s">
+      <c r="CQ80" t="s">
         <v>264</v>
       </c>
-      <c r="CU77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="CU80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>266</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>267</v>
       </c>
-      <c r="CQ78" t="s">
+      <c r="CQ81" t="s">
         <v>266</v>
       </c>
-      <c r="CW78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="CW81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>268</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>269</v>
       </c>
-      <c r="CQ79" t="s">
+      <c r="CQ82" t="s">
         <v>268</v>
       </c>
-      <c r="CW79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="CW82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>270</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>271</v>
       </c>
-      <c r="CQ80" t="s">
+      <c r="CQ83" t="s">
         <v>270</v>
       </c>
-      <c r="CW80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="CW83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>272</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>273</v>
       </c>
-      <c r="CQ81" t="s">
+      <c r="CQ84" t="s">
         <v>272</v>
       </c>
-      <c r="CW81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="CW84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>274</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>275</v>
       </c>
-      <c r="CQ82" t="s">
+      <c r="CQ85" t="s">
         <v>274</v>
       </c>
-      <c r="CW82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="CW85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>276</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>277</v>
       </c>
-      <c r="CQ83" t="s">
+      <c r="CQ86" t="s">
         <v>276</v>
       </c>
-      <c r="CW83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="CW86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>278</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>279</v>
       </c>
-      <c r="CQ84" t="s">
+      <c r="CQ87" t="s">
         <v>278</v>
       </c>
-      <c r="CY84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="CY87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>280</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>281</v>
       </c>
-      <c r="CQ85" t="s">
+      <c r="CQ88" t="s">
         <v>280</v>
       </c>
-      <c r="CY85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="CY88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>282</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>283</v>
       </c>
-      <c r="CQ86" t="s">
+      <c r="CQ89" t="s">
         <v>282</v>
       </c>
-      <c r="CY86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="CY89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>284</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>285</v>
       </c>
-      <c r="CQ87" t="s">
+      <c r="CQ90" t="s">
         <v>284</v>
       </c>
-      <c r="CY87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="CY90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>286</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>287</v>
       </c>
-      <c r="CQ88" t="s">
+      <c r="CQ91" t="s">
         <v>286</v>
       </c>
-      <c r="CY88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="CY91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>288</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>289</v>
       </c>
-      <c r="CQ89" t="s">
+      <c r="CQ92" t="s">
         <v>288</v>
       </c>
-      <c r="DA89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="DA92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>290</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>291</v>
       </c>
-      <c r="CQ90" t="s">
+      <c r="CQ93" t="s">
         <v>290</v>
       </c>
-      <c r="DA90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="DA93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>292</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>293</v>
       </c>
-      <c r="CQ91" t="s">
+      <c r="CQ94" t="s">
         <v>292</v>
       </c>
-      <c r="DA91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="DA94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>294</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>295</v>
       </c>
-      <c r="CQ92" t="s">
+      <c r="CQ95" t="s">
         <v>294</v>
       </c>
-      <c r="DA92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="DA95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>296</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>297</v>
       </c>
-      <c r="CQ93" t="s">
+      <c r="CQ96" t="s">
         <v>296</v>
       </c>
-      <c r="DA93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" t="s">
-        <v>299</v>
-      </c>
-      <c r="DE94" t="s">
-        <v>298</v>
-      </c>
-      <c r="DG94" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>300</v>
-      </c>
-      <c r="B95" t="s">
-        <v>301</v>
-      </c>
-      <c r="DE95" t="s">
-        <v>300</v>
-      </c>
-      <c r="DF95" t="s">
-        <v>302</v>
-      </c>
-      <c r="DH95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>303</v>
-      </c>
-      <c r="B96" t="s">
-        <v>304</v>
-      </c>
-      <c r="DE96" t="s">
-        <v>303</v>
-      </c>
-      <c r="DF96" t="s">
-        <v>305</v>
-      </c>
-      <c r="DH96">
-        <v>1</v>
+      <c r="DA96" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="DE97" t="s">
-        <v>306</v>
-      </c>
-      <c r="DF97" t="s">
-        <v>308</v>
+        <v>298</v>
+      </c>
+      <c r="DG97" t="s">
+        <v>110</v>
       </c>
       <c r="DH97">
         <v>1</v>
@@ -6048,16 +6118,16 @@
     </row>
     <row r="98" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="DE98" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="DF98" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="DH98">
         <v>1</v>
@@ -6065,16 +6135,16 @@
     </row>
     <row r="99" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="DE99" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="DF99" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="DH99">
         <v>1</v>
@@ -6082,16 +6152,16 @@
     </row>
     <row r="100" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="DE100" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="DF100" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="DH100">
         <v>1</v>
@@ -6099,67 +6169,67 @@
     </row>
     <row r="101" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="DE101" t="s">
-        <v>318</v>
-      </c>
-      <c r="DG101" t="s">
-        <v>110</v>
+        <v>309</v>
+      </c>
+      <c r="DF101" t="s">
+        <v>311</v>
       </c>
       <c r="DH101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="DE102" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="DF102" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="DH102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="DE103" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="DF103" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="DH103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="DE104" t="s">
-        <v>326</v>
-      </c>
-      <c r="DF104" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="DG104" t="s">
+        <v>110</v>
       </c>
       <c r="DH104">
         <v>2</v>
@@ -6167,16 +6237,16 @@
     </row>
     <row r="105" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="DE105" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="DF105" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="DH105">
         <v>2</v>
@@ -6184,13 +6254,16 @@
     </row>
     <row r="106" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="DE106" t="s">
-        <v>332</v>
+        <v>323</v>
+      </c>
+      <c r="DF106" t="s">
+        <v>325</v>
       </c>
       <c r="DH106">
         <v>2</v>
@@ -6198,16 +6271,16 @@
     </row>
     <row r="107" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="DE107" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="DF107" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="DH107">
         <v>2</v>
@@ -6215,16 +6288,16 @@
     </row>
     <row r="108" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="DE108" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="DF108" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="DH108">
         <v>2</v>
@@ -6232,16 +6305,13 @@
     </row>
     <row r="109" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B109" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="DE109" t="s">
-        <v>340</v>
-      </c>
-      <c r="DF109" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="DH109">
         <v>2</v>
@@ -6249,16 +6319,16 @@
     </row>
     <row r="110" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B110" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="DE110" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="DF110" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="DH110">
         <v>2</v>
@@ -6266,16 +6336,16 @@
     </row>
     <row r="111" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="DE111" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="DF111" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="DH111">
         <v>2</v>
@@ -6283,16 +6353,16 @@
     </row>
     <row r="112" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="DE112" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="DF112" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="DH112">
         <v>2</v>
@@ -6300,84 +6370,84 @@
     </row>
     <row r="113" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="DE113" t="s">
-        <v>352</v>
-      </c>
-      <c r="DG113" t="s">
-        <v>110</v>
+        <v>343</v>
+      </c>
+      <c r="DF113" t="s">
+        <v>345</v>
       </c>
       <c r="DH113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="DE114" t="s">
-        <v>354</v>
-      </c>
-      <c r="DG114" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ114">
-        <v>4</v>
+        <v>346</v>
+      </c>
+      <c r="DF114" t="s">
+        <v>348</v>
+      </c>
+      <c r="DH114">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="DE115" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="DF115" t="s">
-        <v>358</v>
-      </c>
-      <c r="DJ115">
-        <v>4</v>
+        <v>351</v>
+      </c>
+      <c r="DH115">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="DE116" t="s">
-        <v>359</v>
-      </c>
-      <c r="DF116" t="s">
-        <v>361</v>
-      </c>
-      <c r="DJ116">
-        <v>4</v>
+        <v>352</v>
+      </c>
+      <c r="DG116" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH116">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="DE117" t="s">
-        <v>362</v>
-      </c>
-      <c r="DF117" t="s">
-        <v>364</v>
+        <v>354</v>
+      </c>
+      <c r="DG117" t="s">
+        <v>110</v>
       </c>
       <c r="DJ117">
         <v>4</v>
@@ -6385,16 +6455,16 @@
     </row>
     <row r="118" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="DE118" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="DF118" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="DJ118">
         <v>4</v>
@@ -6402,16 +6472,16 @@
     </row>
     <row r="119" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="DE119" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="DF119" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="DJ119">
         <v>4</v>
@@ -6419,16 +6489,16 @@
     </row>
     <row r="120" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="DE120" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="DF120" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="DJ120">
         <v>4</v>
@@ -6436,16 +6506,16 @@
     </row>
     <row r="121" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="DE121" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="DF121" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="DJ121">
         <v>4</v>
@@ -6453,16 +6523,16 @@
     </row>
     <row r="122" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="DE122" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="DF122" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="DJ122">
         <v>4</v>
@@ -6470,16 +6540,16 @@
     </row>
     <row r="123" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="DE123" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="DF123" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="DJ123">
         <v>4</v>
@@ -6487,16 +6557,16 @@
     </row>
     <row r="124" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="DE124" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="DF124" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="DJ124">
         <v>4</v>
@@ -6504,16 +6574,16 @@
     </row>
     <row r="125" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="DE125" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="DF125" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="DJ125">
         <v>4</v>
@@ -6521,16 +6591,16 @@
     </row>
     <row r="126" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="DE126" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="DF126" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="DJ126">
         <v>4</v>
@@ -6538,16 +6608,16 @@
     </row>
     <row r="127" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="DE127" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="DF127" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="DJ127">
         <v>4</v>
@@ -6555,333 +6625,333 @@
     </row>
     <row r="128" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="DE128" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="DF128" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="DJ128">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>389</v>
+      </c>
+      <c r="B129" t="s">
+        <v>390</v>
+      </c>
+      <c r="DE129" t="s">
+        <v>389</v>
+      </c>
+      <c r="DF129" t="s">
+        <v>391</v>
+      </c>
+      <c r="DJ129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>392</v>
+      </c>
+      <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="DE130" t="s">
+        <v>392</v>
+      </c>
+      <c r="DF130" t="s">
+        <v>394</v>
+      </c>
+      <c r="DJ130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>395</v>
+      </c>
+      <c r="B131" t="s">
+        <v>396</v>
+      </c>
+      <c r="DE131" t="s">
+        <v>395</v>
+      </c>
+      <c r="DF131" t="s">
+        <v>397</v>
+      </c>
+      <c r="DJ131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>398</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B132" t="s">
         <v>399</v>
       </c>
-      <c r="DE129" t="s">
+      <c r="DE132" t="s">
         <v>398</v>
       </c>
-      <c r="DG129" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ129">
+      <c r="DG132" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ132">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="133" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>400</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B133" t="s">
         <v>401</v>
       </c>
-      <c r="DE130" t="s">
+      <c r="DE133" t="s">
         <v>400</v>
       </c>
-      <c r="DG130" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>323</v>
-      </c>
-      <c r="B131" t="s">
-        <v>324</v>
-      </c>
-      <c r="DE131" t="s">
-        <v>323</v>
-      </c>
-      <c r="DF131" t="s">
-        <v>402</v>
-      </c>
-      <c r="DJ131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>403</v>
-      </c>
-      <c r="B132" t="s">
-        <v>404</v>
-      </c>
-      <c r="DE132" t="s">
-        <v>403</v>
-      </c>
-      <c r="DF132" t="s">
-        <v>405</v>
-      </c>
-      <c r="DJ132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>406</v>
-      </c>
-      <c r="B133" t="s">
-        <v>407</v>
-      </c>
-      <c r="DE133" t="s">
-        <v>406</v>
-      </c>
-      <c r="DF133" t="s">
-        <v>408</v>
+      <c r="DG133" t="s">
+        <v>110</v>
       </c>
       <c r="DJ133">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="DE134" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="DF134" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="DJ134">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B135" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="DE135" t="s">
-        <v>412</v>
+        <v>403</v>
+      </c>
+      <c r="DF135" t="s">
+        <v>405</v>
       </c>
       <c r="DJ135">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="DE136" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="DF136" t="s">
+        <v>408</v>
       </c>
       <c r="DJ136">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B137" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="DE137" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="DF137" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="DJ137">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="B138" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="DE138" t="s">
-        <v>337</v>
-      </c>
-      <c r="DF138" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="DJ138">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B139" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="DE139" t="s">
-        <v>420</v>
-      </c>
-      <c r="DF139" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="DJ139">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B140" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="DE140" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="DF140" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="DJ140">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="B141" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="DE141" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="DF141" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="DJ141">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B142" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="DE142" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="DF142" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="DJ142">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:116" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B143" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="DE143" t="s">
-        <v>430</v>
-      </c>
-      <c r="DG143" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL143">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:116" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="DF143" t="s">
+        <v>425</v>
+      </c>
+      <c r="DJ143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B144" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="DE144" t="s">
-        <v>432</v>
-      </c>
-      <c r="DG144" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL144">
-        <v>8</v>
+        <v>426</v>
+      </c>
+      <c r="DF144" t="s">
+        <v>428</v>
+      </c>
+      <c r="DJ144">
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="DE145" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="DF145" t="s">
-        <v>436</v>
-      </c>
-      <c r="DL145">
-        <v>8</v>
+        <v>429</v>
+      </c>
+      <c r="DJ145">
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="DE146" t="s">
-        <v>437</v>
-      </c>
-      <c r="DF146" t="s">
-        <v>439</v>
+        <v>430</v>
+      </c>
+      <c r="DG146" t="s">
+        <v>110</v>
       </c>
       <c r="DL146">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B147" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="DE147" t="s">
-        <v>440</v>
-      </c>
-      <c r="DF147" t="s">
-        <v>442</v>
+        <v>432</v>
+      </c>
+      <c r="DG147" t="s">
+        <v>110</v>
       </c>
       <c r="DL147">
         <v>8</v>
@@ -6889,16 +6959,16 @@
     </row>
     <row r="148" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B148" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="DE148" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="DF148" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="DL148">
         <v>8</v>
@@ -6906,16 +6976,16 @@
     </row>
     <row r="149" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B149" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="DE149" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="DF149" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="DL149">
         <v>8</v>
@@ -6923,16 +6993,16 @@
     </row>
     <row r="150" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B150" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="DE150" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="DF150" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="DL150">
         <v>8</v>
@@ -6940,725 +7010,727 @@
     </row>
     <row r="151" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B151" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="DE151" t="s">
-        <v>452</v>
-      </c>
-      <c r="DG151" t="s">
-        <v>110</v>
+        <v>443</v>
+      </c>
+      <c r="DF151" t="s">
+        <v>445</v>
       </c>
       <c r="DL151">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>454</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D152" t="s">
-        <v>104</v>
+        <v>446</v>
+      </c>
+      <c r="B152" t="s">
+        <v>447</v>
+      </c>
+      <c r="DE152" t="s">
+        <v>446</v>
+      </c>
+      <c r="DF152" t="s">
+        <v>448</v>
+      </c>
+      <c r="DL152">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B153" t="s">
-        <v>457</v>
-      </c>
-      <c r="DR153" t="s">
-        <v>110</v>
-      </c>
-      <c r="DT153">
-        <v>142</v>
-      </c>
-      <c r="DU153" t="s">
-        <v>252</v>
-      </c>
-      <c r="DX153" t="s">
-        <v>456</v>
-      </c>
-      <c r="DY153" t="s">
-        <v>458</v>
-      </c>
-      <c r="DZ153" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ153">
-        <v>2</v>
-      </c>
-      <c r="EL153">
-        <v>2</v>
-      </c>
-      <c r="EN153">
-        <v>3</v>
+        <v>450</v>
+      </c>
+      <c r="DE153" t="s">
+        <v>449</v>
+      </c>
+      <c r="DF153" t="s">
+        <v>451</v>
+      </c>
+      <c r="DL153">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B154" t="s">
-        <v>460</v>
-      </c>
-      <c r="DR154" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX154" t="s">
-        <v>459</v>
-      </c>
-      <c r="DY154" t="s">
-        <v>461</v>
-      </c>
-      <c r="DZ154" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ154">
-        <v>2</v>
-      </c>
-      <c r="EL154">
-        <v>2</v>
-      </c>
-      <c r="EN154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:146" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="DE154" t="s">
+        <v>452</v>
+      </c>
+      <c r="DG154" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>462</v>
-      </c>
-      <c r="B155" t="s">
-        <v>463</v>
-      </c>
-      <c r="DR155" t="s">
-        <v>110</v>
-      </c>
-      <c r="DT155">
-        <v>85</v>
-      </c>
-      <c r="DU155" t="s">
-        <v>464</v>
-      </c>
-      <c r="DV155">
-        <v>0.97</v>
-      </c>
-      <c r="DW155" t="s">
-        <v>464</v>
-      </c>
-      <c r="DX155" t="s">
-        <v>462</v>
-      </c>
-      <c r="DY155" t="s">
-        <v>465</v>
-      </c>
-      <c r="EB155" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ155">
-        <v>1</v>
-      </c>
-      <c r="EL155">
-        <v>3</v>
-      </c>
-      <c r="EN155">
-        <v>2</v>
+        <v>454</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D155" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="DR156" t="s">
         <v>110</v>
       </c>
+      <c r="DT156">
+        <v>142</v>
+      </c>
+      <c r="DU156" t="s">
+        <v>252</v>
+      </c>
       <c r="DX156" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="DY156" t="s">
-        <v>468</v>
-      </c>
-      <c r="EB156" t="s">
+        <v>458</v>
+      </c>
+      <c r="DZ156" t="s">
         <v>110</v>
       </c>
       <c r="EJ156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL156">
+        <v>2</v>
+      </c>
+      <c r="EN156">
         <v>3</v>
-      </c>
-      <c r="EN156">
-        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B157" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="DR157" t="s">
         <v>110</v>
       </c>
       <c r="DX157" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="DY157" t="s">
-        <v>471</v>
-      </c>
-      <c r="ED157" t="s">
+        <v>461</v>
+      </c>
+      <c r="DZ157" t="s">
         <v>110</v>
       </c>
       <c r="EJ157">
         <v>2</v>
       </c>
       <c r="EL157">
-        <v>1</v>
-      </c>
-      <c r="EP157">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="EN157">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B158" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="DR158" t="s">
         <v>110</v>
       </c>
+      <c r="DT158">
+        <v>85</v>
+      </c>
+      <c r="DU158" t="s">
+        <v>464</v>
+      </c>
+      <c r="DV158">
+        <v>0.97</v>
+      </c>
+      <c r="DW158" t="s">
+        <v>464</v>
+      </c>
       <c r="DX158" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="DY158" t="s">
-        <v>474</v>
-      </c>
-      <c r="ED158" t="s">
+        <v>465</v>
+      </c>
+      <c r="EB158" t="s">
         <v>110</v>
       </c>
       <c r="EJ158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL158">
-        <v>1</v>
-      </c>
-      <c r="EP158">
         <v>3</v>
+      </c>
+      <c r="EN158">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="DR159" t="s">
         <v>110</v>
       </c>
       <c r="DX159" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="DY159" t="s">
-        <v>477</v>
-      </c>
-      <c r="ED159" t="s">
-        <v>110</v>
+        <v>468</v>
+      </c>
+      <c r="EB159" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ159">
+        <v>1</v>
       </c>
       <c r="EL159">
-        <v>1</v>
-      </c>
-      <c r="EP159">
         <v>3</v>
+      </c>
+      <c r="EN159">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B160" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="DR160" t="s">
         <v>110</v>
       </c>
       <c r="DX160" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="DY160" t="s">
-        <v>480</v>
-      </c>
-      <c r="EF160" t="s">
+        <v>471</v>
+      </c>
+      <c r="ED160" t="s">
         <v>110</v>
       </c>
       <c r="EJ160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EL160">
         <v>1</v>
       </c>
-      <c r="EN160">
+      <c r="EP160">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B161" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="DR161" t="s">
         <v>110</v>
       </c>
       <c r="DX161" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="DY161" t="s">
-        <v>483</v>
-      </c>
-      <c r="EF161" t="s">
+        <v>474</v>
+      </c>
+      <c r="ED161" t="s">
         <v>110</v>
       </c>
       <c r="EJ161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EL161">
-        <v>2</v>
-      </c>
-      <c r="EN161">
+        <v>1</v>
+      </c>
+      <c r="EP161">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B162" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="DR162" t="s">
         <v>110</v>
       </c>
       <c r="DX162" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="DY162" t="s">
-        <v>486</v>
-      </c>
-      <c r="EH162" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ162">
-        <v>3</v>
+        <v>477</v>
+      </c>
+      <c r="ED162" t="s">
+        <v>110</v>
       </c>
       <c r="EL162">
         <v>1</v>
       </c>
-      <c r="EN162">
-        <v>1</v>
+      <c r="EP162">
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B163" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="DR163" t="s">
         <v>110</v>
       </c>
       <c r="DX163" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="DY163" t="s">
-        <v>489</v>
-      </c>
-      <c r="EH163" t="s">
+        <v>480</v>
+      </c>
+      <c r="EF163" t="s">
         <v>110</v>
       </c>
       <c r="EJ163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EL163">
         <v>1</v>
       </c>
       <c r="EN163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B164" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="DR164" t="s">
         <v>110</v>
       </c>
       <c r="DX164" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="DY164" t="s">
-        <v>492</v>
-      </c>
-      <c r="EH164" t="s">
+        <v>483</v>
+      </c>
+      <c r="EF164" t="s">
         <v>110</v>
       </c>
       <c r="EJ164">
         <v>3</v>
       </c>
       <c r="EL164">
+        <v>2</v>
+      </c>
+      <c r="EN164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:162" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>484</v>
+      </c>
+      <c r="B165" t="s">
+        <v>485</v>
+      </c>
+      <c r="DR165" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX165" t="s">
+        <v>484</v>
+      </c>
+      <c r="DY165" t="s">
+        <v>486</v>
+      </c>
+      <c r="EH165" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ165">
+        <v>3</v>
+      </c>
+      <c r="EL165">
         <v>1</v>
       </c>
-      <c r="EN164">
+      <c r="EN165">
         <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:162" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>493</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B166" t="s">
-        <v>496</v>
-      </c>
-      <c r="ER166" t="s">
-        <v>110</v>
-      </c>
-      <c r="ET166">
-        <v>156</v>
-      </c>
-      <c r="EU166" t="s">
-        <v>99</v>
-      </c>
-      <c r="EV166">
-        <v>0.926666667</v>
-      </c>
-      <c r="EW166" t="s">
-        <v>99</v>
-      </c>
-      <c r="EX166" t="s">
-        <v>495</v>
-      </c>
-      <c r="EZ166">
-        <v>0.94</v>
-      </c>
-      <c r="FA166" t="s">
-        <v>123</v>
-      </c>
-      <c r="FB166">
+        <v>488</v>
+      </c>
+      <c r="DR166" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX166" t="s">
+        <v>487</v>
+      </c>
+      <c r="DY166" t="s">
+        <v>489</v>
+      </c>
+      <c r="EH166" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ166">
+        <v>2</v>
+      </c>
+      <c r="EL166">
         <v>1</v>
       </c>
-      <c r="FD166">
-        <v>3</v>
-      </c>
-      <c r="FF166">
-        <v>2</v>
+      <c r="EN166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B167" t="s">
-        <v>498</v>
-      </c>
-      <c r="ER167" t="s">
-        <v>110</v>
-      </c>
-      <c r="ET167">
-        <v>213</v>
-      </c>
-      <c r="EU167" t="s">
-        <v>499</v>
-      </c>
-      <c r="EV167">
-        <v>0.95</v>
-      </c>
-      <c r="EW167" t="s">
-        <v>499</v>
-      </c>
-      <c r="EX167" t="s">
-        <v>497</v>
-      </c>
-      <c r="EZ167">
-        <v>0.95</v>
-      </c>
-      <c r="FA167" t="s">
-        <v>123</v>
-      </c>
-      <c r="FB167">
-        <v>2</v>
-      </c>
-      <c r="FD167">
-        <v>2</v>
-      </c>
-      <c r="FF167">
+        <v>491</v>
+      </c>
+      <c r="DR167" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX167" t="s">
+        <v>490</v>
+      </c>
+      <c r="DY167" t="s">
+        <v>492</v>
+      </c>
+      <c r="EH167" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:162" x14ac:dyDescent="0.3">
+      <c r="EL167">
+        <v>1</v>
+      </c>
+      <c r="EN167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:162" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>500</v>
-      </c>
-      <c r="B168" t="s">
-        <v>501</v>
-      </c>
-      <c r="ER168" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX168" t="s">
-        <v>500</v>
-      </c>
-      <c r="FB168">
-        <v>3</v>
-      </c>
-      <c r="FD168">
-        <v>2</v>
-      </c>
-      <c r="FF168">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B169" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="ER169" t="s">
         <v>110</v>
       </c>
       <c r="ET169">
-        <v>104</v>
+        <f>(156+205)/2</f>
+        <v>180.5</v>
       </c>
       <c r="EU169" t="s">
-        <v>464</v>
+        <v>99</v>
       </c>
       <c r="EV169">
-        <v>0.92500000000000004</v>
+        <f>(0.92+0.94)/2</f>
+        <v>0.92999999999999994</v>
       </c>
       <c r="EW169" t="s">
-        <v>464</v>
+        <v>99</v>
       </c>
       <c r="EX169" t="s">
-        <v>502</v>
+        <v>495</v>
+      </c>
+      <c r="EZ169">
+        <v>0.94</v>
+      </c>
+      <c r="FA169" t="s">
+        <v>123</v>
       </c>
       <c r="FB169">
+        <v>1</v>
+      </c>
+      <c r="FD169">
         <v>3</v>
       </c>
-      <c r="FD169">
-        <v>2</v>
-      </c>
       <c r="FF169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B170" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="ER170" t="s">
         <v>110</v>
       </c>
+      <c r="ET170">
+        <v>213</v>
+      </c>
+      <c r="EU170" t="s">
+        <v>499</v>
+      </c>
+      <c r="EV170">
+        <v>0.95</v>
+      </c>
+      <c r="EW170" t="s">
+        <v>499</v>
+      </c>
       <c r="EX170" t="s">
-        <v>504</v>
+        <v>497</v>
+      </c>
+      <c r="EZ170">
+        <v>0.95</v>
+      </c>
+      <c r="FA170" t="s">
+        <v>123</v>
+      </c>
+      <c r="FB170">
+        <v>2</v>
+      </c>
+      <c r="FD170">
+        <v>2</v>
+      </c>
+      <c r="FF170">
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B171" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="ER171" t="s">
         <v>110</v>
       </c>
       <c r="EX171" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="FB171">
         <v>3</v>
       </c>
       <c r="FD171">
+        <v>2</v>
+      </c>
+      <c r="FF171">
         <v>1</v>
-      </c>
-      <c r="FF171">
-        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B172" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="ER172" t="s">
         <v>110</v>
       </c>
+      <c r="ET172">
+        <v>104</v>
+      </c>
+      <c r="EU172" t="s">
+        <v>464</v>
+      </c>
+      <c r="EV172">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="EW172" t="s">
+        <v>464</v>
+      </c>
       <c r="EX172" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="FB172">
+        <v>3</v>
+      </c>
+      <c r="FD172">
+        <v>2</v>
+      </c>
+      <c r="FF172">
         <v>1</v>
-      </c>
-      <c r="FD172">
-        <v>3</v>
-      </c>
-      <c r="FF172">
-        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B173" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="ER173" t="s">
         <v>110</v>
       </c>
       <c r="EX173" t="s">
-        <v>510</v>
-      </c>
-      <c r="FB173">
-        <v>2</v>
-      </c>
-      <c r="FD173">
-        <v>3</v>
-      </c>
-      <c r="FF173">
-        <v>2</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B174" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="ER174" t="s">
         <v>110</v>
       </c>
       <c r="EX174" t="s">
-        <v>512</v>
+        <v>506</v>
+      </c>
+      <c r="FB174">
+        <v>3</v>
+      </c>
+      <c r="FD174">
+        <v>1</v>
+      </c>
+      <c r="FF174">
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B175" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="ER175" t="s">
         <v>110</v>
       </c>
       <c r="EX175" t="s">
-        <v>514</v>
+        <v>508</v>
+      </c>
+      <c r="FB175">
+        <v>1</v>
       </c>
       <c r="FD175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FF175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:162" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>510</v>
+      </c>
+      <c r="B176" t="s">
+        <v>511</v>
+      </c>
+      <c r="ER176" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX176" t="s">
+        <v>510</v>
+      </c>
+      <c r="FB176">
+        <v>2</v>
+      </c>
+      <c r="FD176">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:162" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>516</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>517</v>
+      <c r="FF176">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B177" t="s">
-        <v>519</v>
-      </c>
-      <c r="FH177" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ177">
-        <v>200</v>
-      </c>
-      <c r="FL177">
-        <v>6</v>
+        <v>513</v>
+      </c>
+      <c r="ER177" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX177" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B178" t="s">
-        <v>521</v>
-      </c>
-      <c r="FH178" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ178">
-        <v>160</v>
-      </c>
-      <c r="FL178">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:173" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="ER178" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX178" t="s">
+        <v>514</v>
+      </c>
+      <c r="FD178">
+        <v>2</v>
+      </c>
+      <c r="FF178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>522</v>
-      </c>
-      <c r="B179" t="s">
-        <v>523</v>
-      </c>
-      <c r="FH179" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ179">
-        <v>180</v>
-      </c>
-      <c r="FL179">
-        <v>5</v>
+        <v>516</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B180" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="FH180" t="s">
         <v>110</v>
@@ -7667,173 +7739,180 @@
         <v>200</v>
       </c>
       <c r="FL180">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B181" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="FH181" t="s">
         <v>110</v>
       </c>
       <c r="FJ181">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="FL181">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B182" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="FH182" t="s">
         <v>110</v>
       </c>
       <c r="FJ182">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="FL182">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B183" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="FH183" t="s">
         <v>110</v>
       </c>
       <c r="FJ183">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="FL183">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="184" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B184" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="FH184" t="s">
         <v>110</v>
       </c>
       <c r="FJ184">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="FL184">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>534</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
+      </c>
+      <c r="B185" t="s">
+        <v>529</v>
+      </c>
+      <c r="FH185" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ185">
+        <v>210</v>
+      </c>
+      <c r="FL185">
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B186" t="s">
-        <v>537</v>
-      </c>
-      <c r="FN186" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP186">
-        <v>4.5</v>
+        <v>531</v>
+      </c>
+      <c r="FH186" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ186">
+        <v>180</v>
+      </c>
+      <c r="FL186">
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B187" t="s">
-        <v>539</v>
-      </c>
-      <c r="FN187" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP187">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="FQ187" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="188" spans="1:173" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="FH187" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ187">
+        <v>160</v>
+      </c>
+      <c r="FL187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>541</v>
-      </c>
-      <c r="B188" t="s">
-        <v>542</v>
-      </c>
-      <c r="FN188" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP188">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="FQ188" t="s">
-        <v>540</v>
+        <v>534</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="189" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B189" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="FN189" t="s">
         <v>110</v>
       </c>
       <c r="FP189">
-        <v>9.9</v>
-      </c>
-      <c r="FQ189" t="s">
-        <v>540</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="190" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>545</v>
+        <v>832</v>
       </c>
       <c r="B190" t="s">
-        <v>546</v>
+        <v>833</v>
       </c>
       <c r="FN190" t="s">
         <v>110</v>
+      </c>
+      <c r="FP190">
+        <v>6.6</v>
+      </c>
+      <c r="FQ190" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="191" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="FN191" t="s">
         <v>110</v>
       </c>
       <c r="FP191">
-        <v>6.3</v>
+        <f>(5.1+5.1)/2</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="FQ191" t="s">
         <v>540</v>
@@ -7841,33 +7920,33 @@
     </row>
     <row r="192" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>549</v>
+        <v>829</v>
       </c>
       <c r="B192" t="s">
-        <v>550</v>
+        <v>830</v>
       </c>
       <c r="FN192" t="s">
         <v>110</v>
       </c>
       <c r="FP192">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="FQ192" t="s">
-        <v>540</v>
+        <v>831</v>
       </c>
     </row>
     <row r="193" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B193" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="FN193" t="s">
         <v>110</v>
       </c>
       <c r="FP193">
-        <v>9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="FQ193" t="s">
         <v>540</v>
@@ -7875,16 +7954,16 @@
     </row>
     <row r="194" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B194" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="FN194" t="s">
         <v>110</v>
       </c>
       <c r="FP194">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="FQ194" t="s">
         <v>540</v>
@@ -7892,27 +7971,21 @@
     </row>
     <row r="195" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B195" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="FN195" t="s">
         <v>110</v>
-      </c>
-      <c r="FP195">
-        <v>6.6</v>
-      </c>
-      <c r="FQ195" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="196" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B196" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="FN196" t="s">
         <v>110</v>
@@ -7924,107 +7997,125 @@
         <v>540</v>
       </c>
     </row>
-    <row r="197" spans="1:174" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>559</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
+      </c>
+      <c r="B197" t="s">
+        <v>550</v>
+      </c>
+      <c r="FN197" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP197">
+        <v>6</v>
+      </c>
+      <c r="FQ197" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="198" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B198" t="s">
-        <v>562</v>
-      </c>
-      <c r="E198">
-        <v>2200</v>
-      </c>
-      <c r="FR198" t="s">
-        <v>110</v>
+        <v>552</v>
+      </c>
+      <c r="FN198" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP198">
+        <v>9</v>
+      </c>
+      <c r="FQ198" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B199" t="s">
-        <v>564</v>
-      </c>
-      <c r="E199">
-        <v>1800</v>
-      </c>
-      <c r="FR199" t="s">
-        <v>110</v>
+        <v>554</v>
+      </c>
+      <c r="FN199" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP199">
+        <v>9</v>
+      </c>
+      <c r="FQ199" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="200" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B200" t="s">
-        <v>566</v>
-      </c>
-      <c r="E200">
-        <v>1600</v>
-      </c>
-      <c r="FR200" t="s">
-        <v>110</v>
+        <v>556</v>
+      </c>
+      <c r="FN200" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP200">
+        <v>6.6</v>
+      </c>
+      <c r="FQ200" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="201" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B201" t="s">
-        <v>568</v>
-      </c>
-      <c r="E201">
-        <v>1500</v>
-      </c>
-      <c r="FR201" t="s">
-        <v>110</v>
+        <v>558</v>
+      </c>
+      <c r="FN201" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP201">
+        <v>6.3</v>
+      </c>
+      <c r="FQ201" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="202" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>569</v>
+        <v>839</v>
       </c>
       <c r="B202" t="s">
-        <v>570</v>
-      </c>
-      <c r="E202">
-        <v>1100</v>
-      </c>
-      <c r="FR202" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="203" spans="1:174" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+      <c r="FN202" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP202">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="FQ202" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="203" spans="1:174" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>571</v>
-      </c>
-      <c r="B203" t="s">
-        <v>572</v>
-      </c>
-      <c r="E203">
-        <v>450</v>
-      </c>
-      <c r="FR203" t="s">
-        <v>110</v>
+        <v>559</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B204" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E204">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="FR204" t="s">
         <v>110</v>
@@ -8032,13 +8123,13 @@
     </row>
     <row r="205" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B205" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E205">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="FR205" t="s">
         <v>110</v>
@@ -8046,13 +8137,13 @@
     </row>
     <row r="206" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B206" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E206">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="FR206" t="s">
         <v>110</v>
@@ -8060,13 +8151,13 @@
     </row>
     <row r="207" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B207" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E207">
-        <v>11</v>
+        <v>1500</v>
       </c>
       <c r="FR207" t="s">
         <v>110</v>
@@ -8074,13 +8165,13 @@
     </row>
     <row r="208" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B208" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E208">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="FR208" t="s">
         <v>110</v>
@@ -8088,260 +8179,188 @@
     </row>
     <row r="209" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>571</v>
+      </c>
+      <c r="B209" t="s">
+        <v>572</v>
+      </c>
+      <c r="E209">
+        <v>450</v>
+      </c>
+      <c r="FR209" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="210" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>573</v>
+      </c>
+      <c r="B210" t="s">
+        <v>574</v>
+      </c>
+      <c r="E210">
+        <v>900</v>
+      </c>
+      <c r="FR210" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>575</v>
+      </c>
+      <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="E211">
+        <v>1200</v>
+      </c>
+      <c r="FR211" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>577</v>
+      </c>
+      <c r="B212" t="s">
+        <v>578</v>
+      </c>
+      <c r="E212">
+        <v>300</v>
+      </c>
+      <c r="FR212" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>579</v>
+      </c>
+      <c r="B213" t="s">
+        <v>580</v>
+      </c>
+      <c r="E213">
+        <v>11</v>
+      </c>
+      <c r="FR213" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="214" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>581</v>
+      </c>
+      <c r="B214" t="s">
+        <v>582</v>
+      </c>
+      <c r="E214">
+        <v>300</v>
+      </c>
+      <c r="FR214" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="215" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>583</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B215" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="210" spans="1:206" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="216" spans="1:206" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>592</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="211" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+    <row r="217" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="GN211" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP211" s="4" t="s">
+      <c r="GN217" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP217" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="GR211" s="4" t="s">
+      <c r="GR217" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="GT211" s="4" t="s">
+      <c r="GT217" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="GV211" s="4" t="s">
+      <c r="GV217" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="GX211" s="4" t="s">
+      <c r="GX217" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="212" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+    <row r="218" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="GN212" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP212" s="5" t="s">
+      <c r="GN218" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP218" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="GR212" s="5" t="s">
+      <c r="GR218" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="GT212" s="5" t="s">
+      <c r="GT218" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="GV212" s="5" t="s">
+      <c r="GV218" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="GX212" s="5" t="s">
+      <c r="GX218" s="5" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="213" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+    <row r="219" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="GN213" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP213" s="4" t="s">
+      <c r="GN219" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP219" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="GR213" s="4" t="s">
+      <c r="GR219" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="GT213" s="4" t="s">
+      <c r="GT219" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="GV213" s="4" t="s">
+      <c r="GV219" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="GX213" s="4" t="s">
+      <c r="GX219" s="4" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="214" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="GN214" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP214" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR214" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT214" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV214" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX214" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="215" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="GN215" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP215" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR215" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT215" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV215" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX215" s="5" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="216" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="GN216" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP216" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR216" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT216" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV216" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX216" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="217" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="GN217" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP217" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR217" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT217" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV217" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX217" s="5" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="218" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="GN218" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP218" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR218" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT218" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="GV218" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="GX218" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="219" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="GN219" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP219" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR219" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT219" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="GV219" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="GX219" s="5" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="220" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="GN220" t="s">
         <v>110</v>
@@ -8350,24 +8369,24 @@
         <v>753</v>
       </c>
       <c r="GR220" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="GT220" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="GV220" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="GX220" s="4" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="221" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="GN221" t="s">
         <v>110</v>
@@ -8376,24 +8395,24 @@
         <v>753</v>
       </c>
       <c r="GR221" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="GT221" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV221" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="GX221" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="222" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="GN222" t="s">
         <v>110</v>
@@ -8405,21 +8424,21 @@
         <v>756</v>
       </c>
       <c r="GT222" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="GV222" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX222" s="4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="223" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="GN223" t="s">
         <v>110</v>
@@ -8428,24 +8447,24 @@
         <v>753</v>
       </c>
       <c r="GR223" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT223" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV223" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="GX223" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="224" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="GN224" t="s">
         <v>110</v>
@@ -8463,15 +8482,15 @@
         <v>775</v>
       </c>
       <c r="GX224" s="4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="225" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="GN225" t="s">
         <v>110</v>
@@ -8480,24 +8499,24 @@
         <v>753</v>
       </c>
       <c r="GR225" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT225" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV225" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX225" s="5" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="226" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="GN226" t="s">
         <v>110</v>
@@ -8506,24 +8525,24 @@
         <v>753</v>
       </c>
       <c r="GR226" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="GT226" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="GV226" s="4" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="GX226" s="4" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="GN227" t="s">
         <v>110</v>
@@ -8532,24 +8551,24 @@
         <v>753</v>
       </c>
       <c r="GR227" s="5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="GT227" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV227" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX227" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="228" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="GN228" t="s">
         <v>110</v>
@@ -8558,24 +8577,24 @@
         <v>753</v>
       </c>
       <c r="GR228" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT228" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="GV228" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX228" s="4" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="229" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="GN229" t="s">
         <v>110</v>
@@ -8584,24 +8603,24 @@
         <v>753</v>
       </c>
       <c r="GR229" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT229" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV229" s="5" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="GX229" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="230" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="GN230" t="s">
         <v>110</v>
@@ -8613,21 +8632,21 @@
         <v>756</v>
       </c>
       <c r="GT230" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV230" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX230" s="4" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="231" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="GN231" t="s">
         <v>110</v>
@@ -8636,24 +8655,24 @@
         <v>753</v>
       </c>
       <c r="GR231" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT231" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV231" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX231" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="232" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="GN232" t="s">
         <v>110</v>
@@ -8662,24 +8681,24 @@
         <v>753</v>
       </c>
       <c r="GR232" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT232" s="4" t="s">
         <v>769</v>
       </c>
       <c r="GV232" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX232" s="4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="233" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="GN233" t="s">
         <v>110</v>
@@ -8691,21 +8710,21 @@
         <v>756</v>
       </c>
       <c r="GT233" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV233" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX233" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="234" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="GN234" t="s">
         <v>110</v>
@@ -8714,24 +8733,24 @@
         <v>753</v>
       </c>
       <c r="GR234" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT234" s="4" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="GV234" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX234" s="4" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="235" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="GN235" t="s">
         <v>110</v>
@@ -8743,21 +8762,21 @@
         <v>756</v>
       </c>
       <c r="GT235" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV235" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX235" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="236" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="GN236" t="s">
         <v>110</v>
@@ -8769,21 +8788,21 @@
         <v>756</v>
       </c>
       <c r="GT236" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV236" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX236" s="4" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="237" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="GN237" t="s">
         <v>110</v>
@@ -8795,21 +8814,21 @@
         <v>756</v>
       </c>
       <c r="GT237" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV237" s="5" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="GX237" s="5" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
     </row>
     <row r="238" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="GN238" t="s">
         <v>110</v>
@@ -8827,15 +8846,15 @@
         <v>774</v>
       </c>
       <c r="GX238" s="4" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="239" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="GN239" t="s">
         <v>110</v>
@@ -8853,15 +8872,15 @@
         <v>773</v>
       </c>
       <c r="GX239" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="240" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>721</v>
+        <v>682</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="GN240" t="s">
         <v>110</v>
@@ -8870,24 +8889,24 @@
         <v>753</v>
       </c>
       <c r="GR240" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT240" s="4" t="s">
         <v>765</v>
       </c>
       <c r="GV240" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX240" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="241" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="GN241" t="s">
         <v>110</v>
@@ -8902,18 +8921,18 @@
         <v>765</v>
       </c>
       <c r="GV241" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="GX241" s="5" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="GN242" t="s">
         <v>110</v>
@@ -8922,24 +8941,24 @@
         <v>753</v>
       </c>
       <c r="GR242" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="GT242" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV242" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX242" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="243" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="GN243" t="s">
         <v>110</v>
@@ -8951,21 +8970,21 @@
         <v>756</v>
       </c>
       <c r="GT243" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV243" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="GX243" s="5" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="244" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="GN244" t="s">
         <v>110</v>
@@ -8974,24 +8993,24 @@
         <v>753</v>
       </c>
       <c r="GR244" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT244" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="GV244" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX244" s="4" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="245" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="GN245" t="s">
         <v>110</v>
@@ -9009,15 +9028,15 @@
         <v>773</v>
       </c>
       <c r="GX245" s="5" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
     </row>
     <row r="246" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="GN246" t="s">
         <v>110</v>
@@ -9032,18 +9051,18 @@
         <v>765</v>
       </c>
       <c r="GV246" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="GX246" s="4" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
     </row>
     <row r="247" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="GN247" t="s">
         <v>110</v>
@@ -9052,24 +9071,24 @@
         <v>753</v>
       </c>
       <c r="GR247" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT247" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV247" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX247" s="5" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
     </row>
     <row r="248" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="GN248" t="s">
         <v>110</v>
@@ -9078,7 +9097,7 @@
         <v>753</v>
       </c>
       <c r="GR248" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="GT248" s="4" t="s">
         <v>769</v>
@@ -9087,15 +9106,15 @@
         <v>774</v>
       </c>
       <c r="GX248" s="4" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="249" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="GN249" t="s">
         <v>110</v>
@@ -9104,24 +9123,24 @@
         <v>753</v>
       </c>
       <c r="GR249" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT249" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV249" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="GX249" s="5" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="250" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="GN250" t="s">
         <v>110</v>
@@ -9130,24 +9149,24 @@
         <v>753</v>
       </c>
       <c r="GR250" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="GT250" s="4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="GV250" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX250" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="251" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="GN251" t="s">
         <v>110</v>
@@ -9159,21 +9178,21 @@
         <v>756</v>
       </c>
       <c r="GT251" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV251" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX251" s="5" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="252" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="GN252" t="s">
         <v>110</v>
@@ -9191,15 +9210,15 @@
         <v>779</v>
       </c>
       <c r="GX252" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="253" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="GN253" t="s">
         <v>110</v>
@@ -9208,24 +9227,24 @@
         <v>753</v>
       </c>
       <c r="GR253" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="GT253" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV253" s="5" t="s">
         <v>774</v>
       </c>
       <c r="GX253" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="254" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="GN254" t="s">
         <v>110</v>
@@ -9234,24 +9253,24 @@
         <v>753</v>
       </c>
       <c r="GR254" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT254" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV254" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="GX254" s="4" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="255" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="GN255" t="s">
         <v>110</v>
@@ -9260,24 +9279,24 @@
         <v>753</v>
       </c>
       <c r="GR255" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT255" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV255" s="5" t="s">
         <v>774</v>
       </c>
       <c r="GX255" s="5" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
     </row>
     <row r="256" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="GN256" t="s">
         <v>110</v>
@@ -9286,24 +9305,24 @@
         <v>753</v>
       </c>
       <c r="GR256" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="GT256" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="GV256" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX256" s="4" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
     </row>
     <row r="257" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="GN257" t="s">
         <v>110</v>
@@ -9312,24 +9331,24 @@
         <v>753</v>
       </c>
       <c r="GR257" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT257" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV257" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="GX257" s="5" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="258" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="GN258" t="s">
         <v>110</v>
@@ -9338,160 +9357,160 @@
         <v>753</v>
       </c>
       <c r="GR258" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT258" s="4" t="s">
         <v>765</v>
       </c>
       <c r="GV258" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="GX258" s="4" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
     </row>
     <row r="259" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="GN259" t="s">
         <v>110</v>
       </c>
       <c r="GP259" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR259" s="5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="GT259" s="5" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="GV259" s="5" t="s">
         <v>774</v>
       </c>
       <c r="GX259" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="260" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="GN260" t="s">
         <v>110</v>
       </c>
       <c r="GP260" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR260" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT260" s="4" t="s">
         <v>765</v>
       </c>
       <c r="GV260" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="GX260" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="261" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="GN261" t="s">
         <v>110</v>
       </c>
       <c r="GP261" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR261" s="5" t="s">
         <v>756</v>
       </c>
       <c r="GT261" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="GV261" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX261" s="5" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="262" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="GN262" t="s">
         <v>110</v>
       </c>
       <c r="GP262" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR262" s="4" t="s">
         <v>756</v>
       </c>
       <c r="GT262" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV262" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX262" s="4" t="s">
-        <v>818</v>
+        <v>783</v>
       </c>
     </row>
     <row r="263" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="GN263" t="s">
         <v>110</v>
       </c>
       <c r="GP263" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR263" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT263" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV263" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="GX263" s="5" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="264" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="GN264" t="s">
         <v>110</v>
       </c>
       <c r="GP264" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR264" s="4" t="s">
         <v>756</v>
@@ -9500,18 +9519,18 @@
         <v>765</v>
       </c>
       <c r="GV264" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="GX264" s="4" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="265" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="GN265" t="s">
         <v>110</v>
@@ -9523,21 +9542,21 @@
         <v>756</v>
       </c>
       <c r="GT265" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="GV265" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX265" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="266" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="GN266" t="s">
         <v>110</v>
@@ -9549,21 +9568,21 @@
         <v>756</v>
       </c>
       <c r="GT266" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV266" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX266" s="4" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="267" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="GN267" t="s">
         <v>110</v>
@@ -9575,21 +9594,21 @@
         <v>756</v>
       </c>
       <c r="GT267" s="5" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="GV267" s="5" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="GX267" s="5" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>697</v>
+        <v>735</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="GN268" t="s">
         <v>110</v>
@@ -9598,24 +9617,24 @@
         <v>754</v>
       </c>
       <c r="GR268" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="GT268" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="GV268" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="GX268" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="269" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="GN269" t="s">
         <v>110</v>
@@ -9627,21 +9646,21 @@
         <v>756</v>
       </c>
       <c r="GT269" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="GV269" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="GX269" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="270" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="GN270" t="s">
         <v>110</v>
@@ -9653,21 +9672,21 @@
         <v>756</v>
       </c>
       <c r="GT270" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV270" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX270" s="4" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
     </row>
     <row r="271" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="GN271" t="s">
         <v>110</v>
@@ -9685,15 +9704,15 @@
         <v>778</v>
       </c>
       <c r="GX271" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="272" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="GN272" t="s">
         <v>110</v>
@@ -9708,7 +9727,7 @@
         <v>766</v>
       </c>
       <c r="GV272" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX272" s="4" t="s">
         <v>822</v>
@@ -9716,10 +9735,10 @@
     </row>
     <row r="273" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>739</v>
+        <v>696</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="GN273" t="s">
         <v>110</v>
@@ -9731,21 +9750,21 @@
         <v>756</v>
       </c>
       <c r="GT273" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV273" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX273" s="5" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
     </row>
     <row r="274" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="GN274" t="s">
         <v>110</v>
@@ -9754,24 +9773,24 @@
         <v>754</v>
       </c>
       <c r="GR274" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="GT274" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="GV274" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="GX274" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="275" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="GN275" t="s">
         <v>110</v>
@@ -9789,15 +9808,15 @@
         <v>780</v>
       </c>
       <c r="GX275" s="5" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
     </row>
     <row r="276" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>740</v>
+        <v>698</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="GN276" t="s">
         <v>110</v>
@@ -9806,13 +9825,13 @@
         <v>754</v>
       </c>
       <c r="GR276" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="GT276" s="4" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="GV276" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX276" s="4" t="s">
         <v>800</v>
@@ -9820,10 +9839,10 @@
     </row>
     <row r="277" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>741</v>
+        <v>699</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="GN277" t="s">
         <v>110</v>
@@ -9835,21 +9854,21 @@
         <v>756</v>
       </c>
       <c r="GT277" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="GV277" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="GX277" s="5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="GN278" t="s">
         <v>110</v>
@@ -9861,21 +9880,21 @@
         <v>756</v>
       </c>
       <c r="GT278" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="GV278" s="4" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="GX278" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="279" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="GN279" t="s">
         <v>110</v>
@@ -9887,21 +9906,21 @@
         <v>756</v>
       </c>
       <c r="GT279" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="GV279" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX279" s="5" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
     </row>
     <row r="280" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>743</v>
+        <v>700</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="GN280" t="s">
         <v>110</v>
@@ -9910,24 +9929,24 @@
         <v>754</v>
       </c>
       <c r="GR280" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="GT280" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="GV280" s="4" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="GX280" s="4" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="GN281" t="s">
         <v>110</v>
@@ -9936,7 +9955,7 @@
         <v>754</v>
       </c>
       <c r="GR281" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="GT281" s="5" t="s">
         <v>768</v>
@@ -9950,10 +9969,10 @@
     </row>
     <row r="282" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="GN282" t="s">
         <v>110</v>
@@ -9962,24 +9981,24 @@
         <v>754</v>
       </c>
       <c r="GR282" s="4" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="GT282" s="4" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="GV282" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="GX282" s="4" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
     </row>
     <row r="283" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="GN283" t="s">
         <v>110</v>
@@ -9991,21 +10010,21 @@
         <v>756</v>
       </c>
       <c r="GT283" s="5" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="GV283" s="5" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="GX283" s="5" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="284" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="GN284" t="s">
         <v>110</v>
@@ -10028,10 +10047,10 @@
     </row>
     <row r="285" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="GN285" t="s">
         <v>110</v>
@@ -10043,21 +10062,21 @@
         <v>756</v>
       </c>
       <c r="GT285" s="5" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="GV285" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="GX285" s="5" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="286" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="GN286" t="s">
         <v>110</v>
@@ -10069,21 +10088,21 @@
         <v>756</v>
       </c>
       <c r="GT286" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV286" s="4" t="s">
         <v>773</v>
       </c>
       <c r="GX286" s="4" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="GN287" t="s">
         <v>110</v>
@@ -10092,24 +10111,24 @@
         <v>754</v>
       </c>
       <c r="GR287" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="GT287" s="5" t="s">
         <v>768</v>
       </c>
       <c r="GV287" s="5" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="GX287" s="5" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
     </row>
     <row r="288" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>706</v>
+        <v>744</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="GN288" t="s">
         <v>110</v>
@@ -10121,12 +10140,168 @@
         <v>756</v>
       </c>
       <c r="GT288" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV288" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX288" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="289" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="GN289" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP289" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR289" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT289" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV289" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX289" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="290" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="GN290" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP290" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR290" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT290" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="GV288" s="4" t="s">
+      <c r="GV290" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX290" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="291" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="GN291" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP291" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR291" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT291" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV291" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="GX288" s="4" t="s">
+      <c r="GX291" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="292" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="GN292" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP292" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR292" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT292" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV292" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX292" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="GN293" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP293" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR293" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="GT293" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV293" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="GX293" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="294" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="GN294" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP294" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR294" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT294" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV294" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX294" s="4" t="s">
         <v>783</v>
       </c>
     </row>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Convertisseur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2004E7-ED61-4A9F-A681-FBAED6410E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B79956-902C-4C42-8434-906A21A89AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB65F6B7-6B5B-4AD1-B2B4-57BEF641AB97}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="882">
   <si>
     <t>id</t>
   </si>
@@ -2555,6 +2555,117 @@
   </si>
   <si>
     <t>ail_nmbr</t>
+  </si>
+  <si>
+    <t>cafe</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>piston</t>
+  </si>
+  <si>
+    <t>Piston</t>
+  </si>
+  <si>
+    <t>coffee_tme</t>
+  </si>
+  <si>
+    <t>machine_a_cafe</t>
+  </si>
+  <si>
+    <t>Machine à café</t>
+  </si>
+  <si>
+    <t>siphon</t>
+  </si>
+  <si>
+    <t>Siphon</t>
+  </si>
+  <si>
+    <t>chemex</t>
+  </si>
+  <si>
+    <t>Chemex</t>
+  </si>
+  <si>
+    <t>italienne</t>
+  </si>
+  <si>
+    <t>Italienne</t>
+  </si>
+  <si>
+    <t>ibrik</t>
+  </si>
+  <si>
+    <t>Ibrik</t>
+  </si>
+  <si>
+    <t>cold_brew</t>
+  </si>
+  <si>
+    <t>Cold Brew</t>
+  </si>
+  <si>
+    <t>v60</t>
+  </si>
+  <si>
+    <t>V60</t>
+  </si>
+  <si>
+    <t>coffee_mouture</t>
+  </si>
+  <si>
+    <t>Très grossière</t>
+  </si>
+  <si>
+    <t>Très fine</t>
+  </si>
+  <si>
+    <t>Grossière</t>
+  </si>
+  <si>
+    <t>Fine/Moyenne/Grossière</t>
+  </si>
+  <si>
+    <t>Très fine/Fine</t>
+  </si>
+  <si>
+    <t>Extra-fine</t>
+  </si>
+  <si>
+    <t>Fine/Moyenne</t>
+  </si>
+  <si>
+    <t>coffee_cup_ml</t>
+  </si>
+  <si>
+    <t>is_coffee_use</t>
+  </si>
+  <si>
+    <t>coffee_spcfc_tbsp_g</t>
+  </si>
+  <si>
+    <t>filtre</t>
+  </si>
+  <si>
+    <t>Filtre</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>coffee_tmp</t>
+  </si>
+  <si>
+    <t>coffee_g_per_cl_lght</t>
+  </si>
+  <si>
+    <t>coffee_g_per_cl_strng</t>
+  </si>
+  <si>
+    <t>coffee_g_per_cl_intense</t>
   </si>
 </sst>
 </file>
@@ -3076,13 +3187,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3438,18 +3551,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C99BCBC-C19B-4075-AB48-0622208F227E}">
-  <dimension ref="A1:GZ294"/>
+  <dimension ref="A1:HR304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="14" topLeftCell="GU15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="14" topLeftCell="HJ17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="GZ5" sqref="GZ5"/>
+      <selection pane="bottomRight" activeCell="HP26" sqref="HP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3777,8 +3890,35 @@
       <c r="GZ1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="2" spans="1:208" x14ac:dyDescent="0.3">
+      <c r="HB1" t="s">
+        <v>873</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>879</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>880</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>881</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>849</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>878</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>864</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>872</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3804,7 +3944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -3818,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3835,7 +3975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>842</v>
       </c>
@@ -3846,7 +3986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3863,7 +4003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -3889,7 +4029,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>834</v>
       </c>
@@ -3904,7 +4044,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -3915,7 +4055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3935,7 +4075,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -3958,7 +4098,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="12" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -3972,7 +4112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -3994,7 +4134,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4016,7 +4156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>836</v>
       </c>
@@ -4036,7 +4176,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="16" spans="1:208" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4050,7 +4190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -4064,389 +4204,315 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:194" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>845</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>847</v>
+      </c>
+      <c r="B19" t="s">
+        <v>848</v>
+      </c>
+      <c r="HB19" t="s">
+        <v>110</v>
+      </c>
+      <c r="HD19">
+        <v>0.47</v>
+      </c>
+      <c r="HF19">
+        <v>0.67</v>
+      </c>
+      <c r="HH19">
+        <v>0.83</v>
+      </c>
+      <c r="HJ19" s="6" t="str">
+        <f>"3-4"</f>
+        <v>3-4</v>
+      </c>
+      <c r="HL19" t="str">
+        <f>"88-92"</f>
+        <v>88-92</v>
+      </c>
+      <c r="HN19" t="s">
+        <v>865</v>
+      </c>
+      <c r="HP19">
+        <v>150</v>
+      </c>
+      <c r="HR19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>850</v>
+      </c>
+      <c r="B20" t="s">
+        <v>851</v>
+      </c>
+      <c r="HB20" t="s">
+        <v>110</v>
+      </c>
+      <c r="HJ20" s="6"/>
+      <c r="HN20" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>852</v>
+      </c>
+      <c r="B21" t="s">
+        <v>853</v>
+      </c>
+      <c r="HB21" t="s">
+        <v>110</v>
+      </c>
+      <c r="HJ21" s="6"/>
+      <c r="HN21" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>854</v>
+      </c>
+      <c r="B22" t="s">
+        <v>855</v>
+      </c>
+      <c r="HB22" t="s">
+        <v>110</v>
+      </c>
+      <c r="HD22">
+        <v>0.5</v>
+      </c>
+      <c r="HF22">
+        <v>0.6</v>
+      </c>
+      <c r="HH22">
+        <v>0.7</v>
+      </c>
+      <c r="HJ22" s="6"/>
+      <c r="HN22" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>856</v>
+      </c>
+      <c r="B23" t="s">
+        <v>857</v>
+      </c>
+      <c r="HB23" t="s">
+        <v>110</v>
+      </c>
+      <c r="HJ23" s="6"/>
+      <c r="HN23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>858</v>
+      </c>
+      <c r="B24" t="s">
+        <v>859</v>
+      </c>
+      <c r="HB24" t="s">
+        <v>110</v>
+      </c>
+      <c r="HJ24" s="6"/>
+      <c r="HN24" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>875</v>
+      </c>
+      <c r="B25" t="s">
+        <v>876</v>
+      </c>
+      <c r="HD25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="HF25">
+        <v>0.65</v>
+      </c>
+      <c r="HH25">
+        <v>0.72</v>
+      </c>
+      <c r="HJ25" s="6"/>
+      <c r="HN25" t="s">
+        <v>877</v>
+      </c>
+      <c r="HP25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>860</v>
+      </c>
+      <c r="B26" t="s">
+        <v>861</v>
+      </c>
+      <c r="HB26" t="s">
+        <v>110</v>
+      </c>
+      <c r="HJ26" s="6"/>
+      <c r="HN26" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>862</v>
+      </c>
+      <c r="B27" t="s">
+        <v>863</v>
+      </c>
+      <c r="HB27" t="s">
+        <v>110</v>
+      </c>
+      <c r="HD27">
+        <v>0.5</v>
+      </c>
+      <c r="HF27">
+        <v>0.6</v>
+      </c>
+      <c r="HH27">
+        <v>0.7</v>
+      </c>
+      <c r="HJ27" s="6"/>
+      <c r="HN27" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="I18">
+      <c r="I28">
         <v>4.2</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J28" t="s">
         <v>132</v>
       </c>
-      <c r="AW18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY18">
+      <c r="AW28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY28">
         <v>75</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BA28" t="s">
         <v>133</v>
       </c>
-      <c r="BC18">
+      <c r="BC28">
         <v>85</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BE28" t="s">
         <v>134</v>
       </c>
-      <c r="BG18">
+      <c r="BG28">
         <v>90</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BI28" t="s">
         <v>135</v>
       </c>
-      <c r="BK18">
+      <c r="BK28">
         <v>95</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BM28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="29" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:194" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="30" spans="1:226" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G20">
-        <f>AVERAGE(GB21:GB33)</f>
+      <c r="G30">
+        <f>AVERAGE(GB31:GB43)</f>
         <v>0.81500000000000017</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="31" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>141</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>142</v>
       </c>
-      <c r="FX21" t="s">
-        <v>110</v>
-      </c>
-      <c r="FZ21">
+      <c r="FX31" t="s">
+        <v>110</v>
+      </c>
+      <c r="FZ31">
         <v>198</v>
       </c>
-      <c r="GA21" t="s">
+      <c r="GA31" t="s">
         <v>841</v>
       </c>
-      <c r="GB21">
+      <c r="GB31">
         <v>0.78</v>
       </c>
-      <c r="GC21" t="s">
+      <c r="GC31" t="s">
         <v>841</v>
       </c>
-      <c r="GD21">
+      <c r="GD31">
         <v>4</v>
       </c>
-      <c r="GF21">
+      <c r="GF31">
         <v>1</v>
       </c>
-      <c r="GH21">
+      <c r="GH31">
         <v>3</v>
       </c>
-      <c r="GJ21">
-        <v>2</v>
-      </c>
-      <c r="GL21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="GJ31">
+        <v>2</v>
+      </c>
+      <c r="GL31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>143</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>144</v>
       </c>
-      <c r="FX22" t="s">
-        <v>110</v>
-      </c>
-      <c r="GB22">
+      <c r="FX32" t="s">
+        <v>110</v>
+      </c>
+      <c r="GB32">
         <v>0.9</v>
       </c>
-      <c r="GD22">
+      <c r="GD32">
         <v>5</v>
-      </c>
-      <c r="GF22">
-        <v>1</v>
-      </c>
-      <c r="GH22">
-        <v>3</v>
-      </c>
-      <c r="GJ22">
-        <v>2</v>
-      </c>
-      <c r="GL22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="FX23" t="s">
-        <v>110</v>
-      </c>
-      <c r="GB23">
-        <v>0.8</v>
-      </c>
-      <c r="GD23">
-        <v>4</v>
-      </c>
-      <c r="GF23">
-        <v>2</v>
-      </c>
-      <c r="GH23">
-        <v>3</v>
-      </c>
-      <c r="GJ23">
-        <v>2</v>
-      </c>
-      <c r="GL23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" t="s">
-        <v>148</v>
-      </c>
-      <c r="FX24" t="s">
-        <v>110</v>
-      </c>
-      <c r="GB24">
-        <v>0.78</v>
-      </c>
-      <c r="GD24">
-        <v>3</v>
-      </c>
-      <c r="GF24">
-        <v>2</v>
-      </c>
-      <c r="GH24">
-        <v>2</v>
-      </c>
-      <c r="GJ24">
-        <v>2</v>
-      </c>
-      <c r="GL24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="FX25" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD25">
-        <v>2</v>
-      </c>
-      <c r="GF25">
-        <v>5</v>
-      </c>
-      <c r="GH25">
-        <v>2</v>
-      </c>
-      <c r="GJ25">
-        <v>3</v>
-      </c>
-      <c r="GL25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="FX26" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD26">
-        <v>3</v>
-      </c>
-      <c r="GF26">
-        <v>4</v>
-      </c>
-      <c r="GH26">
-        <v>2</v>
-      </c>
-      <c r="GJ26">
-        <v>3</v>
-      </c>
-      <c r="GL26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" t="s">
-        <v>154</v>
-      </c>
-      <c r="FX27" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD27">
-        <v>3</v>
-      </c>
-      <c r="GF27">
-        <v>3</v>
-      </c>
-      <c r="GH27">
-        <v>2</v>
-      </c>
-      <c r="GJ27">
-        <v>3</v>
-      </c>
-      <c r="GL27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>590</v>
-      </c>
-      <c r="B28" t="s">
-        <v>591</v>
-      </c>
-      <c r="FX28" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD28">
-        <v>4</v>
-      </c>
-      <c r="GF28">
-        <v>2</v>
-      </c>
-      <c r="GH28">
-        <v>1</v>
-      </c>
-      <c r="GJ28">
-        <v>3</v>
-      </c>
-      <c r="GL28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" t="s">
-        <v>156</v>
-      </c>
-      <c r="FX29" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD29">
-        <v>4</v>
-      </c>
-      <c r="GF29">
-        <v>2</v>
-      </c>
-      <c r="GH29">
-        <v>2</v>
-      </c>
-      <c r="GJ29">
-        <v>2</v>
-      </c>
-      <c r="GL29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
-      <c r="FX30" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD30">
-        <v>4</v>
-      </c>
-      <c r="GF30">
-        <v>2</v>
-      </c>
-      <c r="GH30">
-        <v>2</v>
-      </c>
-      <c r="GJ30">
-        <v>2</v>
-      </c>
-      <c r="GL30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="FX31" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD31">
-        <v>3</v>
-      </c>
-      <c r="GF31">
-        <v>2</v>
-      </c>
-      <c r="GH31">
-        <v>2</v>
-      </c>
-      <c r="GJ31">
-        <v>2</v>
-      </c>
-      <c r="GL31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:194" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="FX32" t="s">
-        <v>110</v>
-      </c>
-      <c r="GD32">
-        <v>4</v>
       </c>
       <c r="GF32">
         <v>1</v>
@@ -4455,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="GJ32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GL32">
         <v>1</v>
@@ -4463,576 +4529,453 @@
     </row>
     <row r="33" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="FX33" t="s">
         <v>110</v>
       </c>
+      <c r="GB33">
+        <v>0.8</v>
+      </c>
       <c r="GD33">
+        <v>4</v>
+      </c>
+      <c r="GF33">
+        <v>2</v>
+      </c>
+      <c r="GH33">
         <v>3</v>
       </c>
-      <c r="GF33">
-        <v>2</v>
-      </c>
-      <c r="GH33">
-        <v>2</v>
-      </c>
       <c r="GJ33">
         <v>2</v>
       </c>
       <c r="GL33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>148</v>
+      </c>
+      <c r="FX34" t="s">
+        <v>110</v>
+      </c>
+      <c r="GB34">
+        <v>0.78</v>
+      </c>
+      <c r="GD34">
+        <v>3</v>
+      </c>
+      <c r="GF34">
+        <v>2</v>
+      </c>
+      <c r="GH34">
+        <v>2</v>
+      </c>
+      <c r="GJ34">
+        <v>2</v>
+      </c>
+      <c r="GL34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>150</v>
+      </c>
+      <c r="FX35" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD35">
+        <v>2</v>
+      </c>
+      <c r="GF35">
+        <v>5</v>
+      </c>
+      <c r="GH35">
+        <v>2</v>
+      </c>
+      <c r="GJ35">
+        <v>3</v>
+      </c>
+      <c r="GL35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36">
-        <v>97</v>
-      </c>
-      <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36">
-        <v>0.8</v>
-      </c>
-      <c r="H36" t="s">
-        <v>99</v>
+        <v>152</v>
+      </c>
+      <c r="FX36" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD36">
+        <v>3</v>
+      </c>
+      <c r="GF36">
+        <v>4</v>
+      </c>
+      <c r="GH36">
+        <v>2</v>
+      </c>
+      <c r="GJ36">
+        <v>3</v>
+      </c>
+      <c r="GL36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>154</v>
+      </c>
+      <c r="FX37" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD37">
+        <v>3</v>
+      </c>
+      <c r="GF37">
+        <v>3</v>
+      </c>
+      <c r="GH37">
+        <v>2</v>
+      </c>
+      <c r="GJ37">
+        <v>3</v>
+      </c>
+      <c r="GL37">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>590</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>591</v>
+      </c>
+      <c r="FX38" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD38">
+        <v>4</v>
+      </c>
+      <c r="GF38">
+        <v>2</v>
+      </c>
+      <c r="GH38">
+        <v>1</v>
+      </c>
+      <c r="GJ38">
+        <v>3</v>
+      </c>
+      <c r="GL38">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>156</v>
+      </c>
+      <c r="FX39" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD39">
+        <v>4</v>
+      </c>
+      <c r="GF39">
+        <v>2</v>
+      </c>
+      <c r="GH39">
+        <v>2</v>
+      </c>
+      <c r="GJ39">
+        <v>2</v>
+      </c>
+      <c r="GL39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40">
         <v>158</v>
       </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40">
-        <v>0.7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>99</v>
+      <c r="FX40" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD40">
+        <v>4</v>
+      </c>
+      <c r="GF40">
+        <v>2</v>
+      </c>
+      <c r="GH40">
+        <v>2</v>
+      </c>
+      <c r="GJ40">
+        <v>2</v>
+      </c>
+      <c r="GL40">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41">
-        <v>555</v>
-      </c>
-      <c r="F41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41">
-        <v>0.88</v>
-      </c>
-      <c r="H41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:194" ht="15.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="FX41" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD41">
+        <v>3</v>
+      </c>
+      <c r="GF41">
+        <v>2</v>
+      </c>
+      <c r="GH41">
+        <v>2</v>
+      </c>
+      <c r="GJ41">
+        <v>2</v>
+      </c>
+      <c r="GL41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42">
-        <v>180</v>
-      </c>
-      <c r="G42">
-        <f>AVERAGE(BU43:BU74)</f>
-        <v>0.83666666666666656</v>
-      </c>
-      <c r="AO42">
-        <v>60</v>
-      </c>
-      <c r="AQ42">
-        <v>100</v>
-      </c>
-      <c r="AS42">
-        <v>150</v>
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="FX42" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD42">
+        <v>4</v>
+      </c>
+      <c r="GF42">
+        <v>1</v>
+      </c>
+      <c r="GH42">
+        <v>3</v>
+      </c>
+      <c r="GJ42">
+        <v>1</v>
+      </c>
+      <c r="GL42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BQ43" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW43" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY43">
-        <v>2</v>
-      </c>
-      <c r="CC43">
+        <v>164</v>
+      </c>
+      <c r="FX43" t="s">
+        <v>110</v>
+      </c>
+      <c r="GD43">
         <v>3</v>
       </c>
-      <c r="CE43">
-        <v>3</v>
-      </c>
-      <c r="CI43">
-        <v>3</v>
-      </c>
-      <c r="CK43">
-        <v>3</v>
-      </c>
-      <c r="CO43">
+      <c r="GF43">
+        <v>2</v>
+      </c>
+      <c r="GH43">
+        <v>2</v>
+      </c>
+      <c r="GJ43">
+        <v>2</v>
+      </c>
+      <c r="GL43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BQ44" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW44" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY44">
-        <v>2</v>
-      </c>
-      <c r="CC44">
-        <v>3</v>
-      </c>
-      <c r="CE44">
-        <v>3</v>
-      </c>
-      <c r="CG44">
-        <v>1</v>
-      </c>
-      <c r="CI44">
-        <v>3</v>
-      </c>
-      <c r="CK44">
-        <v>3</v>
-      </c>
-      <c r="CM44">
-        <v>1</v>
-      </c>
-      <c r="CO44">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BQ45" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW45" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY45">
-        <v>1</v>
-      </c>
-      <c r="CC45">
-        <v>3</v>
-      </c>
-      <c r="CE45">
-        <v>2</v>
-      </c>
-      <c r="CG45">
-        <v>1</v>
-      </c>
-      <c r="CI45">
-        <v>3</v>
-      </c>
-      <c r="CK45">
-        <v>2</v>
-      </c>
-      <c r="CM45">
-        <v>1</v>
-      </c>
-      <c r="CO45">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BQ46" t="s">
-        <v>190</v>
-      </c>
-      <c r="BW46" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY46">
-        <v>1</v>
-      </c>
-      <c r="CC46">
-        <v>2</v>
-      </c>
-      <c r="CE46">
-        <v>3</v>
-      </c>
-      <c r="CI46">
-        <v>3</v>
-      </c>
-      <c r="CK46">
-        <v>3</v>
-      </c>
-      <c r="CO46">
-        <v>2</v>
+        <v>170</v>
+      </c>
+      <c r="E46">
+        <v>97</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46">
+        <v>0.8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>192</v>
-      </c>
-      <c r="BW47" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY47">
-        <v>1</v>
-      </c>
-      <c r="CC47">
-        <v>2</v>
-      </c>
-      <c r="CE47">
-        <v>3</v>
-      </c>
-      <c r="CI47">
-        <v>3</v>
-      </c>
-      <c r="CK47">
-        <v>3</v>
-      </c>
-      <c r="CO47">
-        <v>2</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BQ48" t="s">
-        <v>194</v>
-      </c>
-      <c r="BW48" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY48">
-        <v>1</v>
-      </c>
-      <c r="CC48">
-        <v>2</v>
-      </c>
-      <c r="CE48">
-        <v>3</v>
-      </c>
-      <c r="CG48">
-        <v>1</v>
-      </c>
-      <c r="CI48">
-        <v>3</v>
-      </c>
-      <c r="CK48">
-        <v>3</v>
-      </c>
-      <c r="CM48">
-        <v>2</v>
-      </c>
-      <c r="CO48">
-        <v>2</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BQ49" t="s">
-        <v>196</v>
-      </c>
-      <c r="BW49" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY49">
-        <v>1</v>
-      </c>
-      <c r="CC49">
-        <v>2</v>
-      </c>
-      <c r="CE49">
-        <v>2</v>
-      </c>
-      <c r="CI49">
-        <v>3</v>
-      </c>
-      <c r="CK49">
-        <v>2</v>
-      </c>
-      <c r="CO49">
-        <v>2</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BQ50" t="s">
-        <v>198</v>
-      </c>
-      <c r="BW50" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY50">
-        <v>1</v>
-      </c>
-      <c r="CC50">
-        <v>2</v>
-      </c>
-      <c r="CE50">
-        <v>2</v>
-      </c>
-      <c r="CG50">
-        <v>1</v>
-      </c>
-      <c r="CI50">
-        <v>3</v>
-      </c>
-      <c r="CK50">
-        <v>3</v>
-      </c>
-      <c r="CM50">
-        <v>2</v>
-      </c>
-      <c r="CO50">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="E50">
+        <v>158</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50">
+        <v>0.7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BQ51" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW51" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY51">
-        <v>1</v>
-      </c>
-      <c r="CE51">
-        <v>2</v>
-      </c>
-      <c r="CI51">
-        <v>3</v>
-      </c>
-      <c r="CK51">
-        <v>2</v>
-      </c>
-      <c r="CO51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:93" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="E51">
+        <v>555</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51">
+        <v>0.88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:93" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" t="s">
-        <v>203</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BQ52" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS52">
-        <v>178</v>
-      </c>
-      <c r="BT52" t="s">
-        <v>204</v>
-      </c>
-      <c r="BU52">
-        <v>0.84</v>
-      </c>
-      <c r="BV52" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW52" t="s">
-        <v>206</v>
-      </c>
-      <c r="BY52">
-        <v>2</v>
-      </c>
-      <c r="CC52">
-        <v>2</v>
-      </c>
-      <c r="CD52" t="s">
-        <v>204</v>
-      </c>
-      <c r="CE52">
-        <v>2</v>
-      </c>
-      <c r="CG52">
-        <v>3</v>
-      </c>
-      <c r="CI52">
-        <v>2</v>
-      </c>
-      <c r="CK52">
-        <v>2</v>
-      </c>
-      <c r="CM52">
-        <v>2</v>
-      </c>
-      <c r="CO52">
-        <v>2</v>
+        <v>181</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52">
+        <v>180</v>
+      </c>
+      <c r="G52">
+        <f>AVERAGE(BU53:BU84)</f>
+        <v>0.83666666666666656</v>
+      </c>
+      <c r="AO52">
+        <v>60</v>
+      </c>
+      <c r="AQ52">
+        <v>100</v>
+      </c>
+      <c r="AS52">
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="BO53">
         <v>1</v>
       </c>
       <c r="BQ53" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="BW53" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY53">
         <v>2</v>
       </c>
-      <c r="CA53">
-        <v>2</v>
-      </c>
-      <c r="CG53">
+      <c r="CC53">
         <v>3</v>
       </c>
-      <c r="CM53">
-        <v>2</v>
+      <c r="CE53">
+        <v>3</v>
+      </c>
+      <c r="CI53">
+        <v>3</v>
+      </c>
+      <c r="CK53">
+        <v>3</v>
       </c>
       <c r="CO53">
         <v>2</v>
@@ -5040,104 +4983,116 @@
     </row>
     <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="BO54">
         <v>1</v>
       </c>
       <c r="BQ54" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="BW54" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY54">
         <v>2</v>
       </c>
-      <c r="CA54">
-        <v>2</v>
+      <c r="CC54">
+        <v>3</v>
       </c>
       <c r="CE54">
+        <v>3</v>
+      </c>
+      <c r="CG54">
         <v>1</v>
       </c>
-      <c r="CG54">
+      <c r="CI54">
         <v>3</v>
       </c>
+      <c r="CK54">
+        <v>3</v>
+      </c>
       <c r="CM54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="BO55">
         <v>1</v>
       </c>
       <c r="BQ55" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="BW55" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY55">
-        <v>2</v>
-      </c>
-      <c r="CA55">
+        <v>1</v>
+      </c>
+      <c r="CC55">
+        <v>3</v>
+      </c>
+      <c r="CE55">
         <v>2</v>
       </c>
       <c r="CG55">
+        <v>1</v>
+      </c>
+      <c r="CI55">
         <v>3</v>
       </c>
+      <c r="CK55">
+        <v>2</v>
+      </c>
       <c r="CM55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="BO56">
         <v>1</v>
       </c>
       <c r="BQ56" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="BW56" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY56">
-        <v>2</v>
-      </c>
-      <c r="CA56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC56">
         <v>2</v>
       </c>
       <c r="CE56">
-        <v>1</v>
-      </c>
-      <c r="CG56">
-        <v>2</v>
-      </c>
-      <c r="CM56">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="CI56">
+        <v>3</v>
+      </c>
+      <c r="CK56">
+        <v>3</v>
       </c>
       <c r="CO56">
         <v>2</v>
@@ -5145,37 +5100,34 @@
     </row>
     <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="BO57">
         <v>1</v>
       </c>
       <c r="BQ57" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="BW57" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY57">
+        <v>1</v>
+      </c>
+      <c r="CC57">
+        <v>2</v>
+      </c>
+      <c r="CE57">
         <v>3</v>
       </c>
-      <c r="CA57">
+      <c r="CI57">
         <v>3</v>
       </c>
-      <c r="CC57">
-        <v>1</v>
-      </c>
-      <c r="CE57">
-        <v>1</v>
-      </c>
-      <c r="CG57">
+      <c r="CK57">
         <v>3</v>
-      </c>
-      <c r="CM57">
-        <v>2</v>
       </c>
       <c r="CO57">
         <v>2</v>
@@ -5183,27 +5135,36 @@
     </row>
     <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="BO58">
         <v>1</v>
       </c>
       <c r="BQ58" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="BW58" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY58">
-        <v>2</v>
-      </c>
-      <c r="CA58">
+        <v>1</v>
+      </c>
+      <c r="CC58">
+        <v>2</v>
+      </c>
+      <c r="CE58">
         <v>3</v>
       </c>
       <c r="CG58">
+        <v>1</v>
+      </c>
+      <c r="CI58">
+        <v>3</v>
+      </c>
+      <c r="CK58">
         <v>3</v>
       </c>
       <c r="CM58">
@@ -5215,43 +5176,34 @@
     </row>
     <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="BO59">
         <v>1</v>
       </c>
       <c r="BQ59" t="s">
-        <v>219</v>
-      </c>
-      <c r="BS59">
-        <v>91</v>
-      </c>
-      <c r="BT59" t="s">
-        <v>831</v>
-      </c>
-      <c r="BU59">
-        <v>0.83</v>
-      </c>
-      <c r="BV59" t="s">
-        <v>831</v>
+        <v>196</v>
       </c>
       <c r="BW59" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY59">
-        <v>2</v>
-      </c>
-      <c r="CA59">
+        <v>1</v>
+      </c>
+      <c r="CC59">
+        <v>2</v>
+      </c>
+      <c r="CE59">
+        <v>2</v>
+      </c>
+      <c r="CI59">
         <v>3</v>
       </c>
-      <c r="CG59">
-        <v>3</v>
-      </c>
-      <c r="CM59">
-        <v>3</v>
+      <c r="CK59">
+        <v>2</v>
       </c>
       <c r="CO59">
         <v>2</v>
@@ -5259,28 +5211,37 @@
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="BO60">
         <v>1</v>
       </c>
       <c r="BQ60" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="BW60" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY60">
-        <v>2</v>
-      </c>
-      <c r="CA60">
+        <v>1</v>
+      </c>
+      <c r="CC60">
+        <v>2</v>
+      </c>
+      <c r="CE60">
         <v>2</v>
       </c>
       <c r="CG60">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="CI60">
+        <v>3</v>
+      </c>
+      <c r="CK60">
+        <v>3</v>
       </c>
       <c r="CM60">
         <v>2</v>
@@ -5291,30 +5252,30 @@
     </row>
     <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="BO61">
         <v>1</v>
       </c>
       <c r="BQ61" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="BW61" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="BY61">
-        <v>2</v>
-      </c>
-      <c r="CA61">
-        <v>2</v>
-      </c>
-      <c r="CG61">
-        <v>2</v>
-      </c>
-      <c r="CM61">
+        <v>1</v>
+      </c>
+      <c r="CE61">
+        <v>2</v>
+      </c>
+      <c r="CI61">
+        <v>3</v>
+      </c>
+      <c r="CK61">
         <v>2</v>
       </c>
       <c r="CO61">
@@ -5323,16 +5284,28 @@
     </row>
     <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="BO62">
         <v>1</v>
       </c>
       <c r="BQ62" t="s">
-        <v>225</v>
+        <v>202</v>
+      </c>
+      <c r="BS62">
+        <v>178</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU62">
+        <v>0.84</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>205</v>
       </c>
       <c r="BW62" t="s">
         <v>206</v>
@@ -5340,12 +5313,24 @@
       <c r="BY62">
         <v>2</v>
       </c>
-      <c r="CA62">
-        <v>3</v>
+      <c r="CC62">
+        <v>2</v>
+      </c>
+      <c r="CD62" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE62">
+        <v>2</v>
       </c>
       <c r="CG62">
         <v>3</v>
       </c>
+      <c r="CI62">
+        <v>2</v>
+      </c>
+      <c r="CK62">
+        <v>2</v>
+      </c>
       <c r="CM62">
         <v>2</v>
       </c>
@@ -5355,16 +5340,16 @@
     </row>
     <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="BO63">
         <v>1</v>
       </c>
       <c r="BQ63" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="BW63" t="s">
         <v>206</v>
@@ -5387,96 +5372,102 @@
     </row>
     <row r="64" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="BO64">
         <v>1</v>
       </c>
       <c r="BQ64" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="BW64" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY64">
         <v>2</v>
       </c>
+      <c r="CA64">
+        <v>2</v>
+      </c>
       <c r="CE64">
-        <v>2</v>
-      </c>
-      <c r="CI64">
         <v>1</v>
       </c>
-      <c r="CK64">
+      <c r="CG64">
+        <v>3</v>
+      </c>
+      <c r="CM64">
         <v>2</v>
       </c>
       <c r="CO64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="BO65">
         <v>1</v>
       </c>
       <c r="BQ65" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="BW65" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY65">
         <v>2</v>
       </c>
-      <c r="CC65">
-        <v>2</v>
-      </c>
-      <c r="CE65">
-        <v>2</v>
-      </c>
-      <c r="CI65">
-        <v>1</v>
+      <c r="CA65">
+        <v>2</v>
+      </c>
+      <c r="CG65">
+        <v>3</v>
+      </c>
+      <c r="CM65">
+        <v>2</v>
       </c>
       <c r="CO65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="BO66">
         <v>1</v>
       </c>
       <c r="BQ66" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="BW66" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY66">
         <v>2</v>
       </c>
+      <c r="CA66">
+        <v>2</v>
+      </c>
+      <c r="CC66">
+        <v>2</v>
+      </c>
       <c r="CE66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG66">
         <v>2</v>
       </c>
-      <c r="CI66">
-        <v>1</v>
-      </c>
       <c r="CM66">
         <v>2</v>
       </c>
@@ -5484,281 +5475,260 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="BO67">
         <v>1</v>
       </c>
       <c r="BQ67" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="BW67" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY67">
         <v>3</v>
       </c>
+      <c r="CA67">
+        <v>3</v>
+      </c>
       <c r="CC67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE67">
+        <v>1</v>
+      </c>
+      <c r="CG67">
         <v>3</v>
       </c>
-      <c r="CG67">
-        <v>2</v>
-      </c>
-      <c r="CI67">
-        <v>1</v>
-      </c>
-      <c r="CK67">
-        <v>3</v>
-      </c>
       <c r="CM67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="BO68">
         <v>1</v>
       </c>
       <c r="BQ68" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="BW68" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY68">
         <v>2</v>
       </c>
-      <c r="CE68">
+      <c r="CA68">
         <v>3</v>
       </c>
       <c r="CG68">
-        <v>2</v>
-      </c>
-      <c r="CI68">
-        <v>1</v>
-      </c>
-      <c r="CK68">
         <v>3</v>
       </c>
+      <c r="CM68">
+        <v>2</v>
+      </c>
       <c r="CO68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="BO69">
         <v>1</v>
       </c>
       <c r="BQ69" t="s">
-        <v>240</v>
+        <v>219</v>
+      </c>
+      <c r="BS69">
+        <v>91</v>
+      </c>
+      <c r="BT69" t="s">
+        <v>831</v>
+      </c>
+      <c r="BU69">
+        <v>0.83</v>
+      </c>
+      <c r="BV69" t="s">
+        <v>831</v>
       </c>
       <c r="BW69" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY69">
         <v>2</v>
       </c>
-      <c r="CE69">
+      <c r="CA69">
         <v>3</v>
       </c>
       <c r="CG69">
-        <v>2</v>
-      </c>
-      <c r="CI69">
-        <v>1</v>
-      </c>
-      <c r="CK69">
         <v>3</v>
       </c>
       <c r="CM69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="BO70">
         <v>1</v>
       </c>
       <c r="BQ70" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="BW70" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY70">
         <v>2</v>
       </c>
-      <c r="CE70">
-        <v>3</v>
+      <c r="CA70">
+        <v>2</v>
       </c>
       <c r="CG70">
         <v>2</v>
       </c>
-      <c r="CI70">
-        <v>1</v>
-      </c>
-      <c r="CK70">
-        <v>3</v>
-      </c>
       <c r="CM70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="BO71">
         <v>1</v>
       </c>
       <c r="BQ71" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="BW71" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY71">
         <v>2</v>
       </c>
-      <c r="CC71">
-        <v>2</v>
-      </c>
-      <c r="CE71">
-        <v>3</v>
-      </c>
-      <c r="CI71">
-        <v>2</v>
-      </c>
-      <c r="CK71">
-        <v>3</v>
+      <c r="CA71">
+        <v>2</v>
+      </c>
+      <c r="CG71">
+        <v>2</v>
       </c>
       <c r="CM71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="BO72">
         <v>1</v>
       </c>
       <c r="BQ72" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="BW72" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="BY72">
         <v>2</v>
       </c>
-      <c r="CE72">
+      <c r="CA72">
         <v>3</v>
       </c>
       <c r="CG72">
-        <v>2</v>
-      </c>
-      <c r="CI72">
-        <v>1</v>
-      </c>
-      <c r="CK72">
         <v>3</v>
       </c>
       <c r="CM72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="BO73">
         <v>1</v>
       </c>
       <c r="BQ73" t="s">
-        <v>248</v>
-      </c>
-      <c r="CC73">
-        <v>2</v>
-      </c>
-      <c r="CE73">
-        <v>2</v>
-      </c>
-      <c r="CK73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:99" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="BW73" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY73">
+        <v>2</v>
+      </c>
+      <c r="CA73">
+        <v>2</v>
+      </c>
+      <c r="CG73">
+        <v>3</v>
+      </c>
+      <c r="CM73">
+        <v>2</v>
+      </c>
+      <c r="CO73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="BO74">
         <v>1</v>
       </c>
       <c r="BQ74" t="s">
-        <v>250</v>
-      </c>
-      <c r="BS74">
-        <v>182</v>
-      </c>
-      <c r="BT74" t="s">
-        <v>252</v>
-      </c>
-      <c r="BU74">
-        <v>0.84</v>
-      </c>
-      <c r="BV74" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="BW74" t="s">
         <v>231</v>
@@ -5766,637 +5736,832 @@
       <c r="BY74">
         <v>2</v>
       </c>
-      <c r="CC74">
-        <v>2</v>
-      </c>
-      <c r="CD74" t="s">
-        <v>252</v>
-      </c>
       <c r="CE74">
-        <v>3</v>
-      </c>
-      <c r="CG74">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="CI74">
+        <v>1</v>
       </c>
       <c r="CK74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO75">
+        <v>1</v>
+      </c>
+      <c r="BQ75" t="s">
+        <v>232</v>
+      </c>
+      <c r="BW75" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY75">
+        <v>2</v>
+      </c>
+      <c r="CC75">
+        <v>2</v>
+      </c>
+      <c r="CE75">
+        <v>2</v>
+      </c>
+      <c r="CI75">
+        <v>1</v>
+      </c>
+      <c r="CO75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="BO76">
+        <v>1</v>
+      </c>
+      <c r="BQ76" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW76" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY76">
+        <v>2</v>
+      </c>
+      <c r="CE76">
+        <v>2</v>
+      </c>
+      <c r="CG76">
+        <v>2</v>
+      </c>
+      <c r="CI76">
+        <v>1</v>
+      </c>
+      <c r="CM76">
+        <v>2</v>
+      </c>
+      <c r="CO76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO77">
+        <v>1</v>
+      </c>
+      <c r="BQ77" t="s">
+        <v>236</v>
+      </c>
+      <c r="BW77" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY77">
+        <v>3</v>
+      </c>
+      <c r="CC77">
+        <v>2</v>
+      </c>
+      <c r="CE77">
+        <v>3</v>
+      </c>
+      <c r="CG77">
+        <v>2</v>
+      </c>
+      <c r="CI77">
+        <v>1</v>
+      </c>
+      <c r="CK77">
+        <v>3</v>
+      </c>
+      <c r="CM77">
+        <v>1</v>
+      </c>
+      <c r="CO77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO78">
+        <v>1</v>
+      </c>
+      <c r="BQ78" t="s">
+        <v>238</v>
+      </c>
+      <c r="BW78" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY78">
+        <v>2</v>
+      </c>
+      <c r="CE78">
+        <v>3</v>
+      </c>
+      <c r="CG78">
+        <v>2</v>
+      </c>
+      <c r="CI78">
+        <v>1</v>
+      </c>
+      <c r="CK78">
+        <v>3</v>
+      </c>
+      <c r="CO78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>241</v>
+      </c>
+      <c r="BO79">
+        <v>1</v>
+      </c>
+      <c r="BQ79" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW79" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY79">
+        <v>2</v>
+      </c>
+      <c r="CE79">
+        <v>3</v>
+      </c>
+      <c r="CG79">
+        <v>2</v>
+      </c>
+      <c r="CI79">
+        <v>1</v>
+      </c>
+      <c r="CK79">
+        <v>3</v>
+      </c>
+      <c r="CM79">
+        <v>1</v>
+      </c>
+      <c r="CO79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="BO80">
+        <v>1</v>
+      </c>
+      <c r="BQ80" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW80" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY80">
+        <v>2</v>
+      </c>
+      <c r="CE80">
+        <v>3</v>
+      </c>
+      <c r="CG80">
+        <v>2</v>
+      </c>
+      <c r="CI80">
+        <v>1</v>
+      </c>
+      <c r="CK80">
+        <v>3</v>
+      </c>
+      <c r="CM80">
+        <v>1</v>
+      </c>
+      <c r="CO80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO81">
+        <v>1</v>
+      </c>
+      <c r="BQ81" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW81" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY81">
+        <v>2</v>
+      </c>
+      <c r="CC81">
+        <v>2</v>
+      </c>
+      <c r="CE81">
+        <v>3</v>
+      </c>
+      <c r="CI81">
+        <v>2</v>
+      </c>
+      <c r="CK81">
+        <v>3</v>
+      </c>
+      <c r="CM81">
+        <v>1</v>
+      </c>
+      <c r="CO81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO82">
+        <v>1</v>
+      </c>
+      <c r="BQ82" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW82" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY82">
+        <v>2</v>
+      </c>
+      <c r="CE82">
+        <v>3</v>
+      </c>
+      <c r="CG82">
+        <v>2</v>
+      </c>
+      <c r="CI82">
+        <v>1</v>
+      </c>
+      <c r="CK82">
+        <v>3</v>
+      </c>
+      <c r="CM82">
+        <v>1</v>
+      </c>
+      <c r="CO82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="BO83">
+        <v>1</v>
+      </c>
+      <c r="BQ83" t="s">
+        <v>248</v>
+      </c>
+      <c r="CC83">
+        <v>2</v>
+      </c>
+      <c r="CE83">
+        <v>2</v>
+      </c>
+      <c r="CK83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO84">
+        <v>1</v>
+      </c>
+      <c r="BQ84" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS84">
+        <v>182</v>
+      </c>
+      <c r="BT84" t="s">
+        <v>252</v>
+      </c>
+      <c r="BU84">
+        <v>0.84</v>
+      </c>
+      <c r="BV84" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW84" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY84">
+        <v>2</v>
+      </c>
+      <c r="CC84">
+        <v>2</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>252</v>
+      </c>
+      <c r="CE84">
+        <v>3</v>
+      </c>
+      <c r="CG84">
+        <v>2</v>
+      </c>
+      <c r="CK84">
+        <v>3</v>
+      </c>
+      <c r="CO84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>253</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="W75">
+      <c r="W85">
         <v>0.01</v>
       </c>
-      <c r="X75" t="s">
+      <c r="X85" t="s">
         <v>255</v>
       </c>
-      <c r="Y75">
+      <c r="Y85">
         <v>0.1</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Z85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="86" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>256</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B86" t="s">
         <v>257</v>
       </c>
-      <c r="CQ76" t="s">
+      <c r="CQ86" t="s">
         <v>256</v>
       </c>
-      <c r="CU76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="CU86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>258</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B87" t="s">
         <v>259</v>
       </c>
-      <c r="CQ77" t="s">
+      <c r="CQ87" t="s">
         <v>258</v>
       </c>
-      <c r="CU77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="CU87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>260</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="CQ78" t="s">
+      <c r="CQ88" t="s">
         <v>260</v>
       </c>
-      <c r="CU78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="CU88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>262</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B89" t="s">
         <v>263</v>
       </c>
-      <c r="CQ79" t="s">
+      <c r="CQ89" t="s">
         <v>262</v>
       </c>
-      <c r="CU79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="CU89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>264</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B90" t="s">
         <v>265</v>
       </c>
-      <c r="CQ80" t="s">
+      <c r="CQ90" t="s">
         <v>264</v>
       </c>
-      <c r="CU80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="CU90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>266</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B91" t="s">
         <v>267</v>
       </c>
-      <c r="CQ81" t="s">
+      <c r="CQ91" t="s">
         <v>266</v>
       </c>
-      <c r="CW81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="CW91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>268</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B92" t="s">
         <v>269</v>
       </c>
-      <c r="CQ82" t="s">
+      <c r="CQ92" t="s">
         <v>268</v>
       </c>
-      <c r="CW82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="CW92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>270</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B93" t="s">
         <v>271</v>
       </c>
-      <c r="CQ83" t="s">
+      <c r="CQ93" t="s">
         <v>270</v>
       </c>
-      <c r="CW83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="CW93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>272</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B94" t="s">
         <v>273</v>
       </c>
-      <c r="CQ84" t="s">
+      <c r="CQ94" t="s">
         <v>272</v>
       </c>
-      <c r="CW84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="CW94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>274</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B95" t="s">
         <v>275</v>
       </c>
-      <c r="CQ85" t="s">
+      <c r="CQ95" t="s">
         <v>274</v>
       </c>
-      <c r="CW85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="CW95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>276</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B96" t="s">
         <v>277</v>
       </c>
-      <c r="CQ86" t="s">
+      <c r="CQ96" t="s">
         <v>276</v>
       </c>
-      <c r="CW86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>278</v>
-      </c>
-      <c r="B87" t="s">
-        <v>279</v>
-      </c>
-      <c r="CQ87" t="s">
-        <v>278</v>
-      </c>
-      <c r="CY87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>280</v>
-      </c>
-      <c r="B88" t="s">
-        <v>281</v>
-      </c>
-      <c r="CQ88" t="s">
-        <v>280</v>
-      </c>
-      <c r="CY88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>282</v>
-      </c>
-      <c r="B89" t="s">
-        <v>283</v>
-      </c>
-      <c r="CQ89" t="s">
-        <v>282</v>
-      </c>
-      <c r="CY89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>284</v>
-      </c>
-      <c r="B90" t="s">
-        <v>285</v>
-      </c>
-      <c r="CQ90" t="s">
-        <v>284</v>
-      </c>
-      <c r="CY90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>286</v>
-      </c>
-      <c r="B91" t="s">
-        <v>287</v>
-      </c>
-      <c r="CQ91" t="s">
-        <v>286</v>
-      </c>
-      <c r="CY91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>288</v>
-      </c>
-      <c r="B92" t="s">
-        <v>289</v>
-      </c>
-      <c r="CQ92" t="s">
-        <v>288</v>
-      </c>
-      <c r="DA92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>290</v>
-      </c>
-      <c r="B93" t="s">
-        <v>291</v>
-      </c>
-      <c r="CQ93" t="s">
-        <v>290</v>
-      </c>
-      <c r="DA93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>292</v>
-      </c>
-      <c r="B94" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ94" t="s">
-        <v>292</v>
-      </c>
-      <c r="DA94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>294</v>
-      </c>
-      <c r="B95" t="s">
-        <v>295</v>
-      </c>
-      <c r="CQ95" t="s">
-        <v>294</v>
-      </c>
-      <c r="DA95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>296</v>
-      </c>
-      <c r="B96" t="s">
-        <v>297</v>
-      </c>
-      <c r="CQ96" t="s">
-        <v>296</v>
-      </c>
-      <c r="DA96" t="s">
+      <c r="CW96" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
-      </c>
-      <c r="DE97" t="s">
-        <v>298</v>
-      </c>
-      <c r="DG97" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH97">
-        <v>1</v>
+        <v>279</v>
+      </c>
+      <c r="CQ97" t="s">
+        <v>278</v>
+      </c>
+      <c r="CY97" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
-      </c>
-      <c r="DE98" t="s">
-        <v>300</v>
-      </c>
-      <c r="DF98" t="s">
-        <v>302</v>
-      </c>
-      <c r="DH98">
-        <v>1</v>
+        <v>281</v>
+      </c>
+      <c r="CQ98" t="s">
+        <v>280</v>
+      </c>
+      <c r="CY98" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
-      </c>
-      <c r="DE99" t="s">
-        <v>303</v>
-      </c>
-      <c r="DF99" t="s">
-        <v>305</v>
-      </c>
-      <c r="DH99">
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="CQ99" t="s">
+        <v>282</v>
+      </c>
+      <c r="CY99" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
-        <v>307</v>
-      </c>
-      <c r="DE100" t="s">
-        <v>306</v>
-      </c>
-      <c r="DF100" t="s">
-        <v>308</v>
-      </c>
-      <c r="DH100">
-        <v>1</v>
+        <v>285</v>
+      </c>
+      <c r="CQ100" t="s">
+        <v>284</v>
+      </c>
+      <c r="CY100" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
-      </c>
-      <c r="DE101" t="s">
-        <v>309</v>
-      </c>
-      <c r="DF101" t="s">
-        <v>311</v>
-      </c>
-      <c r="DH101">
-        <v>1</v>
+        <v>287</v>
+      </c>
+      <c r="CQ101" t="s">
+        <v>286</v>
+      </c>
+      <c r="CY101" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
-      </c>
-      <c r="DE102" t="s">
-        <v>312</v>
-      </c>
-      <c r="DF102" t="s">
-        <v>314</v>
-      </c>
-      <c r="DH102">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="CQ102" t="s">
+        <v>288</v>
+      </c>
+      <c r="DA102" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
-      </c>
-      <c r="DE103" t="s">
-        <v>315</v>
-      </c>
-      <c r="DF103" t="s">
-        <v>317</v>
-      </c>
-      <c r="DH103">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="CQ103" t="s">
+        <v>290</v>
+      </c>
+      <c r="DA103" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
-      </c>
-      <c r="DE104" t="s">
-        <v>318</v>
-      </c>
-      <c r="DG104" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH104">
-        <v>2</v>
+        <v>293</v>
+      </c>
+      <c r="CQ104" t="s">
+        <v>292</v>
+      </c>
+      <c r="DA104" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
-      </c>
-      <c r="DE105" t="s">
-        <v>320</v>
-      </c>
-      <c r="DF105" t="s">
-        <v>322</v>
-      </c>
-      <c r="DH105">
-        <v>2</v>
+        <v>295</v>
+      </c>
+      <c r="CQ105" t="s">
+        <v>294</v>
+      </c>
+      <c r="DA105" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
-      </c>
-      <c r="DE106" t="s">
-        <v>323</v>
-      </c>
-      <c r="DF106" t="s">
-        <v>325</v>
-      </c>
-      <c r="DH106">
-        <v>2</v>
+        <v>297</v>
+      </c>
+      <c r="CQ106" t="s">
+        <v>296</v>
+      </c>
+      <c r="DA106" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="DE107" t="s">
-        <v>326</v>
-      </c>
-      <c r="DF107" t="s">
-        <v>328</v>
+        <v>298</v>
+      </c>
+      <c r="DG107" t="s">
+        <v>110</v>
       </c>
       <c r="DH107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="DE108" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="DF108" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="DH108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="DE109" t="s">
-        <v>332</v>
+        <v>303</v>
+      </c>
+      <c r="DF109" t="s">
+        <v>305</v>
       </c>
       <c r="DH109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="DE110" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="DF110" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="DH110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="DE111" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="DF111" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="DH111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="DE112" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="DF112" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="DH112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="DE113" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="DF113" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="DH113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B114" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="DE114" t="s">
-        <v>346</v>
-      </c>
-      <c r="DF114" t="s">
-        <v>348</v>
+        <v>318</v>
+      </c>
+      <c r="DG114" t="s">
+        <v>110</v>
       </c>
       <c r="DH114">
         <v>2</v>
@@ -6404,16 +6569,16 @@
     </row>
     <row r="115" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="DE115" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="DF115" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="DH115">
         <v>2</v>
@@ -6421,203 +6586,200 @@
     </row>
     <row r="116" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="DE116" t="s">
-        <v>352</v>
-      </c>
-      <c r="DG116" t="s">
-        <v>110</v>
+        <v>323</v>
+      </c>
+      <c r="DF116" t="s">
+        <v>325</v>
       </c>
       <c r="DH116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B117" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="DE117" t="s">
-        <v>354</v>
-      </c>
-      <c r="DG117" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ117">
-        <v>4</v>
+        <v>326</v>
+      </c>
+      <c r="DF117" t="s">
+        <v>328</v>
+      </c>
+      <c r="DH117">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B118" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="DE118" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="DF118" t="s">
-        <v>358</v>
-      </c>
-      <c r="DJ118">
-        <v>4</v>
+        <v>331</v>
+      </c>
+      <c r="DH118">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="DE119" t="s">
-        <v>359</v>
-      </c>
-      <c r="DF119" t="s">
-        <v>361</v>
-      </c>
-      <c r="DJ119">
-        <v>4</v>
+        <v>332</v>
+      </c>
+      <c r="DH119">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="DE120" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="DF120" t="s">
-        <v>364</v>
-      </c>
-      <c r="DJ120">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="DH120">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="DE121" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="DF121" t="s">
-        <v>367</v>
-      </c>
-      <c r="DJ121">
-        <v>4</v>
+        <v>339</v>
+      </c>
+      <c r="DH121">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="DE122" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="DF122" t="s">
-        <v>370</v>
-      </c>
-      <c r="DJ122">
-        <v>4</v>
+        <v>342</v>
+      </c>
+      <c r="DH122">
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="DE123" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="DF123" t="s">
-        <v>373</v>
-      </c>
-      <c r="DJ123">
-        <v>4</v>
+        <v>345</v>
+      </c>
+      <c r="DH123">
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="DE124" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="DF124" t="s">
-        <v>376</v>
-      </c>
-      <c r="DJ124">
-        <v>4</v>
+        <v>348</v>
+      </c>
+      <c r="DH124">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="DE125" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="DF125" t="s">
-        <v>379</v>
-      </c>
-      <c r="DJ125">
-        <v>4</v>
+        <v>351</v>
+      </c>
+      <c r="DH125">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="DE126" t="s">
-        <v>380</v>
-      </c>
-      <c r="DF126" t="s">
-        <v>382</v>
-      </c>
-      <c r="DJ126">
-        <v>4</v>
+        <v>352</v>
+      </c>
+      <c r="DG126" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH126">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="DE127" t="s">
-        <v>383</v>
-      </c>
-      <c r="DF127" t="s">
-        <v>385</v>
+        <v>354</v>
+      </c>
+      <c r="DG127" t="s">
+        <v>110</v>
       </c>
       <c r="DJ127">
         <v>4</v>
@@ -6625,16 +6787,16 @@
     </row>
     <row r="128" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="B128" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="DE128" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="DF128" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="DJ128">
         <v>4</v>
@@ -6642,16 +6804,16 @@
     </row>
     <row r="129" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B129" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="DE129" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="DF129" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="DJ129">
         <v>4</v>
@@ -6659,16 +6821,16 @@
     </row>
     <row r="130" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="DE130" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="DF130" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="DJ130">
         <v>4</v>
@@ -6676,16 +6838,16 @@
     </row>
     <row r="131" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="DE131" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="DF131" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="DJ131">
         <v>4</v>
@@ -6693,197 +6855,203 @@
     </row>
     <row r="132" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="DE132" t="s">
-        <v>398</v>
-      </c>
-      <c r="DG132" t="s">
-        <v>110</v>
+        <v>368</v>
+      </c>
+      <c r="DF132" t="s">
+        <v>370</v>
       </c>
       <c r="DJ132">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="DE133" t="s">
-        <v>400</v>
-      </c>
-      <c r="DG133" t="s">
-        <v>110</v>
+        <v>371</v>
+      </c>
+      <c r="DF133" t="s">
+        <v>373</v>
       </c>
       <c r="DJ133">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="DE134" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="DF134" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="DJ134">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="DE135" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="DF135" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="DJ135">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="DE136" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="DF136" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="DJ136">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="DE137" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="DF137" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="DJ137">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="DE138" t="s">
-        <v>412</v>
+        <v>386</v>
+      </c>
+      <c r="DF138" t="s">
+        <v>388</v>
       </c>
       <c r="DJ138">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="DE139" t="s">
-        <v>414</v>
+        <v>389</v>
+      </c>
+      <c r="DF139" t="s">
+        <v>391</v>
       </c>
       <c r="DJ139">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="DE140" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="DF140" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="DJ140">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="DE141" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="DF141" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="DJ141">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="DE142" t="s">
-        <v>420</v>
-      </c>
-      <c r="DF142" t="s">
-        <v>422</v>
+        <v>398</v>
+      </c>
+      <c r="DG142" t="s">
+        <v>110</v>
       </c>
       <c r="DJ142">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="DE143" t="s">
-        <v>423</v>
-      </c>
-      <c r="DF143" t="s">
-        <v>425</v>
+        <v>400</v>
+      </c>
+      <c r="DG143" t="s">
+        <v>110</v>
       </c>
       <c r="DJ143">
         <v>6</v>
@@ -6891,1736 +7059,1640 @@
     </row>
     <row r="144" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="B144" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="DE144" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="DF144" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="DJ144">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:146" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B145" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="DE145" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="DF145" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="DJ145">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:146" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>406</v>
+      </c>
+      <c r="B146" t="s">
+        <v>407</v>
+      </c>
+      <c r="DE146" t="s">
+        <v>406</v>
+      </c>
+      <c r="DF146" t="s">
+        <v>408</v>
+      </c>
+      <c r="DJ146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>409</v>
+      </c>
+      <c r="B147" t="s">
+        <v>410</v>
+      </c>
+      <c r="DE147" t="s">
+        <v>409</v>
+      </c>
+      <c r="DF147" t="s">
+        <v>411</v>
+      </c>
+      <c r="DJ147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE148" t="s">
+        <v>412</v>
+      </c>
+      <c r="DJ148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" t="s">
+        <v>415</v>
+      </c>
+      <c r="DE149" t="s">
+        <v>414</v>
+      </c>
+      <c r="DJ149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>416</v>
+      </c>
+      <c r="B150" t="s">
+        <v>417</v>
+      </c>
+      <c r="DE150" t="s">
+        <v>416</v>
+      </c>
+      <c r="DF150" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>337</v>
+      </c>
+      <c r="B151" t="s">
+        <v>338</v>
+      </c>
+      <c r="DE151" t="s">
+        <v>337</v>
+      </c>
+      <c r="DF151" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>420</v>
+      </c>
+      <c r="B152" t="s">
+        <v>421</v>
+      </c>
+      <c r="DE152" t="s">
+        <v>420</v>
+      </c>
+      <c r="DF152" t="s">
+        <v>422</v>
+      </c>
+      <c r="DJ152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" t="s">
+        <v>424</v>
+      </c>
+      <c r="DE153" t="s">
+        <v>423</v>
+      </c>
+      <c r="DF153" t="s">
+        <v>425</v>
+      </c>
+      <c r="DJ153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>426</v>
+      </c>
+      <c r="B154" t="s">
+        <v>427</v>
+      </c>
+      <c r="DE154" t="s">
+        <v>426</v>
+      </c>
+      <c r="DF154" t="s">
+        <v>428</v>
+      </c>
+      <c r="DJ154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>395</v>
+      </c>
+      <c r="B155" t="s">
+        <v>396</v>
+      </c>
+      <c r="DE155" t="s">
+        <v>395</v>
+      </c>
+      <c r="DF155" t="s">
+        <v>429</v>
+      </c>
+      <c r="DJ155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>430</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B156" t="s">
         <v>431</v>
       </c>
-      <c r="DE146" t="s">
+      <c r="DE156" t="s">
         <v>430</v>
       </c>
-      <c r="DG146" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL146">
+      <c r="DG156" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL156">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="157" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>432</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B157" t="s">
         <v>433</v>
       </c>
-      <c r="DE147" t="s">
+      <c r="DE157" t="s">
         <v>432</v>
       </c>
-      <c r="DG147" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL147">
+      <c r="DG157" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL157">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="158" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>434</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B158" t="s">
         <v>435</v>
       </c>
-      <c r="DE148" t="s">
+      <c r="DE158" t="s">
         <v>434</v>
       </c>
-      <c r="DF148" t="s">
+      <c r="DF158" t="s">
         <v>436</v>
       </c>
-      <c r="DL148">
+      <c r="DL158">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="159" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>437</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B159" t="s">
         <v>438</v>
       </c>
-      <c r="DE149" t="s">
+      <c r="DE159" t="s">
         <v>437</v>
       </c>
-      <c r="DF149" t="s">
+      <c r="DF159" t="s">
         <v>439</v>
       </c>
-      <c r="DL149">
+      <c r="DL159">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="160" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>440</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B160" t="s">
         <v>441</v>
       </c>
-      <c r="DE150" t="s">
+      <c r="DE160" t="s">
         <v>440</v>
       </c>
-      <c r="DF150" t="s">
+      <c r="DF160" t="s">
         <v>442</v>
       </c>
-      <c r="DL150">
+      <c r="DL160">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="161" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>443</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B161" t="s">
         <v>444</v>
       </c>
-      <c r="DE151" t="s">
+      <c r="DE161" t="s">
         <v>443</v>
       </c>
-      <c r="DF151" t="s">
+      <c r="DF161" t="s">
         <v>445</v>
       </c>
-      <c r="DL151">
+      <c r="DL161">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="162" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>446</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B162" t="s">
         <v>447</v>
       </c>
-      <c r="DE152" t="s">
+      <c r="DE162" t="s">
         <v>446</v>
       </c>
-      <c r="DF152" t="s">
+      <c r="DF162" t="s">
         <v>448</v>
       </c>
-      <c r="DL152">
+      <c r="DL162">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="163" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>449</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B163" t="s">
         <v>450</v>
       </c>
-      <c r="DE153" t="s">
+      <c r="DE163" t="s">
         <v>449</v>
       </c>
-      <c r="DF153" t="s">
+      <c r="DF163" t="s">
         <v>451</v>
       </c>
-      <c r="DL153">
+      <c r="DL163">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="164" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>452</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B164" t="s">
         <v>453</v>
       </c>
-      <c r="DE154" t="s">
+      <c r="DE164" t="s">
         <v>452</v>
       </c>
-      <c r="DG154" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL154">
+      <c r="DG164" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL164">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="165" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>454</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D165" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="166" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>456</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B166" t="s">
         <v>457</v>
       </c>
-      <c r="DR156" t="s">
-        <v>110</v>
-      </c>
-      <c r="DT156">
+      <c r="DR166" t="s">
+        <v>110</v>
+      </c>
+      <c r="DT166">
         <v>142</v>
       </c>
-      <c r="DU156" t="s">
+      <c r="DU166" t="s">
         <v>252</v>
       </c>
-      <c r="DX156" t="s">
+      <c r="DX166" t="s">
         <v>456</v>
       </c>
-      <c r="DY156" t="s">
+      <c r="DY166" t="s">
         <v>458</v>
       </c>
-      <c r="DZ156" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ156">
-        <v>2</v>
-      </c>
-      <c r="EL156">
-        <v>2</v>
-      </c>
-      <c r="EN156">
+      <c r="DZ166" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ166">
+        <v>2</v>
+      </c>
+      <c r="EL166">
+        <v>2</v>
+      </c>
+      <c r="EN166">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="167" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>459</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B167" t="s">
         <v>460</v>
       </c>
-      <c r="DR157" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX157" t="s">
+      <c r="DR167" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX167" t="s">
         <v>459</v>
       </c>
-      <c r="DY157" t="s">
+      <c r="DY167" t="s">
         <v>461</v>
       </c>
-      <c r="DZ157" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ157">
-        <v>2</v>
-      </c>
-      <c r="EL157">
-        <v>2</v>
-      </c>
-      <c r="EN157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="DZ167" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ167">
+        <v>2</v>
+      </c>
+      <c r="EL167">
+        <v>2</v>
+      </c>
+      <c r="EN167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>462</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B168" t="s">
         <v>463</v>
       </c>
-      <c r="DR158" t="s">
-        <v>110</v>
-      </c>
-      <c r="DT158">
+      <c r="DR168" t="s">
+        <v>110</v>
+      </c>
+      <c r="DT168">
         <v>85</v>
       </c>
-      <c r="DU158" t="s">
+      <c r="DU168" t="s">
         <v>464</v>
       </c>
-      <c r="DV158">
+      <c r="DV168">
         <v>0.97</v>
       </c>
-      <c r="DW158" t="s">
+      <c r="DW168" t="s">
         <v>464</v>
       </c>
-      <c r="DX158" t="s">
+      <c r="DX168" t="s">
         <v>462</v>
       </c>
-      <c r="DY158" t="s">
+      <c r="DY168" t="s">
         <v>465</v>
       </c>
-      <c r="EB158" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ158">
+      <c r="EB168" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ168">
         <v>1</v>
       </c>
-      <c r="EL158">
+      <c r="EL168">
         <v>3</v>
       </c>
-      <c r="EN158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="EN168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>466</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B169" t="s">
         <v>467</v>
       </c>
-      <c r="DR159" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX159" t="s">
+      <c r="DR169" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX169" t="s">
         <v>466</v>
       </c>
-      <c r="DY159" t="s">
+      <c r="DY169" t="s">
         <v>468</v>
       </c>
-      <c r="EB159" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ159">
+      <c r="EB169" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ169">
         <v>1</v>
       </c>
-      <c r="EL159">
+      <c r="EL169">
         <v>3</v>
       </c>
-      <c r="EN159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="EN169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>469</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B170" t="s">
         <v>470</v>
       </c>
-      <c r="DR160" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX160" t="s">
+      <c r="DR170" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX170" t="s">
         <v>469</v>
       </c>
-      <c r="DY160" t="s">
+      <c r="DY170" t="s">
         <v>471</v>
       </c>
-      <c r="ED160" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ160">
-        <v>2</v>
-      </c>
-      <c r="EL160">
+      <c r="ED170" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ170">
+        <v>2</v>
+      </c>
+      <c r="EL170">
         <v>1</v>
       </c>
-      <c r="EP160">
+      <c r="EP170">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="171" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>472</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B171" t="s">
         <v>473</v>
       </c>
-      <c r="DR161" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX161" t="s">
+      <c r="DR171" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX171" t="s">
         <v>472</v>
       </c>
-      <c r="DY161" t="s">
+      <c r="DY171" t="s">
         <v>474</v>
       </c>
-      <c r="ED161" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ161">
-        <v>2</v>
-      </c>
-      <c r="EL161">
+      <c r="ED171" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ171">
+        <v>2</v>
+      </c>
+      <c r="EL171">
         <v>1</v>
       </c>
-      <c r="EP161">
+      <c r="EP171">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="172" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>475</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B172" t="s">
         <v>476</v>
       </c>
-      <c r="DR162" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX162" t="s">
+      <c r="DR172" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX172" t="s">
         <v>475</v>
       </c>
-      <c r="DY162" t="s">
+      <c r="DY172" t="s">
         <v>477</v>
       </c>
-      <c r="ED162" t="s">
-        <v>110</v>
-      </c>
-      <c r="EL162">
+      <c r="ED172" t="s">
+        <v>110</v>
+      </c>
+      <c r="EL172">
         <v>1</v>
       </c>
-      <c r="EP162">
+      <c r="EP172">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="173" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>478</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B173" t="s">
         <v>479</v>
       </c>
-      <c r="DR163" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX163" t="s">
+      <c r="DR173" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX173" t="s">
         <v>478</v>
       </c>
-      <c r="DY163" t="s">
+      <c r="DY173" t="s">
         <v>480</v>
       </c>
-      <c r="EF163" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ163">
+      <c r="EF173" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ173">
         <v>3</v>
       </c>
-      <c r="EL163">
+      <c r="EL173">
         <v>1</v>
       </c>
-      <c r="EN163">
+      <c r="EN173">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="174" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>481</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B174" t="s">
         <v>482</v>
       </c>
-      <c r="DR164" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX164" t="s">
+      <c r="DR174" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX174" t="s">
         <v>481</v>
       </c>
-      <c r="DY164" t="s">
+      <c r="DY174" t="s">
         <v>483</v>
       </c>
-      <c r="EF164" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ164">
+      <c r="EF174" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ174">
         <v>3</v>
       </c>
-      <c r="EL164">
-        <v>2</v>
-      </c>
-      <c r="EN164">
+      <c r="EL174">
+        <v>2</v>
+      </c>
+      <c r="EN174">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="175" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>484</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B175" t="s">
         <v>485</v>
       </c>
-      <c r="DR165" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX165" t="s">
+      <c r="DR175" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX175" t="s">
         <v>484</v>
       </c>
-      <c r="DY165" t="s">
+      <c r="DY175" t="s">
         <v>486</v>
       </c>
-      <c r="EH165" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ165">
+      <c r="EH175" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ175">
         <v>3</v>
       </c>
-      <c r="EL165">
+      <c r="EL175">
         <v>1</v>
       </c>
-      <c r="EN165">
+      <c r="EN175">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="176" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>487</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B176" t="s">
         <v>488</v>
       </c>
-      <c r="DR166" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX166" t="s">
+      <c r="DR176" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX176" t="s">
         <v>487</v>
       </c>
-      <c r="DY166" t="s">
+      <c r="DY176" t="s">
         <v>489</v>
       </c>
-      <c r="EH166" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ166">
-        <v>2</v>
-      </c>
-      <c r="EL166">
+      <c r="EH176" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ176">
+        <v>2</v>
+      </c>
+      <c r="EL176">
         <v>1</v>
       </c>
-      <c r="EN166">
+      <c r="EN176">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="177" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>490</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B177" t="s">
         <v>491</v>
       </c>
-      <c r="DR167" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX167" t="s">
+      <c r="DR177" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX177" t="s">
         <v>490</v>
       </c>
-      <c r="DY167" t="s">
+      <c r="DY177" t="s">
         <v>492</v>
       </c>
-      <c r="EH167" t="s">
-        <v>110</v>
-      </c>
-      <c r="EJ167">
+      <c r="EH177" t="s">
+        <v>110</v>
+      </c>
+      <c r="EJ177">
         <v>3</v>
       </c>
-      <c r="EL167">
+      <c r="EL177">
         <v>1</v>
       </c>
-      <c r="EN167">
+      <c r="EN177">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:162" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="178" spans="1:168" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>493</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="169" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="179" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>495</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B179" t="s">
         <v>496</v>
       </c>
-      <c r="ER169" t="s">
-        <v>110</v>
-      </c>
-      <c r="ET169">
+      <c r="ER179" t="s">
+        <v>110</v>
+      </c>
+      <c r="ET179">
         <f>(156+205)/2</f>
         <v>180.5</v>
       </c>
-      <c r="EU169" t="s">
+      <c r="EU179" t="s">
         <v>99</v>
       </c>
-      <c r="EV169">
+      <c r="EV179">
         <f>(0.92+0.94)/2</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="EW169" t="s">
+      <c r="EW179" t="s">
         <v>99</v>
       </c>
-      <c r="EX169" t="s">
+      <c r="EX179" t="s">
         <v>495</v>
       </c>
-      <c r="EZ169">
+      <c r="EZ179">
         <v>0.94</v>
       </c>
-      <c r="FA169" t="s">
+      <c r="FA179" t="s">
         <v>123</v>
       </c>
-      <c r="FB169">
+      <c r="FB179">
         <v>1</v>
       </c>
-      <c r="FD169">
+      <c r="FD179">
         <v>3</v>
       </c>
-      <c r="FF169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="FF179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>497</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B180" t="s">
         <v>498</v>
       </c>
-      <c r="ER170" t="s">
-        <v>110</v>
-      </c>
-      <c r="ET170">
+      <c r="ER180" t="s">
+        <v>110</v>
+      </c>
+      <c r="ET180">
         <v>213</v>
       </c>
-      <c r="EU170" t="s">
+      <c r="EU180" t="s">
         <v>499</v>
       </c>
-      <c r="EV170">
+      <c r="EV180">
         <v>0.95</v>
       </c>
-      <c r="EW170" t="s">
+      <c r="EW180" t="s">
         <v>499</v>
       </c>
-      <c r="EX170" t="s">
+      <c r="EX180" t="s">
         <v>497</v>
       </c>
-      <c r="EZ170">
+      <c r="EZ180">
         <v>0.95</v>
       </c>
-      <c r="FA170" t="s">
+      <c r="FA180" t="s">
         <v>123</v>
       </c>
-      <c r="FB170">
-        <v>2</v>
-      </c>
-      <c r="FD170">
-        <v>2</v>
-      </c>
-      <c r="FF170">
+      <c r="FB180">
+        <v>2</v>
+      </c>
+      <c r="FD180">
+        <v>2</v>
+      </c>
+      <c r="FF180">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="181" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>500</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B181" t="s">
         <v>501</v>
       </c>
-      <c r="ER171" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX171" t="s">
+      <c r="ER181" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX181" t="s">
         <v>500</v>
       </c>
-      <c r="FB171">
+      <c r="FB181">
         <v>3</v>
       </c>
-      <c r="FD171">
-        <v>2</v>
-      </c>
-      <c r="FF171">
+      <c r="FD181">
+        <v>2</v>
+      </c>
+      <c r="FF181">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="182" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>502</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B182" t="s">
         <v>503</v>
       </c>
-      <c r="ER172" t="s">
-        <v>110</v>
-      </c>
-      <c r="ET172">
+      <c r="ER182" t="s">
+        <v>110</v>
+      </c>
+      <c r="ET182">
         <v>104</v>
       </c>
-      <c r="EU172" t="s">
+      <c r="EU182" t="s">
         <v>464</v>
       </c>
-      <c r="EV172">
+      <c r="EV182">
         <v>0.92500000000000004</v>
       </c>
-      <c r="EW172" t="s">
+      <c r="EW182" t="s">
         <v>464</v>
       </c>
-      <c r="EX172" t="s">
+      <c r="EX182" t="s">
         <v>502</v>
       </c>
-      <c r="FB172">
+      <c r="FB182">
         <v>3</v>
       </c>
-      <c r="FD172">
-        <v>2</v>
-      </c>
-      <c r="FF172">
+      <c r="FD182">
+        <v>2</v>
+      </c>
+      <c r="FF182">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="183" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>504</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B183" t="s">
         <v>505</v>
       </c>
-      <c r="ER173" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX173" t="s">
+      <c r="ER183" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX183" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="174" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="184" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>506</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B184" t="s">
         <v>507</v>
       </c>
-      <c r="ER174" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX174" t="s">
+      <c r="ER184" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX184" t="s">
         <v>506</v>
       </c>
-      <c r="FB174">
+      <c r="FB184">
         <v>3</v>
       </c>
-      <c r="FD174">
+      <c r="FD184">
         <v>1</v>
       </c>
-      <c r="FF174">
+      <c r="FF184">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="185" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>508</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B185" t="s">
         <v>509</v>
       </c>
-      <c r="ER175" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX175" t="s">
+      <c r="ER185" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX185" t="s">
         <v>508</v>
       </c>
-      <c r="FB175">
+      <c r="FB185">
         <v>1</v>
       </c>
-      <c r="FD175">
+      <c r="FD185">
         <v>3</v>
       </c>
-      <c r="FF175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:162" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="FF185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>510</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B186" t="s">
         <v>511</v>
       </c>
-      <c r="ER176" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX176" t="s">
+      <c r="ER186" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX186" t="s">
         <v>510</v>
       </c>
-      <c r="FB176">
-        <v>2</v>
-      </c>
-      <c r="FD176">
+      <c r="FB186">
+        <v>2</v>
+      </c>
+      <c r="FD186">
         <v>3</v>
       </c>
-      <c r="FF176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="FF186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>512</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B187" t="s">
         <v>513</v>
       </c>
-      <c r="ER177" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX177" t="s">
+      <c r="ER187" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX187" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="178" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="188" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>514</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B188" t="s">
         <v>515</v>
       </c>
-      <c r="ER178" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX178" t="s">
+      <c r="ER188" t="s">
+        <v>110</v>
+      </c>
+      <c r="EX188" t="s">
         <v>514</v>
       </c>
-      <c r="FD178">
-        <v>2</v>
-      </c>
-      <c r="FF178">
+      <c r="FD188">
+        <v>2</v>
+      </c>
+      <c r="FF188">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="189" spans="1:168" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>516</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="180" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="190" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>518</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B190" t="s">
         <v>519</v>
       </c>
-      <c r="FH180" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ180">
+      <c r="FH190" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ190">
         <v>200</v>
       </c>
-      <c r="FL180">
+      <c r="FL190">
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="191" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>520</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B191" t="s">
         <v>521</v>
       </c>
-      <c r="FH181" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ181">
+      <c r="FH191" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ191">
         <v>160</v>
       </c>
-      <c r="FL181">
+      <c r="FL191">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="192" spans="1:168" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>522</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B192" t="s">
         <v>523</v>
       </c>
-      <c r="FH182" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ182">
+      <c r="FH192" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ192">
         <v>180</v>
       </c>
-      <c r="FL182">
+      <c r="FL192">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="193" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>524</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B193" t="s">
         <v>525</v>
       </c>
-      <c r="FH183" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ183">
+      <c r="FH193" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ193">
         <v>200</v>
       </c>
-      <c r="FL183">
+      <c r="FL193">
         <v>7.5</v>
       </c>
     </row>
-    <row r="184" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="194" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>526</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B194" t="s">
         <v>527</v>
       </c>
-      <c r="FH184" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ184">
+      <c r="FH194" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ194">
         <v>210</v>
       </c>
-      <c r="FL184">
+      <c r="FL194">
         <v>7.5</v>
       </c>
     </row>
-    <row r="185" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="195" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>528</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B195" t="s">
         <v>529</v>
       </c>
-      <c r="FH185" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ185">
+      <c r="FH195" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ195">
         <v>210</v>
       </c>
-      <c r="FL185">
+      <c r="FL195">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="196" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>530</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B196" t="s">
         <v>531</v>
       </c>
-      <c r="FH186" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ186">
+      <c r="FH196" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ196">
         <v>180</v>
       </c>
-      <c r="FL186">
+      <c r="FL196">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="197" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>532</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B197" t="s">
         <v>533</v>
       </c>
-      <c r="FH187" t="s">
-        <v>110</v>
-      </c>
-      <c r="FJ187">
+      <c r="FH197" t="s">
+        <v>110</v>
+      </c>
+      <c r="FJ197">
         <v>160</v>
       </c>
-      <c r="FL187">
+      <c r="FL197">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="198" spans="1:173" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>534</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="189" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="199" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>536</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B199" t="s">
         <v>537</v>
       </c>
-      <c r="FN189" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP189">
+      <c r="FN199" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP199">
         <v>4.5</v>
       </c>
     </row>
-    <row r="190" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="200" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>832</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B200" t="s">
         <v>833</v>
       </c>
-      <c r="FN190" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP190">
+      <c r="FN200" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP200">
         <v>6.6</v>
       </c>
-      <c r="FQ190" t="s">
+      <c r="FQ200" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="191" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="201" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>538</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B201" t="s">
         <v>539</v>
       </c>
-      <c r="FN191" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP191">
+      <c r="FN201" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP201">
         <f>(5.1+5.1)/2</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="FQ191" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="192" spans="1:173" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>829</v>
-      </c>
-      <c r="B192" t="s">
-        <v>830</v>
-      </c>
-      <c r="FN192" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP192">
-        <v>5.7</v>
-      </c>
-      <c r="FQ192" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="193" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>541</v>
-      </c>
-      <c r="B193" t="s">
-        <v>542</v>
-      </c>
-      <c r="FN193" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP193">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="FQ193" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="194" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>543</v>
-      </c>
-      <c r="B194" t="s">
-        <v>544</v>
-      </c>
-      <c r="FN194" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP194">
-        <v>9.9</v>
-      </c>
-      <c r="FQ194" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="195" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>545</v>
-      </c>
-      <c r="B195" t="s">
-        <v>546</v>
-      </c>
-      <c r="FN195" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="196" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>547</v>
-      </c>
-      <c r="B196" t="s">
-        <v>548</v>
-      </c>
-      <c r="FN196" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP196">
-        <v>6.3</v>
-      </c>
-      <c r="FQ196" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="197" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>549</v>
-      </c>
-      <c r="B197" t="s">
-        <v>550</v>
-      </c>
-      <c r="FN197" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP197">
-        <v>6</v>
-      </c>
-      <c r="FQ197" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="198" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>551</v>
-      </c>
-      <c r="B198" t="s">
-        <v>552</v>
-      </c>
-      <c r="FN198" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP198">
-        <v>9</v>
-      </c>
-      <c r="FQ198" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="199" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>553</v>
-      </c>
-      <c r="B199" t="s">
-        <v>554</v>
-      </c>
-      <c r="FN199" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP199">
-        <v>9</v>
-      </c>
-      <c r="FQ199" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="200" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>555</v>
-      </c>
-      <c r="B200" t="s">
-        <v>556</v>
-      </c>
-      <c r="FN200" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP200">
-        <v>6.6</v>
-      </c>
-      <c r="FQ200" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="201" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>557</v>
-      </c>
-      <c r="B201" t="s">
-        <v>558</v>
-      </c>
-      <c r="FN201" t="s">
-        <v>110</v>
-      </c>
-      <c r="FP201">
-        <v>6.3</v>
-      </c>
       <c r="FQ201" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="202" spans="1:174" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B202" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="FN202" t="s">
         <v>110</v>
       </c>
       <c r="FP202">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="FQ202" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="203" spans="1:174" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:173" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>541</v>
+      </c>
+      <c r="B203" t="s">
+        <v>542</v>
+      </c>
+      <c r="FN203" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP203">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="FQ203" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="204" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>543</v>
+      </c>
+      <c r="B204" t="s">
+        <v>544</v>
+      </c>
+      <c r="FN204" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP204">
+        <v>9.9</v>
+      </c>
+      <c r="FQ204" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="205" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>545</v>
+      </c>
+      <c r="B205" t="s">
+        <v>546</v>
+      </c>
+      <c r="FN205" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>547</v>
+      </c>
+      <c r="B206" t="s">
+        <v>548</v>
+      </c>
+      <c r="FN206" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP206">
+        <v>6.3</v>
+      </c>
+      <c r="FQ206" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="207" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>549</v>
+      </c>
+      <c r="B207" t="s">
+        <v>550</v>
+      </c>
+      <c r="FN207" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP207">
+        <v>6</v>
+      </c>
+      <c r="FQ207" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="208" spans="1:173" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>551</v>
+      </c>
+      <c r="B208" t="s">
+        <v>552</v>
+      </c>
+      <c r="FN208" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP208">
+        <v>9</v>
+      </c>
+      <c r="FQ208" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="209" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>553</v>
+      </c>
+      <c r="B209" t="s">
+        <v>554</v>
+      </c>
+      <c r="FN209" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP209">
+        <v>9</v>
+      </c>
+      <c r="FQ209" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="210" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>555</v>
+      </c>
+      <c r="B210" t="s">
+        <v>556</v>
+      </c>
+      <c r="FN210" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP210">
+        <v>6.6</v>
+      </c>
+      <c r="FQ210" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="211" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>557</v>
+      </c>
+      <c r="B211" t="s">
+        <v>558</v>
+      </c>
+      <c r="FN211" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP211">
+        <v>6.3</v>
+      </c>
+      <c r="FQ211" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="212" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>839</v>
+      </c>
+      <c r="B212" t="s">
+        <v>840</v>
+      </c>
+      <c r="FN212" t="s">
+        <v>110</v>
+      </c>
+      <c r="FP212">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="FQ212" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="213" spans="1:174" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>559</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="204" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="214" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>561</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B214" t="s">
         <v>562</v>
       </c>
-      <c r="E204">
+      <c r="E214">
         <v>2200</v>
       </c>
-      <c r="FR204" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="205" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="FR214" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="215" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>563</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B215" t="s">
         <v>564</v>
       </c>
-      <c r="E205">
+      <c r="E215">
         <v>1800</v>
       </c>
-      <c r="FR205" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="FR215" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="216" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>565</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B216" t="s">
         <v>566</v>
       </c>
-      <c r="E206">
+      <c r="E216">
         <v>1600</v>
       </c>
-      <c r="FR206" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="207" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="FR216" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>567</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B217" t="s">
         <v>568</v>
       </c>
-      <c r="E207">
+      <c r="E217">
         <v>1500</v>
       </c>
-      <c r="FR207" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="208" spans="1:174" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="FR217" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>569</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B218" t="s">
         <v>570</v>
       </c>
-      <c r="E208">
+      <c r="E218">
         <v>1100</v>
       </c>
-      <c r="FR208" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="209" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="FR218" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>571</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B219" t="s">
         <v>572</v>
       </c>
-      <c r="E209">
+      <c r="E219">
         <v>450</v>
       </c>
-      <c r="FR209" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="210" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="FR219" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>573</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B220" t="s">
         <v>574</v>
       </c>
-      <c r="E210">
+      <c r="E220">
         <v>900</v>
       </c>
-      <c r="FR210" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="211" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="FR220" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="221" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>575</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B221" t="s">
         <v>576</v>
       </c>
-      <c r="E211">
+      <c r="E221">
         <v>1200</v>
       </c>
-      <c r="FR211" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="212" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="FR221" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>577</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B222" t="s">
         <v>578</v>
       </c>
-      <c r="E212">
+      <c r="E222">
         <v>300</v>
       </c>
-      <c r="FR212" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="213" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="FR222" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="223" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>579</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B223" t="s">
         <v>580</v>
       </c>
-      <c r="E213">
+      <c r="E223">
         <v>11</v>
       </c>
-      <c r="FR213" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="214" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="FR223" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:174" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>581</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B224" t="s">
         <v>582</v>
       </c>
-      <c r="E214">
+      <c r="E224">
         <v>300</v>
       </c>
-      <c r="FR214" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="215" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="FR224" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>583</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B225" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="216" spans="1:206" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="226" spans="1:206" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>592</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="217" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+    <row r="227" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="GN217" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP217" s="4" t="s">
+      <c r="GN227" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP227" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="GR217" s="4" t="s">
+      <c r="GR227" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="GT217" s="4" t="s">
+      <c r="GT227" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="GV217" s="4" t="s">
+      <c r="GV227" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="GX217" s="4" t="s">
+      <c r="GX227" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="218" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+    <row r="228" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="GN218" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP218" s="5" t="s">
+      <c r="GN228" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP228" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="GR218" s="5" t="s">
+      <c r="GR228" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="GT218" s="5" t="s">
+      <c r="GT228" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="GV218" s="5" t="s">
+      <c r="GV228" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="GX218" s="5" t="s">
+      <c r="GX228" s="5" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="219" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+    <row r="229" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="GN219" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP219" s="4" t="s">
+      <c r="GN229" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP229" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="GR219" s="4" t="s">
+      <c r="GR229" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="GT219" s="4" t="s">
+      <c r="GT229" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="GV219" s="4" t="s">
+      <c r="GV229" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="GX219" s="4" t="s">
+      <c r="GX229" s="4" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="220" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="GN220" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP220" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR220" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT220" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV220" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX220" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="221" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="GN221" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP221" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR221" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT221" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV221" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX221" s="5" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="222" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="GN222" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP222" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR222" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT222" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV222" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX222" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="223" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="GN223" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP223" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR223" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT223" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="GV223" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX223" s="5" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="224" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="GN224" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP224" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR224" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT224" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="GV224" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="GX224" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="225" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="GN225" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP225" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR225" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT225" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="GV225" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="GX225" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="226" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="GN226" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP226" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR226" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="GT226" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="GV226" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="GX226" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="227" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="GN227" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP227" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR227" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="GT227" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="GV227" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="GX227" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="228" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="GN228" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP228" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR228" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="GT228" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="GV228" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="GX228" s="4" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="229" spans="1:206" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="GN229" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP229" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="GR229" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="GT229" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="GV229" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="GX229" s="5" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="230" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="GN230" t="s">
         <v>110</v>
@@ -8632,21 +8704,21 @@
         <v>756</v>
       </c>
       <c r="GT230" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV230" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="GX230" s="4" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
     </row>
     <row r="231" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="GN231" t="s">
         <v>110</v>
@@ -8655,24 +8727,24 @@
         <v>753</v>
       </c>
       <c r="GR231" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT231" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV231" s="5" t="s">
         <v>774</v>
       </c>
       <c r="GX231" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="232" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="GN232" t="s">
         <v>110</v>
@@ -8681,24 +8753,24 @@
         <v>753</v>
       </c>
       <c r="GR232" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT232" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="GV232" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX232" s="4" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="233" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="GN233" t="s">
         <v>110</v>
@@ -8710,21 +8782,21 @@
         <v>756</v>
       </c>
       <c r="GT233" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="GV233" s="5" t="s">
         <v>774</v>
       </c>
       <c r="GX233" s="5" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="234" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="GN234" t="s">
         <v>110</v>
@@ -8733,24 +8805,24 @@
         <v>753</v>
       </c>
       <c r="GR234" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT234" s="4" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="GV234" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX234" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="235" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="GN235" t="s">
         <v>110</v>
@@ -8762,21 +8834,21 @@
         <v>756</v>
       </c>
       <c r="GT235" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV235" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX235" s="5" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="236" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="GN236" t="s">
         <v>110</v>
@@ -8785,24 +8857,24 @@
         <v>753</v>
       </c>
       <c r="GR236" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="GT236" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="GV236" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="GX236" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="237" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="GN237" t="s">
         <v>110</v>
@@ -8811,24 +8883,24 @@
         <v>753</v>
       </c>
       <c r="GR237" s="5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="GT237" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV237" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="GX237" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="238" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="GN238" t="s">
         <v>110</v>
@@ -8846,15 +8918,15 @@
         <v>774</v>
       </c>
       <c r="GX238" s="4" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="239" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="GN239" t="s">
         <v>110</v>
@@ -8863,24 +8935,24 @@
         <v>753</v>
       </c>
       <c r="GR239" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT239" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV239" s="5" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="GX239" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="240" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="GN240" t="s">
         <v>110</v>
@@ -8895,18 +8967,18 @@
         <v>765</v>
       </c>
       <c r="GV240" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="GX240" s="4" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="GN241" t="s">
         <v>110</v>
@@ -8915,24 +8987,24 @@
         <v>753</v>
       </c>
       <c r="GR241" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT241" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV241" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX241" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="242" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="GN242" t="s">
         <v>110</v>
@@ -8941,24 +9013,24 @@
         <v>753</v>
       </c>
       <c r="GR242" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT242" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV242" s="4" t="s">
         <v>773</v>
       </c>
       <c r="GX242" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="243" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="GN243" t="s">
         <v>110</v>
@@ -8970,21 +9042,21 @@
         <v>756</v>
       </c>
       <c r="GT243" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV243" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX243" s="5" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="244" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="GN244" t="s">
         <v>110</v>
@@ -8993,24 +9065,24 @@
         <v>753</v>
       </c>
       <c r="GR244" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT244" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="GV244" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX244" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="245" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="GN245" t="s">
         <v>110</v>
@@ -9022,21 +9094,21 @@
         <v>756</v>
       </c>
       <c r="GT245" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV245" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX245" s="5" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="246" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="GN246" t="s">
         <v>110</v>
@@ -9045,24 +9117,24 @@
         <v>753</v>
       </c>
       <c r="GR246" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT246" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV246" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX246" s="4" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="247" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="GN247" t="s">
         <v>110</v>
@@ -9074,21 +9146,21 @@
         <v>756</v>
       </c>
       <c r="GT247" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV247" s="5" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="GX247" s="5" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="248" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="GN248" t="s">
         <v>110</v>
@@ -9097,7 +9169,7 @@
         <v>753</v>
       </c>
       <c r="GR248" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="GT248" s="4" t="s">
         <v>769</v>
@@ -9106,15 +9178,15 @@
         <v>774</v>
       </c>
       <c r="GX248" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="249" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>724</v>
+        <v>681</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="GN249" t="s">
         <v>110</v>
@@ -9126,21 +9198,21 @@
         <v>756</v>
       </c>
       <c r="GT249" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV249" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="GX249" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="250" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="GN250" t="s">
         <v>110</v>
@@ -9149,24 +9221,24 @@
         <v>753</v>
       </c>
       <c r="GR250" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT250" s="4" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="GV250" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX250" s="4" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="251" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="GN251" t="s">
         <v>110</v>
@@ -9184,15 +9256,15 @@
         <v>773</v>
       </c>
       <c r="GX251" s="5" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="252" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="GN252" t="s">
         <v>110</v>
@@ -9201,24 +9273,24 @@
         <v>753</v>
       </c>
       <c r="GR252" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT252" s="4" t="s">
         <v>765</v>
       </c>
       <c r="GV252" s="4" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="GX252" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="253" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="GN253" t="s">
         <v>110</v>
@@ -9227,24 +9299,24 @@
         <v>753</v>
       </c>
       <c r="GR253" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT253" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV253" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX253" s="5" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
     </row>
     <row r="254" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="GN254" t="s">
         <v>110</v>
@@ -9262,15 +9334,15 @@
         <v>774</v>
       </c>
       <c r="GX254" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="255" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="GN255" t="s">
         <v>110</v>
@@ -9279,24 +9351,24 @@
         <v>753</v>
       </c>
       <c r="GR255" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="GT255" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV255" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX255" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="256" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="GN256" t="s">
         <v>110</v>
@@ -9305,24 +9377,24 @@
         <v>753</v>
       </c>
       <c r="GR256" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="GT256" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV256" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX256" s="4" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="257" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="GN257" t="s">
         <v>110</v>
@@ -9334,21 +9406,21 @@
         <v>756</v>
       </c>
       <c r="GT257" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV257" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX257" s="5" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="258" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="GN258" t="s">
         <v>110</v>
@@ -9357,24 +9429,24 @@
         <v>753</v>
       </c>
       <c r="GR258" s="4" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="GT258" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV258" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="GX258" s="4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="259" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="GN259" t="s">
         <v>110</v>
@@ -9383,24 +9455,24 @@
         <v>753</v>
       </c>
       <c r="GR259" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="GT259" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="GV259" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="GX259" s="5" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
     </row>
     <row r="260" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="GN260" t="s">
         <v>110</v>
@@ -9412,21 +9484,21 @@
         <v>757</v>
       </c>
       <c r="GT260" s="4" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="GV260" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="GX260" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="261" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="GN261" t="s">
         <v>110</v>
@@ -9438,21 +9510,21 @@
         <v>756</v>
       </c>
       <c r="GT261" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV261" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="GX261" s="5" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="262" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="GN262" t="s">
         <v>110</v>
@@ -9461,24 +9533,24 @@
         <v>753</v>
       </c>
       <c r="GR262" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT262" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="GV262" s="4" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="GX262" s="4" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
     </row>
     <row r="263" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="GN263" t="s">
         <v>110</v>
@@ -9493,18 +9565,18 @@
         <v>765</v>
       </c>
       <c r="GV263" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="GX263" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="264" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="GN264" t="s">
         <v>110</v>
@@ -9516,281 +9588,281 @@
         <v>756</v>
       </c>
       <c r="GT264" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="GV264" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX264" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="265" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="GN265" t="s">
         <v>110</v>
       </c>
       <c r="GP265" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR265" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT265" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV265" s="5" t="s">
         <v>774</v>
       </c>
       <c r="GX265" s="5" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="266" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>734</v>
+        <v>689</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="GN266" t="s">
         <v>110</v>
       </c>
       <c r="GP266" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR266" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="GT266" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="GV266" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="GX266" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="267" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="GN267" t="s">
         <v>110</v>
       </c>
       <c r="GP267" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR267" s="5" t="s">
         <v>756</v>
       </c>
       <c r="GT267" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="GV267" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX267" s="5" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="268" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="GN268" t="s">
         <v>110</v>
       </c>
       <c r="GP268" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR268" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT268" s="4" t="s">
         <v>765</v>
       </c>
       <c r="GV268" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="GX268" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="269" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="GN269" t="s">
         <v>110</v>
       </c>
       <c r="GP269" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR269" s="5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="GT269" s="5" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="GV269" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX269" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="270" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="GN270" t="s">
         <v>110</v>
       </c>
       <c r="GP270" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR270" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT270" s="4" t="s">
         <v>765</v>
       </c>
       <c r="GV270" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="GX270" s="4" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="271" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="GN271" t="s">
         <v>110</v>
       </c>
       <c r="GP271" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR271" s="5" t="s">
         <v>756</v>
       </c>
       <c r="GT271" s="5" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="GV271" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX271" s="5" t="s">
-        <v>821</v>
+        <v>783</v>
       </c>
     </row>
     <row r="272" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="GN272" t="s">
         <v>110</v>
       </c>
       <c r="GP272" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR272" s="4" t="s">
         <v>756</v>
       </c>
       <c r="GT272" s="4" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="GV272" s="4" t="s">
         <v>774</v>
       </c>
       <c r="GX272" s="4" t="s">
-        <v>822</v>
+        <v>783</v>
       </c>
     </row>
     <row r="273" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="GN273" t="s">
         <v>110</v>
       </c>
       <c r="GP273" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR273" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="GT273" s="5" t="s">
         <v>765</v>
       </c>
       <c r="GV273" s="5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="GX273" s="5" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
     </row>
     <row r="274" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="GN274" t="s">
         <v>110</v>
       </c>
       <c r="GP274" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="GR274" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="GT274" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="GV274" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="GX274" s="4" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
     </row>
     <row r="275" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="GN275" t="s">
         <v>110</v>
@@ -9802,21 +9874,21 @@
         <v>756</v>
       </c>
       <c r="GT275" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="GV275" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="GX275" s="5" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="276" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="GN276" t="s">
         <v>110</v>
@@ -9828,21 +9900,21 @@
         <v>756</v>
       </c>
       <c r="GT276" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="GV276" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="GX276" s="4" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
     </row>
     <row r="277" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="GN277" t="s">
         <v>110</v>
@@ -9854,21 +9926,21 @@
         <v>756</v>
       </c>
       <c r="GT277" s="5" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="GV277" s="5" t="s">
         <v>778</v>
       </c>
       <c r="GX277" s="5" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
     </row>
     <row r="278" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="GN278" t="s">
         <v>110</v>
@@ -9880,21 +9952,21 @@
         <v>756</v>
       </c>
       <c r="GT278" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV278" s="4" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="GX278" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="279" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>739</v>
+        <v>693</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="GN279" t="s">
         <v>110</v>
@@ -9909,18 +9981,18 @@
         <v>766</v>
       </c>
       <c r="GV279" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="GX279" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="280" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="GN280" t="s">
         <v>110</v>
@@ -9929,24 +10001,24 @@
         <v>754</v>
       </c>
       <c r="GR280" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="GT280" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="GV280" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="GX280" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="281" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="GN281" t="s">
         <v>110</v>
@@ -9958,21 +10030,21 @@
         <v>756</v>
       </c>
       <c r="GT281" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="GV281" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="GX281" s="5" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
     </row>
     <row r="282" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="GN282" t="s">
         <v>110</v>
@@ -9981,24 +10053,24 @@
         <v>754</v>
       </c>
       <c r="GR282" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="GT282" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="GV282" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="GX282" s="4" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
     </row>
     <row r="283" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="GN283" t="s">
         <v>110</v>
@@ -10010,21 +10082,21 @@
         <v>756</v>
       </c>
       <c r="GT283" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="GV283" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="GX283" s="5" t="s">
-        <v>824</v>
+        <v>789</v>
       </c>
     </row>
     <row r="284" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="GN284" t="s">
         <v>110</v>
@@ -10033,24 +10105,24 @@
         <v>754</v>
       </c>
       <c r="GR284" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="GT284" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="GV284" s="4" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="GX284" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="285" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="GN285" t="s">
         <v>110</v>
@@ -10062,21 +10134,21 @@
         <v>756</v>
       </c>
       <c r="GT285" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="GV285" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="GX285" s="5" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
     </row>
     <row r="286" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="GN286" t="s">
         <v>110</v>
@@ -10088,21 +10160,21 @@
         <v>756</v>
       </c>
       <c r="GT286" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="GV286" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="GX286" s="4" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
     </row>
     <row r="287" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="GN287" t="s">
         <v>110</v>
@@ -10111,24 +10183,24 @@
         <v>754</v>
       </c>
       <c r="GR287" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="GT287" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="GV287" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="GX287" s="5" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
     </row>
     <row r="288" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="GN288" t="s">
         <v>110</v>
@@ -10140,21 +10212,21 @@
         <v>756</v>
       </c>
       <c r="GT288" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV288" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="GX288" s="4" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="289" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="GN289" t="s">
         <v>110</v>
@@ -10166,21 +10238,21 @@
         <v>756</v>
       </c>
       <c r="GT289" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="GV289" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="GX289" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="290" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="GN290" t="s">
         <v>110</v>
@@ -10189,24 +10261,24 @@
         <v>754</v>
       </c>
       <c r="GR290" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="GT290" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="GV290" s="4" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="GX290" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="291" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="GN291" t="s">
         <v>110</v>
@@ -10218,21 +10290,21 @@
         <v>756</v>
       </c>
       <c r="GT291" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="GV291" s="5" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="GX291" s="5" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="292" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="GN292" t="s">
         <v>110</v>
@@ -10241,13 +10313,13 @@
         <v>754</v>
       </c>
       <c r="GR292" s="4" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="GT292" s="4" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="GV292" s="4" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="GX292" s="4" t="s">
         <v>800</v>
@@ -10255,10 +10327,10 @@
     </row>
     <row r="293" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="GN293" t="s">
         <v>110</v>
@@ -10267,24 +10339,24 @@
         <v>754</v>
       </c>
       <c r="GR293" s="5" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="GT293" s="5" t="s">
         <v>768</v>
       </c>
       <c r="GV293" s="5" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="GX293" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="294" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="GN294" t="s">
         <v>110</v>
@@ -10299,9 +10371,269 @@
         <v>769</v>
       </c>
       <c r="GV294" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX294" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="295" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="GN295" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP295" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR295" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT295" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="GV295" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="GX295" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="296" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="GN296" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP296" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR296" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT296" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV296" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX296" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="297" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="GN297" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP297" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR297" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="GT297" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV297" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="GX297" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="298" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="GN298" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP298" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR298" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT298" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV298" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX298" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="299" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="GN299" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP299" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR299" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT299" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV299" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="GX299" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="300" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="GN300" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP300" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR300" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT300" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV300" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX300" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="301" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="GN301" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP301" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR301" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT301" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="GV301" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="GX294" s="4" t="s">
+      <c r="GX301" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="302" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="GN302" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP302" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR302" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT302" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="GV302" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="GX302" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="303" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="GN303" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP303" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR303" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="GT303" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="GV303" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="GX303" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="304" spans="1:206" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="GN304" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP304" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="GR304" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="GT304" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="GV304" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="GX304" s="4" t="s">
         <v>783</v>
       </c>
     </row>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Convertisseur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895DE973-A931-431F-9297-2BCD7BA1723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734540A7-34E7-4CEC-BF17-9FAB63310B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB65F6B7-6B5B-4AD1-B2B4-57BEF641AB97}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="943">
   <si>
     <t>id</t>
   </si>
@@ -2729,6 +2729,126 @@
   </si>
   <si>
     <t>pear_spcfc_peel</t>
+  </si>
+  <si>
+    <t>is_flour_use</t>
+  </si>
+  <si>
+    <t>farine</t>
+  </si>
+  <si>
+    <t>Farine</t>
+  </si>
+  <si>
+    <t>biscuit</t>
+  </si>
+  <si>
+    <t>baguette</t>
+  </si>
+  <si>
+    <t>pizza_levee_longue</t>
+  </si>
+  <si>
+    <t>pain_de_campagne</t>
+  </si>
+  <si>
+    <t>brioche</t>
+  </si>
+  <si>
+    <t>panettone</t>
+  </si>
+  <si>
+    <t>Biscuit</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Brioche</t>
+  </si>
+  <si>
+    <t>Panettone</t>
+  </si>
+  <si>
+    <t>Pizza levée longue</t>
+  </si>
+  <si>
+    <t>Pain de campagne</t>
+  </si>
+  <si>
+    <t>Pain complet</t>
+  </si>
+  <si>
+    <t>Pizza_levee_courte</t>
+  </si>
+  <si>
+    <t>pizza levée courte</t>
+  </si>
+  <si>
+    <t>flour_T</t>
+  </si>
+  <si>
+    <t>flour_W</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>W&lt;170</t>
+  </si>
+  <si>
+    <t>T45-T55</t>
+  </si>
+  <si>
+    <t>180&lt;W&lt;240</t>
+  </si>
+  <si>
+    <t>T55-T65</t>
+  </si>
+  <si>
+    <t>W&lt;180</t>
+  </si>
+  <si>
+    <t>280&lt;W&lt;320</t>
+  </si>
+  <si>
+    <t>T65-T80</t>
+  </si>
+  <si>
+    <t>220&lt;W&lt;280</t>
+  </si>
+  <si>
+    <t>T110-T150</t>
+  </si>
+  <si>
+    <t>200&lt;W&lt;250</t>
+  </si>
+  <si>
+    <t>300&lt;W&lt;330</t>
+  </si>
+  <si>
+    <t>W&gt;350</t>
+  </si>
+  <si>
+    <t>200&lt;W&lt;240</t>
+  </si>
+  <si>
+    <t>pate_brisee</t>
+  </si>
+  <si>
+    <t>Pate brisée</t>
+  </si>
+  <si>
+    <t>pate_feulletee</t>
+  </si>
+  <si>
+    <t>Pâte feuilletée</t>
+  </si>
+  <si>
+    <t>180&lt;W&lt;220</t>
+  </si>
+  <si>
+    <t>pain_complet</t>
   </si>
 </sst>
 </file>
@@ -3066,7 +3186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3205,6 +3325,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3250,7 +3379,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -3259,6 +3388,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3614,18 +3746,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C99BCBC-C19B-4075-AB48-0622208F227E}">
-  <dimension ref="A1:IF311"/>
+  <dimension ref="A1:IL322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="14" topLeftCell="ID26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="14" topLeftCell="IG312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="IJ314" sqref="IJ314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4001,8 +4133,17 @@
       <c r="IF1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="2" spans="1:240" x14ac:dyDescent="0.3">
+      <c r="IH1" t="s">
+        <v>903</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>921</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -4028,7 +4169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -4042,7 +4183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -4059,7 +4200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>842</v>
       </c>
@@ -4070,7 +4211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4087,7 +4228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4113,7 +4254,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>834</v>
       </c>
@@ -4128,7 +4269,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -4139,7 +4280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -4159,7 +4300,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -4182,7 +4323,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="12" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -4196,7 +4337,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -4218,7 +4359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4240,7 +4381,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>836</v>
       </c>
@@ -4260,7 +4401,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="16" spans="1:240" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -10707,7 +10848,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="305" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>744</v>
       </c>
@@ -10733,7 +10874,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="306" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>745</v>
       </c>
@@ -10759,7 +10900,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="307" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>746</v>
       </c>
@@ -10785,7 +10926,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="308" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>704</v>
       </c>
@@ -10811,7 +10952,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="309" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>705</v>
       </c>
@@ -10837,7 +10978,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="310" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>747</v>
       </c>
@@ -10863,7 +11004,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="311" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:246" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>706</v>
       </c>
@@ -10887,6 +11028,187 @@
       </c>
       <c r="GX311" s="4" t="s">
         <v>783</v>
+      </c>
+    </row>
+    <row r="312" spans="1:246" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I312">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A313" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B313" t="s">
+        <v>912</v>
+      </c>
+      <c r="IH313" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ313" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="IL313" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="314" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A314" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="B314" t="s">
+        <v>938</v>
+      </c>
+      <c r="IH314" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ314" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="IL314" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="315" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A315" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="B315" t="s">
+        <v>940</v>
+      </c>
+      <c r="IH315" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ315" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="IL315" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="316" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A316" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B316" t="s">
+        <v>913</v>
+      </c>
+      <c r="IH316" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ316" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="IL316" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="317" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A317" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="B317" t="s">
+        <v>920</v>
+      </c>
+      <c r="IH317" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ317" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="IL317" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="318" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A318" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B318" t="s">
+        <v>916</v>
+      </c>
+      <c r="IH318" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ318" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="IL318" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="319" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A319" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="B319" t="s">
+        <v>917</v>
+      </c>
+      <c r="IH319" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ319" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="IL319" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="320" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A320" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B320" t="s">
+        <v>918</v>
+      </c>
+      <c r="IH320" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ320" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="IL320" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="321" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A321" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B321" t="s">
+        <v>914</v>
+      </c>
+      <c r="IH321" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ321" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="IL321" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="322" spans="1:246" x14ac:dyDescent="0.3">
+      <c r="A322" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B322" t="s">
+        <v>915</v>
+      </c>
+      <c r="IH322" t="s">
+        <v>110</v>
+      </c>
+      <c r="IJ322" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="IL322" t="s">
+        <v>935</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Convertisseur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE17E1C1-E180-4D0E-89AA-E5B816E70886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD633E6-452D-4254-9328-5E564DEAE688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB65F6B7-6B5B-4AD1-B2B4-57BEF641AB97}"/>
   </bookViews>
@@ -3754,11 +3754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C99BCBC-C19B-4075-AB48-0622208F227E}">
   <dimension ref="A1:IL323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="14" topLeftCell="GY15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="9" ySplit="14" topLeftCell="EW183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="FF196" sqref="FF196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8423,6 +8423,15 @@
       <c r="EX191" t="s">
         <v>503</v>
       </c>
+      <c r="FB191">
+        <v>3</v>
+      </c>
+      <c r="FD191">
+        <v>2</v>
+      </c>
+      <c r="FF191">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
@@ -8505,6 +8514,15 @@
       </c>
       <c r="EX195" t="s">
         <v>511</v>
+      </c>
+      <c r="FB195">
+        <v>3</v>
+      </c>
+      <c r="FD195">
+        <v>1</v>
+      </c>
+      <c r="FF195">
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:173" x14ac:dyDescent="0.3">

--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Convertisseur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD633E6-452D-4254-9328-5E564DEAE688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378B51B9-2E65-4CAC-BC91-66980DDF764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB65F6B7-6B5B-4AD1-B2B4-57BEF641AB97}"/>
   </bookViews>
@@ -3755,10 +3755,10 @@
   <dimension ref="A1:IL323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="9" ySplit="14" topLeftCell="EW183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="14" topLeftCell="EV183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="FF196" sqref="FF196"/>
+      <selection pane="bottomRight" activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8267,6 +8267,10 @@
       <c r="B186" s="1" t="s">
         <v>493</v>
       </c>
+      <c r="G186">
+        <f>AVERAGE(EZ187,EZ188)</f>
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="187" spans="1:162" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
